--- a/Language Data/Data.xlsx
+++ b/Language Data/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53276\OneDrive\Documents\MathsProject\Language Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784BABF8-4034-4701-859F-BE4DC9E512C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E0EFF-25C9-4A40-A8D0-687BD5E870DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
   </bookViews>
@@ -2774,10 +2774,191 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>56684</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6CB7FF-E4B2-74A1-F4C6-E33A6D42911C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="0"/>
+          <a:ext cx="3723809" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599609</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969BEBA3-A6C7-8287-E4F2-5919C18FE207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="0"/>
+          <a:ext cx="3723809" cy="6295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599609</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>56363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652EE053-62FB-6B73-BD1F-88A473CCD180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="6334125"/>
+          <a:ext cx="3723809" cy="6295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609134</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>46814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809DCDE7-ED80-B9D2-55B5-F1F9465CED87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="12801600"/>
+          <a:ext cx="3723809" cy="6485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}" name="Table1" displayName="Table1" ref="A1:H100">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H100">
-    <sortCondition ref="B1:B100"/>
+    <sortCondition ref="A1:A100"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{56C0FDDF-B280-41BC-91E9-7D29EABE3154}" name="Vertex" totalsRowLabel="Total"/>
@@ -10838,7 +11019,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13452,8 +13633,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Language Data/Data.xlsx
+++ b/Language Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53276\OneDrive\Documents\MathsProject\Language Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E0EFF-25C9-4A40-A8D0-687BD5E870DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6CC13-7D03-4264-BB77-CEF20BDDB8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
   </bookViews>
   <sheets>
     <sheet name="KarateClub" sheetId="12" r:id="rId1"/>
@@ -2957,8 +2957,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}" name="Table1" displayName="Table1" ref="A1:H100">
+  <autoFilter ref="A1:H100" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H100">
-    <sortCondition ref="A1:A100"/>
+    <sortCondition descending="1" ref="D1:D100"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{56C0FDDF-B280-41BC-91E9-7D29EABE3154}" name="Vertex" totalsRowLabel="Total"/>
@@ -11019,7 +11020,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11058,548 +11059,548 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>1.98022733947893</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
-        <v>9.2591591517434502</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>2.2222222222222201</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>7.6451761693819202</v>
+        <v>0.76365981839803398</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>2.5255621104011898</v>
+        <v>8.3475686603066599</v>
       </c>
       <c r="E3" s="4">
-        <v>0.60155304671487297</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>1.6415410385259599</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.35581012224877501</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>3.1959905346747002</v>
+        <v>7.4531485161920399</v>
       </c>
       <c r="E4" s="4">
-        <v>0.237509737409837</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>1.82156133828996</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.161294975894755</v>
+        <v>0.41083737318012398</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>2.9968254814991</v>
+        <v>7.1688411650230597</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>2.48730964467005</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.57142857142857095</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>8.1275071452924408</v>
+        <v>1.7810590840635001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>2.9513544030218202</v>
+        <v>6.0097154011934704</v>
       </c>
       <c r="E6" s="4">
-        <v>0.73465530130408296</v>
+        <v>2.4489662443942</v>
       </c>
       <c r="F6" s="4">
-        <v>2.15859030837004</v>
+        <v>1.92913385826771</v>
       </c>
       <c r="G6" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>1.1322623609931799</v>
+        <v>1.93161079390949</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>1.2384724179487501</v>
+        <v>5.9901136697394604</v>
       </c>
       <c r="E7" s="4">
-        <v>1.5591978394735999</v>
+        <v>0.32497693328274702</v>
       </c>
       <c r="F7" s="4">
-        <v>1.51001540832049</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.33224602469585701</v>
+        <v>0.61113996810595606</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>3.7841926506492598</v>
+        <v>5.62438769385688</v>
       </c>
       <c r="E8" s="4">
-        <v>3.1497903603945399</v>
+        <v>1.65279670383532</v>
       </c>
       <c r="F8" s="4">
-        <v>1.90661478599221</v>
+        <v>1.8738049713193099</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>3.2395303824554098</v>
+        <v>1.30321340979428</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>3.2885609130042601</v>
+        <v>5.1934612875368202</v>
       </c>
       <c r="E9" s="4">
-        <v>0.76618467891054698</v>
+        <v>6.2101709069765798</v>
       </c>
       <c r="F9" s="4">
-        <v>1.8114602587800299</v>
+        <v>2.3728813559322002</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>0.41774790400580403</v>
+        <v>6.0340622132343498</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>2.58154910986904</v>
+        <v>4.9138800748728304</v>
       </c>
       <c r="E10" s="4">
-        <v>0.83318554171427806</v>
+        <v>0.99567400835565101</v>
       </c>
       <c r="F10" s="4">
-        <v>1.84210526315789</v>
+        <v>1.9405940594059401</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0.74498643332491499</v>
+        <v>0.82045072486955495</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>3.1060831427278202</v>
+        <v>4.8969540259213602</v>
       </c>
       <c r="E11" s="4">
-        <v>0.38203721954201803</v>
+        <v>0.323305952597428</v>
       </c>
       <c r="F11" s="4">
-        <v>1.87739463601532</v>
+        <v>1.630615640599</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>0.10630371247272601</v>
+        <v>0.58916176606801995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>2.4334879836672001</v>
+        <v>4.8439847717068396</v>
       </c>
       <c r="E12" s="4">
-        <v>0.73085237974439099</v>
+        <v>0.73615342191850697</v>
       </c>
       <c r="F12" s="4">
-        <v>1.8317757009345701</v>
+        <v>1.9367588932806299</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>0.103584627651352</v>
+        <v>0.67794298025185795</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>1.98022733947893</v>
+        <v>4.8277109777560598</v>
       </c>
       <c r="E13" s="4">
-        <v>1.96023320395018</v>
+        <v>0.71149205180414299</v>
       </c>
       <c r="F13" s="4">
-        <v>1.84210526315789</v>
+        <v>1.3592233009708701</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>1.24448484444478</v>
+        <v>1.3809452177936701</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>2.0542987393032801</v>
+        <v>4.6342988622088397</v>
       </c>
       <c r="E14" s="4">
-        <v>1.29187385555034</v>
+        <v>0.978388001266144</v>
       </c>
       <c r="F14" s="4">
-        <v>1.9483101391650099</v>
+        <v>1.6415410385259599</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>1.72941215095136</v>
+        <v>0.67794298025185795</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>1.98022733947893</v>
+        <v>4.4945082558768501</v>
       </c>
       <c r="E15" s="4">
-        <v>1.90837518268166</v>
+        <v>0.71886741482899896</v>
       </c>
       <c r="F15" s="4">
-        <v>1.2173913043478199</v>
+        <v>1.6360601001669399</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>1.00351365327104</v>
+        <v>0.51028725523805296</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>1.1972808262371599</v>
+        <v>4.4619606679753003</v>
       </c>
       <c r="E16" s="4">
-        <v>0.51235725013301203</v>
+        <v>0.72877805889364999</v>
       </c>
       <c r="F16" s="4">
-        <v>1.84210526315789</v>
+        <v>1.55555555555555</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>0.122795638440371</v>
+        <v>1.41800366701228</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>7.1688411650230597</v>
+        <v>4.3547176495448499</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>0.961101994176636</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>1.4223512336719799</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>1.7810590840635001</v>
+        <v>0.51028725523805296</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>0.78251483629015395</v>
+        <v>4.33768233004613</v>
       </c>
       <c r="E18" s="4">
-        <v>1.1302743835592799</v>
+        <v>9.1947998302828395</v>
       </c>
       <c r="F18" s="4">
-        <v>1.55309033280507</v>
+        <v>2.2022471910112298</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="H18" s="4">
-        <v>0.124747956473544</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>1.3306764501463</v>
+        <v>4.2555681608561704</v>
       </c>
       <c r="E19" s="4">
-        <v>2.11580726775576</v>
+        <v>0.188262576692625</v>
       </c>
       <c r="F19" s="4">
-        <v>1.3225371120107901</v>
+        <v>1.58833063209076</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>0.57146709773492699</v>
+        <v>0.103584627651352</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>1.19433758073448</v>
+        <v>4.1450317400468597</v>
       </c>
       <c r="E20" s="4">
-        <v>1.4374055723801</v>
+        <v>0.70158140773949096</v>
       </c>
       <c r="F20" s="4">
-        <v>1.70138888888888</v>
+        <v>1.4161849710982599</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>0.61113996810595606</v>
+        <v>0.31304586846430499</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>4.9138800748728304</v>
+        <v>4.1352749028353397</v>
       </c>
       <c r="E21" s="4">
-        <v>0.99567400835565101</v>
+        <v>0.745035136989735</v>
       </c>
       <c r="F21" s="4">
-        <v>1.9405940594059401</v>
+        <v>1.5360501567398099</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>0.82045072486955495</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>2.1566530525314098</v>
+        <v>4.0962103581945399</v>
       </c>
       <c r="E22" s="4">
-        <v>0.729699979271757</v>
+        <v>0.746064065983158</v>
       </c>
       <c r="F22" s="4">
-        <v>1.72231985940246</v>
+        <v>1.8181818181818099</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>0.30358717820109599</v>
+        <v>1.4495015781146701</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11630,672 +11631,672 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>4.1450317400468597</v>
+        <v>4.0340711892299499</v>
       </c>
       <c r="E24" s="4">
-        <v>0.70158140773949096</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>1.4161849710982599</v>
+        <v>1.8181818181818099</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="4">
-        <v>0.31304586846430499</v>
+        <v>0.68747078086993696</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>4.6342988622088397</v>
+        <v>3.9328674756245601</v>
       </c>
       <c r="E25" s="4">
-        <v>0.978388001266144</v>
+        <v>0.76232114407924301</v>
       </c>
       <c r="F25" s="4">
-        <v>1.6415410385259599</v>
+        <v>1.80478821362799</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>0.67794298025185795</v>
+        <v>0.71574678442968298</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
-        <v>3.3961903528579902</v>
+        <v>3.9288445598616799</v>
       </c>
       <c r="E26" s="4">
-        <v>1.15958426778793</v>
+        <v>2.6155457327134299</v>
       </c>
       <c r="F26" s="4">
-        <v>1.8738049713193099</v>
+        <v>1.72231985940246</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>0.35581012224877501</v>
+        <v>1.7810590840635001</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" s="4">
-        <v>10</v>
+        <v>3.79555522421688</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>7.4833347177105196</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>2.2843822843822799</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>0.18181818181818099</v>
       </c>
       <c r="H27" s="4">
-        <v>0.76365981839803398</v>
+        <v>5.5410111743001798</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>2.3475445088704601</v>
+        <v>3.7932827095033499</v>
       </c>
       <c r="E28" s="4">
-        <v>2.5684701734063302</v>
+        <v>0.94381598708712799</v>
       </c>
       <c r="F28" s="4">
-        <v>2.1729490022172899</v>
+        <v>1.1212814645308899</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>2.0937052698629302</v>
+        <v>0.31304586846430499</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>3.3877531687282101</v>
+        <v>3.79101019478983</v>
       </c>
       <c r="E29" s="4">
-        <v>0.52445745509566799</v>
+        <v>0.961101994176636</v>
       </c>
       <c r="F29" s="4">
-        <v>1.4759036144578299</v>
+        <v>1.24999999999999</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <v>0.57146709773492699</v>
+        <v>0.51028725523805296</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>2.7081024284097701</v>
+        <v>3.7887376800763102</v>
       </c>
       <c r="E30" s="4">
-        <v>0.668622754222163</v>
+        <v>0.978388001266144</v>
       </c>
       <c r="F30" s="4">
-        <v>2.0164609053497902</v>
+        <v>1.41210374639769</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>0.56761811936982598</v>
+        <v>0.67794298025185795</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>3.9288445598616799</v>
+        <v>3.7864651653627801</v>
       </c>
       <c r="E31" s="4">
-        <v>2.6155457327134299</v>
+        <v>0.99567400835565101</v>
       </c>
       <c r="F31" s="4">
-        <v>1.72231985940246</v>
+        <v>1.6225165562913899</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>1.7810590840635001</v>
+        <v>0.82045072486955495</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="4">
-        <v>4.4945082558768501</v>
+        <v>3.7841926506492598</v>
       </c>
       <c r="E32" s="4">
-        <v>0.71886741482899896</v>
+        <v>3.1497903603945399</v>
       </c>
       <c r="F32" s="4">
-        <v>1.6360601001669399</v>
+        <v>1.90661478599221</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>0.51028725523805296</v>
+        <v>3.2395303824554098</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4">
-        <v>3.1828708802591499</v>
+        <v>3.73046004841378</v>
       </c>
       <c r="E33" s="4">
-        <v>0.81589953462477005</v>
+        <v>3.4870680462546599</v>
       </c>
       <c r="F33" s="4">
-        <v>1.5730337078651599</v>
+        <v>2.1875</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>0.35714285714285698</v>
       </c>
       <c r="H33" s="4">
-        <v>0.58916176606801995</v>
+        <v>5.1190067869111404</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="4">
-        <v>2.1672047228519</v>
+        <v>3.6973252404436701</v>
       </c>
       <c r="E34" s="4">
-        <v>1.0475320296241699</v>
+        <v>0.40548033772816899</v>
       </c>
       <c r="F34" s="4">
-        <v>1.5481832543443901</v>
+        <v>1.82156133828996</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>0.67110860802309102</v>
+        <v>0.33455705592381402</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>1.98022733947893</v>
+        <v>3.6672539057726099</v>
       </c>
       <c r="E35" s="4">
-        <v>1.89108917559215</v>
+        <v>0.59869150164516305</v>
       </c>
       <c r="F35" s="4">
-        <v>1.09375</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H35" s="4">
-        <v>0.89331493463725098</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>5.9901136697394604</v>
+        <v>3.6672539057726099</v>
       </c>
       <c r="E36" s="4">
-        <v>0.32497693328274702</v>
+        <v>0.59869150164516305</v>
       </c>
       <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
       <c r="H36" s="4">
-        <v>0.61113996810595606</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>3.6672539057726099</v>
+        <v>3.6528015420612099</v>
       </c>
       <c r="E37" s="4">
-        <v>0.59869150164516305</v>
+        <v>0.27945711461370998</v>
       </c>
       <c r="F37" s="4">
-        <v>2</v>
+        <v>1.6144975288303101</v>
       </c>
       <c r="G37" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.55476185310790005</v>
+        <v>0.600459343047403</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>3.4432621859314998</v>
+        <v>3.6004189626896799</v>
       </c>
       <c r="E38" s="4">
-        <v>5.3157629676856404</v>
+        <v>0.99567400835565101</v>
       </c>
       <c r="F38" s="4">
-        <v>2.48101265822784</v>
+        <v>1.94444444444444</v>
       </c>
       <c r="G38" s="4">
-        <v>0.35714285714285698</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>3.8172065854447199</v>
+        <v>0.34857516153444201</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>2.36157309271622</v>
+        <v>3.5868611171726399</v>
       </c>
       <c r="E39" s="4">
-        <v>1.0683770085629301</v>
+        <v>0.64162515405873199</v>
       </c>
       <c r="F39" s="4">
-        <v>2.0675105485232002</v>
+        <v>2.0123203285420899</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>0.71654227885190902</v>
+        <v>0.68747078086993696</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4">
-        <v>1.98022733947893</v>
+        <v>3.5214104334731502</v>
       </c>
       <c r="E40" s="4">
-        <v>1.8738031685026499</v>
+        <v>1.48172509860881</v>
       </c>
       <c r="F40" s="4">
-        <v>0.99290780141843904</v>
+        <v>2.0545073375262</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>0.76365981839803398</v>
+        <v>1.8492648124514699</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="4">
-        <v>2.4166110612387599</v>
+        <v>3.5159954479120099</v>
       </c>
       <c r="E41" s="4">
-        <v>3.6842243110104298</v>
+        <v>2.0525270121922401</v>
       </c>
       <c r="F41" s="4">
-        <v>2.0675105485232002</v>
+        <v>1.79487179487179</v>
       </c>
       <c r="G41" s="4">
-        <v>0.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H41" s="4">
-        <v>2.3841050117692602</v>
+        <v>2.1224032740641601</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="4">
-        <v>3.7932827095033499</v>
+        <v>3.4432621859314998</v>
       </c>
       <c r="E42" s="4">
-        <v>0.94381598708712799</v>
+        <v>5.3157629676856404</v>
       </c>
       <c r="F42" s="4">
-        <v>1.1212814645308899</v>
+        <v>2.48101265822784</v>
       </c>
       <c r="G42" s="4">
-        <v>0</v>
+        <v>0.35714285714285698</v>
       </c>
       <c r="H42" s="4">
-        <v>0.31304586846430499</v>
+        <v>3.8172065854447199</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>1.5650296725802999</v>
+        <v>3.3961903528579902</v>
       </c>
       <c r="E43" s="4">
-        <v>1.1475603906487899</v>
+        <v>1.15958426778793</v>
       </c>
       <c r="F43" s="4">
-        <v>1.8114602587800299</v>
+        <v>1.8738049713193099</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <v>0.35023591597581799</v>
+        <v>0.35581012224877501</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>2.1306563222311299</v>
+        <v>3.3905090660741801</v>
       </c>
       <c r="E44" s="4">
-        <v>1.2897995346996001</v>
+        <v>1.38483141653215</v>
       </c>
       <c r="F44" s="4">
-        <v>1.52173913043478</v>
+        <v>2.00819672131147</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <v>1.33169954170156</v>
+        <v>0.58916176606801995</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>0.49477293492484398</v>
+        <v>3.3877531687282101</v>
       </c>
       <c r="E45" s="4">
-        <v>1.28887761432149</v>
+        <v>0.52445745509566799</v>
       </c>
       <c r="F45" s="4">
-        <v>1.50306748466257</v>
+        <v>1.4759036144578299</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <v>0.436421721802142</v>
+        <v>0.57146709773492699</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>2.7660099553903001</v>
+        <v>3.2885609130042601</v>
       </c>
       <c r="E46" s="4">
-        <v>0.362786145153071</v>
+        <v>0.76618467891054698</v>
       </c>
       <c r="F46" s="4">
-        <v>1.82156133828996</v>
+        <v>1.8114602587800299</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>7.4251277774191798E-2</v>
+        <v>0.41774790400580403</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>3.5159954479120099</v>
+        <v>3.25911795748612</v>
       </c>
       <c r="E47" s="4">
-        <v>2.0525270121922401</v>
+        <v>0.47551336073651801</v>
       </c>
       <c r="F47" s="4">
-        <v>1.79487179487179</v>
+        <v>1.71929824561403</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <v>2.1224032740641601</v>
+        <v>0.35581012224877501</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>2.67218499518478</v>
+        <v>3.1959905346747002</v>
       </c>
       <c r="E48" s="4">
-        <v>0.78138514046938601</v>
+        <v>0.237509737409837</v>
       </c>
       <c r="F48" s="4">
-        <v>2.02479338842975</v>
+        <v>1.82156133828996</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <v>0.704341295752826</v>
+        <v>0.161294975894755</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>3.3905090660741801</v>
+        <v>3.1828708802591499</v>
       </c>
       <c r="E49" s="4">
-        <v>1.38483141653215</v>
+        <v>0.81589953462477005</v>
       </c>
       <c r="F49" s="4">
-        <v>2.00819672131147</v>
+        <v>1.5730337078651599</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -12306,868 +12307,868 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>2.6613529002926102</v>
+        <v>3.1060831427278202</v>
       </c>
       <c r="E50" s="4">
-        <v>5.7869219009219899</v>
+        <v>0.38203721954201803</v>
       </c>
       <c r="F50" s="4">
-        <v>2.1030042918454899</v>
+        <v>1.87739463601532</v>
       </c>
       <c r="G50" s="4">
-        <v>1.6666666666666601</v>
+        <v>0</v>
       </c>
       <c r="H50" s="4">
-        <v>1.7810590840635001</v>
+        <v>0.10630371247272601</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>2.0924775307672001</v>
+        <v>3.0569681508412199</v>
       </c>
       <c r="E51" s="4">
-        <v>0.33422906279160702</v>
+        <v>0.38819433063866099</v>
       </c>
       <c r="F51" s="4">
-        <v>1.63879598662207</v>
+        <v>1.55309033280507</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>0.38049321678397102</v>
+        <v>0.10630371247272601</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="4">
-        <v>4.8969540259213602</v>
+        <v>3.046016570565</v>
       </c>
       <c r="E52" s="4">
-        <v>0.323305952597428</v>
+        <v>0.17879493332914201</v>
       </c>
       <c r="F52" s="4">
-        <v>1.630615640599</v>
+        <v>1.81481481481481</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <v>0.58916176606801995</v>
+        <v>0.11905177566107</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D53" s="4">
-        <v>1.1972808262371599</v>
+        <v>2.9968254814991</v>
       </c>
       <c r="E53" s="4">
-        <v>0.51235725013301203</v>
+        <v>10</v>
       </c>
       <c r="F53" s="4">
-        <v>1.84210526315789</v>
+        <v>2.48730964467005</v>
       </c>
       <c r="G53" s="4">
-        <v>0</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="H53" s="4">
-        <v>0.122795638440371</v>
+        <v>8.1275071452924408</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>4.4619606679753003</v>
+        <v>2.9513544030218202</v>
       </c>
       <c r="E54" s="4">
-        <v>0.72877805889364999</v>
+        <v>0.73465530130408296</v>
       </c>
       <c r="F54" s="4">
-        <v>1.55555555555555</v>
+        <v>2.15859030837004</v>
       </c>
       <c r="G54" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H54" s="4">
-        <v>1.41800366701228</v>
+        <v>1.1322623609931799</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>3.6528015420612099</v>
+        <v>2.8955887518555699</v>
       </c>
       <c r="E55" s="4">
-        <v>0.27945711461370998</v>
+        <v>5.0322447638738899</v>
       </c>
       <c r="F55" s="4">
-        <v>1.6144975288303101</v>
+        <v>2.3960880195599001</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4">
-        <v>0.600459343047403</v>
+        <v>2.70044377639615</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="4">
-        <v>7.4531485161920399</v>
+        <v>2.8867486278554702</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>3.0867802454612998</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>1.87739463601532</v>
       </c>
       <c r="G56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="4">
-        <v>0.41083737318012398</v>
+        <v>1.5257292382063199</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" s="4">
-        <v>0</v>
+        <v>2.8466617775947398</v>
       </c>
       <c r="E57" s="4">
-        <v>2.13309327484526</v>
+        <v>1.63364889650171</v>
       </c>
       <c r="F57" s="4">
-        <v>1.5076923076922999</v>
+        <v>1.71628721541155</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <v>0.72994839516871901</v>
+        <v>1.4193569357925599</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>5.1934612875368202</v>
+        <v>2.7660099553903001</v>
       </c>
       <c r="E58" s="4">
-        <v>6.2101709069765798</v>
+        <v>0.362786145153071</v>
       </c>
       <c r="F58" s="4">
-        <v>2.3728813559322002</v>
+        <v>1.82156133828996</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <v>6.0340622132343498</v>
+        <v>7.4251277774191798E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>3.6973252404436701</v>
+        <v>2.7081024284097701</v>
       </c>
       <c r="E59" s="4">
-        <v>0.40548033772816899</v>
+        <v>0.668622754222163</v>
       </c>
       <c r="F59" s="4">
-        <v>1.82156133828996</v>
+        <v>2.0164609053497902</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <v>0.33455705592381402</v>
+        <v>0.56761811936982598</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>3.046016570565</v>
+        <v>2.67218499518478</v>
       </c>
       <c r="E60" s="4">
-        <v>0.17879493332914201</v>
+        <v>0.78138514046938601</v>
       </c>
       <c r="F60" s="4">
-        <v>1.81481481481481</v>
+        <v>2.02479338842975</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <v>0.11905177566107</v>
+        <v>0.704341295752826</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="4">
-        <v>4.8439847717068396</v>
+        <v>2.6613529002926102</v>
       </c>
       <c r="E61" s="4">
-        <v>0.73615342191850697</v>
+        <v>5.7869219009219899</v>
       </c>
       <c r="F61" s="4">
-        <v>1.9367588932806299</v>
+        <v>2.1030042918454899</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H61" s="4">
-        <v>0.67794298025185795</v>
+        <v>1.7810590840635001</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="4">
-        <v>1.89669504382406</v>
+        <v>2.58154910986904</v>
       </c>
       <c r="E62" s="4">
-        <v>2.0468937194922501</v>
+        <v>0.83318554171427806</v>
       </c>
       <c r="F62" s="4">
-        <v>1.5506329113924</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>1.1507425925033199</v>
+        <v>0.74498643332491499</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="4">
-        <v>2.1984192003588499</v>
+        <v>2.5255621104011898</v>
       </c>
       <c r="E63" s="4">
-        <v>0.52613666721293395</v>
+        <v>0.60155304671487297</v>
       </c>
       <c r="F63" s="4">
-        <v>1.8317757009345701</v>
+        <v>1.6415410385259599</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <v>0.10630371247272601</v>
+        <v>0.35581012224877501</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>4.3547176495448499</v>
+        <v>2.4334879836672001</v>
       </c>
       <c r="E64" s="4">
-        <v>0.961101994176636</v>
+        <v>0.73085237974439099</v>
       </c>
       <c r="F64" s="4">
-        <v>1.4223512336719799</v>
+        <v>1.8317757009345701</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <v>0.51028725523805296</v>
+        <v>0.103584627651352</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="4">
-        <v>6.0097154011934704</v>
+        <v>2.41937937532045</v>
       </c>
       <c r="E65" s="4">
-        <v>2.4489662443942</v>
+        <v>0.65133674713265499</v>
       </c>
       <c r="F65" s="4">
-        <v>1.92913385826771</v>
+        <v>1.6955017301038</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>1.93161079390949</v>
+        <v>0.38049321678397102</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" s="4">
-        <v>0.44114718697187599</v>
+        <v>2.4166110612387599</v>
       </c>
       <c r="E66" s="4">
-        <v>0.71356637265488299</v>
+        <v>3.6842243110104298</v>
       </c>
       <c r="F66" s="4">
-        <v>1.51001540832049</v>
+        <v>2.0675105485232002</v>
       </c>
       <c r="G66" s="4">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H66" s="4">
-        <v>0.244198026754012</v>
+        <v>2.3841050117692602</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4">
-        <v>2.2573746158611798</v>
+        <v>2.36157309271622</v>
       </c>
       <c r="E67" s="4">
-        <v>1.0648180367136799</v>
+        <v>1.0683770085629301</v>
       </c>
       <c r="F67" s="4">
-        <v>1.80811808118081</v>
+        <v>2.0675105485232002</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>0.81464096509473205</v>
+        <v>0.71654227885190902</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4">
-        <v>1.98686493683334</v>
+        <v>2.3475445088704601</v>
       </c>
       <c r="E68" s="4">
-        <v>1.0129600154451499</v>
+        <v>2.5684701734063302</v>
       </c>
       <c r="F68" s="4">
-        <v>1.20245398773006</v>
+        <v>2.1729490022172899</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>0.30358717820109599</v>
+        <v>2.0937052698629302</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>2.8867486278554702</v>
+        <v>2.2573746158611798</v>
       </c>
       <c r="E69" s="4">
-        <v>3.0867802454612998</v>
+        <v>1.0648180367136799</v>
       </c>
       <c r="F69" s="4">
-        <v>1.87739463601532</v>
+        <v>1.80811808118081</v>
       </c>
       <c r="G69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="4">
-        <v>1.5257292382063199</v>
+        <v>0.81464096509473205</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" s="4">
-        <v>2.41937937532045</v>
+        <v>2.1984192003588499</v>
       </c>
       <c r="E70" s="4">
-        <v>0.65133674713265499</v>
+        <v>0.52613666721293395</v>
       </c>
       <c r="F70" s="4">
-        <v>1.6955017301038</v>
+        <v>1.8317757009345701</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>0.38049321678397102</v>
+        <v>0.10630371247272601</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="4">
-        <v>5.62438769385688</v>
+        <v>2.1672047228519</v>
       </c>
       <c r="E71" s="4">
-        <v>1.65279670383532</v>
+        <v>1.0475320296241699</v>
       </c>
       <c r="F71" s="4">
-        <v>1.8738049713193099</v>
+        <v>1.5481832543443901</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>1.30321340979428</v>
+        <v>0.67110860802309102</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="4">
-        <v>3.7864651653627801</v>
+        <v>2.1566530525314098</v>
       </c>
       <c r="E72" s="4">
-        <v>0.99567400835565101</v>
+        <v>0.729699979271757</v>
       </c>
       <c r="F72" s="4">
-        <v>1.6225165562913899</v>
+        <v>1.72231985940246</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>0.82045072486955495</v>
+        <v>0.30358717820109599</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4">
-        <v>1.98022733947893</v>
+        <v>2.1306563222311299</v>
       </c>
       <c r="E73" s="4">
-        <v>1.94294719686068</v>
+        <v>1.2897995346996001</v>
       </c>
       <c r="F73" s="4">
-        <v>1.5730337078651599</v>
+        <v>1.52173913043478</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>1.17681387652481</v>
+        <v>1.33169954170156</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="4">
-        <v>2.8466617775947398</v>
+        <v>2.0924775307672001</v>
       </c>
       <c r="E74" s="4">
-        <v>1.63364889650171</v>
+        <v>0.33422906279160702</v>
       </c>
       <c r="F74" s="4">
-        <v>1.71628721541155</v>
+        <v>1.63879598662207</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <v>1.4193569357925599</v>
+        <v>0.38049321678397102</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>3.0569681508412199</v>
+        <v>2.0770348298426198</v>
       </c>
       <c r="E75" s="4">
-        <v>0.38819433063866099</v>
+        <v>1.0302460225346599</v>
       </c>
       <c r="F75" s="4">
-        <v>1.55309033280507</v>
+        <v>1.35359116022099</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <v>0.10630371247272601</v>
+        <v>0.50224833464233598</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76" s="4">
-        <v>3.73046004841378</v>
+        <v>2.0626105229021099</v>
       </c>
       <c r="E76" s="4">
-        <v>3.4870680462546599</v>
+        <v>1.5419118323840899</v>
       </c>
       <c r="F76" s="4">
-        <v>2.1875</v>
+        <v>1.3243243243243199</v>
       </c>
       <c r="G76" s="4">
-        <v>0.35714285714285698</v>
+        <v>0</v>
       </c>
       <c r="H76" s="4">
-        <v>5.1190067869111404</v>
+        <v>0.103584627651352</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D77" s="4">
-        <v>4.33768233004613</v>
+        <v>2.0542987393032801</v>
       </c>
       <c r="E77" s="4">
-        <v>9.1947998302828395</v>
+        <v>1.29187385555034</v>
       </c>
       <c r="F77" s="4">
-        <v>2.2022471910112298</v>
+        <v>1.9483101391650099</v>
       </c>
       <c r="G77" s="4">
-        <v>0.441176470588235</v>
+        <v>0</v>
       </c>
       <c r="H77" s="4">
-        <v>10</v>
+        <v>1.72941215095136</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>4.8277109777560598</v>
+        <v>2.0073766378425302</v>
       </c>
       <c r="E78" s="4">
-        <v>0.71149205180414299</v>
+        <v>0.978388001266144</v>
       </c>
       <c r="F78" s="4">
-        <v>1.3592233009708701</v>
+        <v>1.6470588235294099</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <v>1.3809452177936701</v>
+        <v>0.122795638440371</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>2.8955887518555699</v>
+        <v>1.98686493683334</v>
       </c>
       <c r="E79" s="4">
-        <v>5.0322447638738899</v>
+        <v>1.0129600154451499</v>
       </c>
       <c r="F79" s="4">
-        <v>2.3960880195599001</v>
+        <v>1.20245398773006</v>
       </c>
       <c r="G79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>2.70044377639615</v>
+        <v>0.30358717820109599</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D80" s="4">
-        <v>0.41433431299539097</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E80" s="4">
-        <v>2.6288559581723501</v>
+        <v>9.2591591517434502</v>
       </c>
       <c r="F80" s="4">
-        <v>1.7562724014336899</v>
+        <v>2.2222222222222201</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <v>1.5935328368330399</v>
+        <v>7.6451761693819202</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="4">
-        <v>3.5214104334731502</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E81" s="4">
-        <v>1.48172509860881</v>
+        <v>1.96023320395018</v>
       </c>
       <c r="F81" s="4">
-        <v>2.0545073375262</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <v>1.8492648124514699</v>
+        <v>1.24448484444478</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>3.6004189626896799</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E82" s="4">
-        <v>0.99567400835565101</v>
+        <v>1.90837518268166</v>
       </c>
       <c r="F82" s="4">
-        <v>1.94444444444444</v>
+        <v>1.2173913043478199</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <v>0.34857516153444201</v>
+        <v>1.00351365327104</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -13176,458 +13177,458 @@
         <v>1.98022733947893</v>
       </c>
       <c r="E83" s="4">
-        <v>1.92566118977117</v>
+        <v>1.89108917559215</v>
       </c>
       <c r="F83" s="4">
-        <v>1.37254901960784</v>
+        <v>1.09375</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <v>1.09718975628597</v>
+        <v>0.89331493463725098</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>3.79101019478983</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E84" s="4">
-        <v>0.961101994176636</v>
+        <v>1.8738031685026499</v>
       </c>
       <c r="F84" s="4">
-        <v>1.24999999999999</v>
+        <v>0.99290780141843904</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <v>0.51028725523805296</v>
+        <v>0.76365981839803398</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="4">
-        <v>0.46796006094836001</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E85" s="4">
-        <v>0.69628036556537598</v>
+        <v>1.94294719686068</v>
       </c>
       <c r="F85" s="4">
-        <v>1.3243243243243199</v>
+        <v>1.5730337078651599</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <v>0</v>
+        <v>1.17681387652481</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>3.79555522421688</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E86" s="4">
-        <v>7.4833347177105196</v>
+        <v>1.92566118977117</v>
       </c>
       <c r="F86" s="4">
-        <v>2.2843822843822799</v>
+        <v>1.37254901960784</v>
       </c>
       <c r="G86" s="4">
-        <v>0.18181818181818099</v>
+        <v>0</v>
       </c>
       <c r="H86" s="4">
-        <v>5.5410111743001798</v>
+        <v>1.09718975628597</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" s="4">
-        <v>2.0770348298426198</v>
+        <v>1.98022733947893</v>
       </c>
       <c r="E87" s="4">
-        <v>1.0302460225346599</v>
+        <v>1.8565171614131399</v>
       </c>
       <c r="F87" s="4">
-        <v>1.35359116022099</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <v>0.50224833464233598</v>
+        <v>0.61113996810595606</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" s="4">
-        <v>2.0626105229021099</v>
+        <v>1.89669504382406</v>
       </c>
       <c r="E88" s="4">
-        <v>1.5419118323840899</v>
+        <v>2.0468937194922501</v>
       </c>
       <c r="F88" s="4">
-        <v>1.3243243243243199</v>
+        <v>1.5506329113924</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <v>0.103584627651352</v>
+        <v>1.1507425925033199</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" s="4">
-        <v>3.6672539057726099</v>
+        <v>1.5650296725802999</v>
       </c>
       <c r="E89" s="4">
-        <v>0.59869150164516305</v>
+        <v>1.1475603906487899</v>
       </c>
       <c r="F89" s="4">
-        <v>2</v>
+        <v>1.8114602587800299</v>
       </c>
       <c r="G89" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H89" s="4">
-        <v>0.55476185310790005</v>
+        <v>0.35023591597581799</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>3.5868611171726399</v>
+        <v>1.3306764501463</v>
       </c>
       <c r="E90" s="4">
-        <v>0.64162515405873199</v>
+        <v>2.11580726775576</v>
       </c>
       <c r="F90" s="4">
-        <v>2.0123203285420899</v>
+        <v>1.3225371120107901</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <v>0.68747078086993696</v>
+        <v>0.57146709773492699</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>2.0073766378425302</v>
+        <v>1.2384724179487501</v>
       </c>
       <c r="E91" s="4">
-        <v>0.978388001266144</v>
+        <v>1.5591978394735999</v>
       </c>
       <c r="F91" s="4">
-        <v>1.6470588235294099</v>
+        <v>1.51001540832049</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <v>0.122795638440371</v>
+        <v>0.33224602469585701</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>4.0340711892299499</v>
+        <v>1.1972808262371599</v>
       </c>
       <c r="E92" s="4">
-        <v>0</v>
+        <v>0.51235725013301203</v>
       </c>
       <c r="F92" s="4">
-        <v>1.8181818181818099</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G92" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>0.68747078086993696</v>
+        <v>0.122795638440371</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>4.2555681608561704</v>
+        <v>1.1972808262371599</v>
       </c>
       <c r="E93" s="4">
-        <v>0.188262576692625</v>
+        <v>0.51235725013301203</v>
       </c>
       <c r="F93" s="4">
-        <v>1.58833063209076</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <v>0.103584627651352</v>
+        <v>0.122795638440371</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4">
-        <v>4.1352749028353397</v>
+        <v>1.19433758073448</v>
       </c>
       <c r="E94" s="4">
-        <v>0.745035136989735</v>
+        <v>1.4374055723801</v>
       </c>
       <c r="F94" s="4">
-        <v>1.5360501567398099</v>
+        <v>1.70138888888888</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <v>0.55476185310790005</v>
+        <v>0.61113996810595606</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>3.7887376800763102</v>
+        <v>0.78251483629015395</v>
       </c>
       <c r="E95" s="4">
-        <v>0.978388001266144</v>
+        <v>1.1302743835592799</v>
       </c>
       <c r="F95" s="4">
-        <v>1.41210374639769</v>
+        <v>1.55309033280507</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <v>0.67794298025185795</v>
+        <v>0.124747956473544</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4">
-        <v>3.9328674756245601</v>
+        <v>0.49477293492484398</v>
       </c>
       <c r="E96" s="4">
-        <v>0.76232114407924301</v>
+        <v>1.28887761432149</v>
       </c>
       <c r="F96" s="4">
-        <v>1.80478821362799</v>
+        <v>1.50306748466257</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <v>0.71574678442968298</v>
+        <v>0.436421721802142</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" s="4">
-        <v>8.3475686603066599</v>
+        <v>0.46796006094836001</v>
       </c>
       <c r="E97" s="4">
-        <v>0</v>
+        <v>0.69628036556537598</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>1.3243243243243199</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <v>0.55476185310790005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <v>4.0962103581945399</v>
+        <v>0.44114718697187599</v>
       </c>
       <c r="E98" s="4">
-        <v>0.746064065983158</v>
+        <v>0.71356637265488299</v>
       </c>
       <c r="F98" s="4">
-        <v>1.8181818181818099</v>
+        <v>1.51001540832049</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <v>1.4495015781146701</v>
+        <v>0.244198026754012</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" s="4">
-        <v>1.98022733947893</v>
+        <v>0.41433431299539097</v>
       </c>
       <c r="E99" s="4">
-        <v>1.8565171614131399</v>
+        <v>2.6288559581723501</v>
       </c>
       <c r="F99" s="4">
-        <v>0.90909090909090895</v>
+        <v>1.7562724014336899</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <v>0.61113996810595606</v>
+        <v>1.5935328368330399</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="4">
-        <v>3.25911795748612</v>
+        <v>0</v>
       </c>
       <c r="E100" s="4">
-        <v>0.47551336073651801</v>
+        <v>2.13309327484526</v>
       </c>
       <c r="F100" s="4">
-        <v>1.71929824561403</v>
+        <v>1.5076923076922999</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <v>0.35581012224877501</v>
+        <v>0.72994839516871901</v>
       </c>
     </row>
   </sheetData>

--- a/Language Data/Data.xlsx
+++ b/Language Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53276\OneDrive\Documents\MathsProject\Language Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62170A2-5398-4D5C-8073-2CDED69AF2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7DB813-6767-4A9A-9041-BF32FD35ADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
   </bookViews>
   <sheets>
     <sheet name="KarateClub" sheetId="12" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="888">
   <si>
     <t>a</t>
   </si>
@@ -2716,6 +2716,12 @@
   </si>
   <si>
     <t>she</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>past tense</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2792,19 +2798,58 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2829,28 +2874,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3157,15 +3180,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466286</xdr:colOff>
+      <xdr:colOff>475811</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9262</xdr:rowOff>
+      <xdr:rowOff>94987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3188,7 +3211,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="2667000"/>
+          <a:off x="7248525" y="2752725"/>
           <a:ext cx="3514286" cy="2104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3245,6 +3268,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342476</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F37BCBC-8D59-1B93-1E0D-A2A5033D562E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="1724025"/>
+          <a:ext cx="3390476" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>580787</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5DD46D-1AAE-6AD3-F427-0840F22A24D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="1495425"/>
+          <a:ext cx="1904762" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}" name="Table1" displayName="Table1" ref="A1:H100">
   <autoFilter ref="A1:H100" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}"/>
@@ -3255,18 +3371,18 @@
     <tableColumn id="1" xr3:uid="{56C0FDDF-B280-41BC-91E9-7D29EABE3154}" name="Vertex" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{6DD83F9E-D5E9-4057-8F38-8DD0643F69A5}" name="Words"/>
     <tableColumn id="3" xr3:uid="{9C090BD6-CC93-42AB-8880-BBBA8400C7A6}" name="Counts"/>
-    <tableColumn id="4" xr3:uid="{126A0D3A-1966-4054-8232-028B11E6A0CE}" name="TC" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A5C13255-37D2-4C45-B59B-0F5F3C272FB2}" name="BC" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{5512B4BF-F6AD-4CC6-B6BB-7E1EA93B5208}" name="CC" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{9B60947D-A4F8-4319-B604-FF8938543822}" name="LC" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{74274312-6E7C-4EF8-992C-0F97F7093C9E}" name="PR" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{126A0D3A-1966-4054-8232-028B11E6A0CE}" name="TC" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{A5C13255-37D2-4C45-B59B-0F5F3C272FB2}" name="BC" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{5512B4BF-F6AD-4CC6-B6BB-7E1EA93B5208}" name="CC" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{9B60947D-A4F8-4319-B604-FF8938543822}" name="LC" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{74274312-6E7C-4EF8-992C-0F97F7093C9E}" name="PR" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C048BC70-1FD2-44FB-B6F2-6C62E6B6023C}" name="Table2" displayName="Table2" ref="A1:I110" headerRowDxfId="2" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C048BC70-1FD2-44FB-B6F2-6C62E6B6023C}" name="Table2" displayName="Table2" ref="A1:I110" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:I110" xr:uid="{C048BC70-1FD2-44FB-B6F2-6C62E6B6023C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I110">
     <sortCondition descending="1" ref="H1:H110"/>
@@ -3275,12 +3391,33 @@
     <tableColumn id="1" xr3:uid="{4870A8B0-1B89-4DC0-9955-7085AA76CBC1}" name="Vertex" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{1109A55F-DA91-4E3C-B5C3-9AF4C9F43B7C}" name="Words"/>
     <tableColumn id="3" xr3:uid="{CC32351B-7B50-4D43-AF74-E202E15AE457}" name="Counts"/>
-    <tableColumn id="4" xr3:uid="{A06F5DE8-008D-4401-A1E8-0FF47666B93B}" name="TC" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F0315DA5-4A9D-4CA0-B4AB-DE326500101A}" name="BC" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{76AB28CC-8D06-40BA-A220-13ECF1B03109}" name="CC" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{52E216E4-3269-478B-B45A-C880CB3B5974}" name="LC" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B6FCC639-9168-466E-AF44-FA3FAF06718B}" name="PR" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D3D2FA46-8087-40C2-914C-C19043A8429F}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{A06F5DE8-008D-4401-A1E8-0FF47666B93B}" name="TC" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{F0315DA5-4A9D-4CA0-B4AB-DE326500101A}" name="BC" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{76AB28CC-8D06-40BA-A220-13ECF1B03109}" name="CC" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{52E216E4-3269-478B-B45A-C880CB3B5974}" name="LC" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{B6FCC639-9168-466E-AF44-FA3FAF06718B}" name="PR" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D3D2FA46-8087-40C2-914C-C19043A8429F}" name="Column1" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8ACAD852-50C1-4085-B5C0-7C88A5438747}" name="Table3" displayName="Table3" ref="A1:I96" totalsRowShown="0">
+  <autoFilter ref="A1:I96" xr:uid="{8ACAD852-50C1-4085-B5C0-7C88A5438747}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H96">
+    <sortCondition descending="1" ref="C1:C96"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{58E1D8A0-1571-4635-8916-C547A7DAA106}" name="Vertex No."/>
+    <tableColumn id="2" xr3:uid="{251290B1-5321-465F-9724-872A3CB3BBC6}" name="Word"/>
+    <tableColumn id="3" xr3:uid="{CEC49953-A965-4613-801E-9B4A73BFF44E}" name="Count"/>
+    <tableColumn id="4" xr3:uid="{DB7DD06A-66B3-4103-AF5E-196E6BA624FF}" name="TL" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{92157532-A8CA-4AFA-B8C0-A3300DD160E9}" name="BC" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{975F62D6-D9BF-4435-A59E-8486F2CC1C36}" name="CC" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EA5E58AF-28E3-4C13-879F-43C9A994DBD1}" name="LC" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3F5D4362-0A1D-4EA7-A5F5-8FD4A176723D}" name="PR" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{70C5B935-DD24-41E6-AC67-28D91638D987}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -13964,7 +14101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806C3833-D51F-4AF1-85DC-7773F736ECFD}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -14005,7 +14142,7 @@
       <c r="H1" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>880</v>
       </c>
     </row>
@@ -24491,25 +24628,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237C934-1A94-40E0-8B75-3C0418AA65FF}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>869</v>
       </c>
@@ -24520,22 +24653,25 @@
         <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>886</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>874</v>
       </c>
       <c r="F1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>876</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+      <c r="I1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -24545,23 +24681,26 @@
       <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>4.81565249444317</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>8.1162669758394195</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>9.4953870838347303</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>1.0606060606060601</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>6.1180443431035698</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -24571,23 +24710,24 @@
       <c r="C3">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>3.4579455823837502</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>8.1862079512058799</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>8.7347701149425205</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0.30303030303030298</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>6.89420307168053</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -24597,23 +24737,24 @@
       <c r="C4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>3.0492945634146902</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>9.3135912698412699</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.76923076923076905</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>8.6599581171437503</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -24623,23 +24764,24 @@
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>5.86430663573634</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>7.4595523444460099</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>8.5142668178382408</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.98901098901098805</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>7.7210387678087997</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -24649,23 +24791,24 @@
       <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>4.8448318885872697</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>9.9673699660213408</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>8.6790759831996898</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.58823529411764697</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>7.9802448930513403</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -24675,75 +24818,78 @@
       <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>3.0092641332474899</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>9.3968878306612904</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>9.5568639291465303</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>0.66176470588235203</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>6.5441552004994197</v>
-      </c>
-      <c r="E8">
-        <v>6.2373031283477998</v>
-      </c>
-      <c r="F8">
-        <v>8.1945370370370298</v>
-      </c>
-      <c r="G8">
-        <v>0.329670329670329</v>
-      </c>
-      <c r="H8">
-        <v>5.7063782064167698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <v>5.1020621496107097</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.3536737453447198</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5.6359205166263404</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>5.1020621496107097</v>
-      </c>
-      <c r="E9">
-        <v>8.3536737453447198</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="H9">
-        <v>5.6359205166263404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>6.5441552004994197</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.2373031283477998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8.1945370370370298</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.329670329670329</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5.7063782064167698</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26</v>
       </c>
@@ -24753,49 +24899,51 @@
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>4.4444348261923698</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>6.7375680840428798</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>9.5568639291465303</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.76923076923076905</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>7.8092085389925199</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>522</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>5.3490138249232402</v>
-      </c>
-      <c r="E11">
-        <v>5.3406946647163602</v>
-      </c>
-      <c r="F11">
-        <v>8.0394206087275393</v>
-      </c>
-      <c r="G11">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="H11">
-        <v>4.75496809773853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>4.30634637717682</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.0242239879085897</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9.0771713615023408</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.55555555555555</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6.0426093346661203</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -24805,101 +24953,105 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>4.6685737968233099</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>6.9249704814057704</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>6.6844879518072204</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.27777777777777701</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>3.5637438460961399</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>573</v>
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>518</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>4.30634637717682</v>
-      </c>
-      <c r="E13">
-        <v>4.0242239879085897</v>
-      </c>
-      <c r="F13">
-        <v>9.0771713615023408</v>
-      </c>
-      <c r="G13">
-        <v>1.55555555555555</v>
-      </c>
-      <c r="H13">
-        <v>6.0426093346661203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>4.2972363328504803</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.1169058790705098</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.1963162623539896</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.6617145775277002</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>4.2972363328504803</v>
-      </c>
-      <c r="E14">
-        <v>8.1169058790705098</v>
-      </c>
-      <c r="F14">
-        <v>5.1963162623539896</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>6.6617145775277002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>5.3490138249232402</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.3406946647163602</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.0394206087275393</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4.75496809773853</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>4.4312512853108004</v>
-      </c>
-      <c r="E15">
-        <v>5.6423640618922697</v>
-      </c>
-      <c r="F15">
-        <v>8.3527871305649004</v>
-      </c>
-      <c r="G15">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="H15">
-        <v>4.6401872406173998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>3.0812615076416998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.1107935392308002</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.2705490578297596</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.7479630308871199</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -24909,75 +25061,78 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>3.95864039320004</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>5.2858503049630103</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>7.3543638275499399</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>0.476190476190476</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>3.5322258609350201</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>3.0812615076416998</v>
-      </c>
-      <c r="E17">
-        <v>2.1107935392308002</v>
-      </c>
-      <c r="F17">
-        <v>6.2705490578297596</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>3.7479630308871199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>2.3104863192184699</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.6022874384520902</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.4012834036568202</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.4672034830942602</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>2.3104863192184699</v>
-      </c>
-      <c r="E18">
-        <v>4.6022874384520902</v>
-      </c>
-      <c r="F18">
-        <v>7.4012834036568202</v>
-      </c>
-      <c r="G18">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="H18">
-        <v>4.4672034830942602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>4.4312512853108004</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.6423640618922697</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8.3527871305649004</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.6401872406173998</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>39</v>
       </c>
@@ -24987,49 +25142,51 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>1.2970822439293199</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>2.75357218798101</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>6.8135764944275499</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>1.9047619047619</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>4.8529630574665603</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>5.8543725106047901</v>
-      </c>
-      <c r="E20">
-        <v>2.8396325838663299</v>
-      </c>
-      <c r="F20">
-        <v>5.1622610513739504</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2.7338093463318001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>3.6179976706398298</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.13396908208377</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.5091510903426699</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.8179095861025099</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
@@ -25039,179 +25196,186 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>4.25995603847264</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>3.8188460475997998</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>6.9009514101257201</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>4.1596616877522203</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>3.6179976706398298</v>
-      </c>
-      <c r="E22">
-        <v>2.13396908208377</v>
-      </c>
-      <c r="F22">
-        <v>3.5091510903426699</v>
-      </c>
-      <c r="G22">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="H22">
-        <v>2.8179095861025099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>5.8543725106047901</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.8396325838663299</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5.1622610513739504</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.7338093463318001</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>0.32805520734349303</v>
-      </c>
-      <c r="F23">
-        <v>4.6101113967437799</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0.98582024919267197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>3.8916089497301498</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.8409772254702199</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7.2153645833333302</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.6042475315122902</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>6.1975417953493004</v>
-      </c>
-      <c r="E24">
-        <v>1.13521521749962</v>
-      </c>
-      <c r="F24">
-        <v>7.0789473684210504</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1.3308002578220399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>3.6709554081817601</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.13062574012387</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.7301029962546801</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.3750357542425999</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25">
-        <v>6.1280390502008002</v>
-      </c>
-      <c r="E25">
-        <v>0.53311098741324203</v>
-      </c>
-      <c r="F25">
-        <v>5.6197771587743697</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1.28958541679062</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>5.3040565025468096</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.81831949498713497</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6.9894017094017</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.75809842763504</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>492</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>5.8322872419799099</v>
-      </c>
-      <c r="E26">
-        <v>1.3650461294282501</v>
-      </c>
-      <c r="F26">
-        <v>4.76743344907407</v>
-      </c>
-      <c r="G26">
-        <v>1.6666666666666601</v>
-      </c>
-      <c r="H26">
-        <v>1.5715703888769701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>4.0382494291491904</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.8168250149698699</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.7183201058201001</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.47104433098127</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>5.3040565025468096</v>
-      </c>
-      <c r="E27">
-        <v>0.81831949498713497</v>
-      </c>
-      <c r="F27">
-        <v>6.9894017094017</v>
-      </c>
-      <c r="G27">
-        <v>1.6666666666666601</v>
-      </c>
-      <c r="H27">
-        <v>1.75809842763504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>4.8340759691388104</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.3234924698314099</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7.6404072883172498</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.2412171290442302</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -25221,49 +25385,51 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>5.2561314098498304</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>0.51940441460832898</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>6.9450408997955</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>1.5979123510823701</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>4.9653495463724902</v>
-      </c>
-      <c r="E29">
-        <v>1.3462039841859601</v>
-      </c>
-      <c r="F29">
-        <v>6.4744477415100503</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>2.9670478488035998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>3.70582054958397</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.6409357332496599</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.8962719298245601</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3.3359515371926598</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -25273,959 +25439,996 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>4.9018097711200399</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>1.385590534151</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>5.1283884420613601</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>3</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>3.6455783452024502</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31">
-        <v>4.8340759691388104</v>
-      </c>
-      <c r="E31">
-        <v>1.3234924698314099</v>
-      </c>
-      <c r="F31">
-        <v>7.6404072883172498</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>2.2412171290442302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>6.0326677011555599E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.01910035763047</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4.5483091787439598</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3.16751402563736</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32">
-        <v>4.8134288638098397</v>
-      </c>
-      <c r="E32">
-        <v>2.8462213989212599</v>
-      </c>
-      <c r="F32">
-        <v>2.5491589670694101</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1.74654010898931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>3.46902015430677</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.0098950152297199</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6.6419753086419702</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.9948658977028899</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33">
-        <v>4.0382494291491904</v>
-      </c>
-      <c r="E33">
-        <v>1.8168250149698699</v>
-      </c>
-      <c r="F33">
-        <v>3.7183201058201001</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>2.47104433098127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="4">
+        <v>4.9653495463724902</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.3462039841859601</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6.4744477415100503</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.9670478488035998</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>3.8916089497301498</v>
-      </c>
-      <c r="E34">
-        <v>1.8409772254702199</v>
-      </c>
-      <c r="F34">
-        <v>7.2153645833333302</v>
-      </c>
-      <c r="G34">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="H34">
-        <v>2.6042475315122902</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="4">
+        <v>6.1975417953493004</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1.13521521749962</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7.0789473684210504</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1.3308002578220399</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>3.70582054958397</v>
-      </c>
-      <c r="E35">
-        <v>4.6409357332496599</v>
-      </c>
-      <c r="F35">
-        <v>4.8962719298245601</v>
-      </c>
-      <c r="G35">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="H35">
-        <v>3.3359515371926598</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="4">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.32805520734349303</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4.6101113967437799</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.98582024919267197</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36">
-        <v>3.6709554081817601</v>
-      </c>
-      <c r="E36">
-        <v>2.13062574012387</v>
-      </c>
-      <c r="F36">
-        <v>5.7301029962546801</v>
-      </c>
-      <c r="G36">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="H36">
-        <v>3.3750357542425999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="4">
+        <v>5.8322872419799099</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.3650461294282501</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4.76743344907407</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.5715703888769701</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37">
-        <v>3.46902015430677</v>
-      </c>
-      <c r="E37">
-        <v>1.0098950152297199</v>
-      </c>
-      <c r="F37">
-        <v>6.6419753086419702</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>1.9948658977028899</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="4">
+        <v>6.1280390502008002</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.53311098741324203</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5.6197771587743697</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.28958541679062</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>6.0326677011555599E-2</v>
-      </c>
-      <c r="E38">
-        <v>2.01910035763047</v>
-      </c>
-      <c r="F38">
-        <v>4.5483091787439598</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>3.16751402563736</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="4">
+        <v>4.8134288638098397</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2.8462213989212599</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2.5491589670694101</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.74654010898931</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>6.4180119540029699</v>
-      </c>
-      <c r="E39">
-        <v>0.20965765277887799</v>
-      </c>
-      <c r="F39">
-        <v>4.7993907745865902</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1.28958541679062</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="4">
+        <v>5.0111568005468898</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.0984296099192199</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6.1906492248061999</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2.7041235723488701</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>5.5686633080338703</v>
-      </c>
-      <c r="E40">
-        <v>0.51199043470873395</v>
-      </c>
-      <c r="F40">
-        <v>6.9009514101257201</v>
-      </c>
-      <c r="G40">
-        <v>3.3333333333333299</v>
-      </c>
-      <c r="H40">
-        <v>0.83684820933637805</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="4">
+        <v>0.46309635764877799</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.04463229443577</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.3195023148148102</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2.2926391672727502</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>5.4351658736981596</v>
-      </c>
-      <c r="E41">
-        <v>0.356174225115793</v>
-      </c>
-      <c r="F41">
-        <v>6.5577114427860597</v>
-      </c>
-      <c r="G41">
-        <v>3.3333333333333299</v>
-      </c>
-      <c r="H41">
-        <v>0.64104955152217402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5.40456621004566</v>
+      </c>
+      <c r="G41" s="4">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1.4876264674978401</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42">
-        <v>5.0111568005468898</v>
-      </c>
-      <c r="E42">
-        <v>1.0984296099192199</v>
-      </c>
-      <c r="F42">
-        <v>6.1906492248061999</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>2.7041235723488701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="4">
+        <v>4.0091769020334196</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.2886681478211</v>
+      </c>
+      <c r="F42" s="4">
+        <v>6.3513888888888799</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1.86882098353868</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43">
-        <v>4.7305493362609301</v>
-      </c>
-      <c r="E43">
-        <v>1.8881399711547699</v>
-      </c>
-      <c r="F43">
-        <v>2.5920770877944301</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1.42104109087858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="4">
+        <v>4.2462966600579399</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.0922328727085799</v>
+      </c>
+      <c r="F43" s="4">
+        <v>6.5997172322022601</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1.86137803012671</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>4.2462966600579399</v>
-      </c>
-      <c r="E44">
-        <v>1.0922328727085799</v>
-      </c>
-      <c r="F44">
-        <v>6.5997172322022601</v>
-      </c>
-      <c r="G44">
-        <v>3.3333333333333299</v>
-      </c>
-      <c r="H44">
-        <v>1.86137803012671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="4">
+        <v>4.7305493362609301</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.8881399711547699</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2.5920770877944301</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1.42104109087858</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>4.1134462964212899</v>
-      </c>
-      <c r="E45">
-        <v>0.91583614180658701</v>
-      </c>
-      <c r="F45">
+      <c r="D45" s="4">
+        <v>1.6221376126814899</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.26252427703653902</v>
+      </c>
+      <c r="F45" s="4">
         <v>4.1615099009900902</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0.89013376629350205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.91102813204758204</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46">
-        <v>4.1094148612275996</v>
-      </c>
-      <c r="E46">
-        <v>2.3500757960290399</v>
-      </c>
-      <c r="F46">
-        <v>5.3343929760823396</v>
-      </c>
-      <c r="G46">
+      <c r="D46" s="4">
+        <v>5.5686633080338703</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.51199043470873395</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6.9009514101257201</v>
+      </c>
+      <c r="G46" s="4">
         <v>3.3333333333333299</v>
       </c>
-      <c r="H46">
-        <v>1.89018729139968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="4">
+        <v>0.83684820933637805</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47">
-        <v>4.0091769020334196</v>
-      </c>
-      <c r="E47">
-        <v>1.2886681478211</v>
-      </c>
-      <c r="F47">
-        <v>6.3513888888888799</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1.86882098353868</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="4">
+        <v>4.1134462964212899</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.91583614180658701</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4.1615099009900902</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.89013376629350205</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>1.6221376126814899</v>
-      </c>
-      <c r="E48">
-        <v>0.26252427703653902</v>
-      </c>
-      <c r="F48">
-        <v>4.1615099009900902</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0.91102813204758204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="4">
+        <v>4.1094148612275996</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.3500757960290399</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5.3343929760823396</v>
+      </c>
+      <c r="G48" s="4">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1.89018729139968</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49">
-        <v>0.46309635764877799</v>
-      </c>
-      <c r="E49">
-        <v>1.04463229443577</v>
-      </c>
-      <c r="F49">
-        <v>2.3195023148148102</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>2.2926391672727502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="4">
+        <v>5.4351658736981596</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.356174225115793</v>
+      </c>
+      <c r="F49" s="4">
+        <v>6.5577114427860597</v>
+      </c>
+      <c r="G49" s="4">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.64104955152217402</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>5.40456621004566</v>
-      </c>
-      <c r="G50">
+      <c r="D50" s="4">
+        <v>6.4180119540029699</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.20965765277887799</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4.7993907745865902</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1.28958541679062</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3.4652751532266199</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.61236972037452098</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5.3343929760823396</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1.1879070358633601</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>493</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3.4528483884340102</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.62582839554758696</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1.87176938369781</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1.2831372951179001</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>494</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3.27239396478083</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4.93277787237799</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4.5099846165524999</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.20807001388369201</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.1134259259259198</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.87591500638705799</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>499</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3.98409587051612</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.52040210669190001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.1134259259259198</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1.00005352510618</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3.85640221345332</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.61236972037452098</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3.85314591700133</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.4285302198460801</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>520</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4.8044849316979397</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.31974767987059399</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.5176445578231199</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.96839280543411399</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>521</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.4797681847627402</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.70658044658598596</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2.7898471615720499</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1.0944757262393201</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>523</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4.3900706988436902</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.2180101031624999</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2.8123024556284899</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1.1115834959800399</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>525</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4.16774288099983</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.63189880723286396</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1.7980495288187599</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1.00005352510618</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>526</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4.4034797036534901</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.31560593280840699</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4.9617136978248002</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.87591500638705799</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>527</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>3.70582054958397</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.62582839554758696</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.92068452380952304</v>
+      </c>
+      <c r="G62" s="4">
         <v>10</v>
       </c>
-      <c r="H50">
-        <v>1.4876264674978401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>69</v>
-      </c>
-      <c r="B51" t="s">
-        <v>547</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>5.66882089300187</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>2.7452294685990299</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>542</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>5.4863875359112004</v>
-      </c>
-      <c r="E52">
-        <v>0.777238491244584</v>
-      </c>
-      <c r="F52">
-        <v>4.8638086905803402</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0.99480517455600703</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>70</v>
-      </c>
-      <c r="B53" t="s">
-        <v>548</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>5.3952259302786798</v>
-      </c>
-      <c r="E53">
-        <v>0.19961027520347799</v>
-      </c>
-      <c r="F53">
-        <v>3.6917392451834199</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0.64853586526844997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>88</v>
-      </c>
-      <c r="B54" t="s">
-        <v>566</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>5.2912023148243001</v>
-      </c>
-      <c r="E54">
-        <v>0.689098958613937</v>
-      </c>
-      <c r="F54">
-        <v>4.6725523973585998</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1.21912556093834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="H62" s="4">
+        <v>1.0578209707479</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>528</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.1084684360860697</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.79069716641765098</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2.5705721747388401</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.77287377746213903</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3.8812557430385501</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.62582839554758696</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.8802618697993099</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1.00005352510618</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>531</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4.2202140936721104</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.46683444320544998</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3.53486859224564</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.85640634269581095</v>
+      </c>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B66" t="s">
         <v>532</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
         <v>5.1383610340861399</v>
       </c>
-      <c r="E55">
+      <c r="E66" s="4">
         <v>0.20703928641233799</v>
       </c>
-      <c r="F55">
+      <c r="F66" s="4">
         <v>5.4399420024419998</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
         <v>0.83684820933637805</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>528</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>5.1084684360860697</v>
-      </c>
-      <c r="E56">
-        <v>0.79069716641765098</v>
-      </c>
-      <c r="F56">
-        <v>2.5705721747388401</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0.77287377746213903</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>93</v>
-      </c>
-      <c r="B57" t="s">
-        <v>571</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>5.0812213443665302</v>
-      </c>
-      <c r="E57">
-        <v>0.43651917362687498</v>
-      </c>
-      <c r="F57">
-        <v>4.5176445578231199</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0.60747320192842502</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>94</v>
-      </c>
-      <c r="B58" t="s">
-        <v>572</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>5.0812213443665302</v>
-      </c>
-      <c r="E58">
-        <v>0.43651917362687498</v>
-      </c>
-      <c r="F58">
-        <v>4.5176445578231199</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0.60747320192842502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>564</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5.0807714842934102</v>
-      </c>
-      <c r="E59">
-        <v>0.68241892020386197</v>
-      </c>
-      <c r="F59">
-        <v>2.7898471615720499</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0.98582024919267197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>81</v>
-      </c>
-      <c r="B60" t="s">
-        <v>559</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>4.8149112842320596</v>
-      </c>
-      <c r="E60">
-        <v>0.68115023505313899</v>
-      </c>
-      <c r="F60">
-        <v>5.40456621004566</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0.85421393301626203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>540</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>4.8141700740209501</v>
-      </c>
-      <c r="E61">
-        <v>0.69460891022620497</v>
-      </c>
-      <c r="F61">
-        <v>2.9031150355653601</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0.60747320192842502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>42</v>
-      </c>
-      <c r="B62" t="s">
-        <v>520</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>4.8044849316979397</v>
-      </c>
-      <c r="E62">
-        <v>0.31974767987059399</v>
-      </c>
-      <c r="F62">
-        <v>4.5176445578231199</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0.96839280543411399</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>549</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>4.7113662011223001</v>
-      </c>
-      <c r="E63">
-        <v>0.67192435801534001</v>
-      </c>
-      <c r="F63">
-        <v>2.92606932153392</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0.89013376629350205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="B64" t="s">
-        <v>569</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>4.6623000366750098</v>
-      </c>
-      <c r="E64">
-        <v>0.72003912175905205</v>
-      </c>
-      <c r="F64">
-        <v>1.15168195718654</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0.89013376629350205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>58</v>
-      </c>
-      <c r="B65" t="s">
-        <v>536</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>4.6446333573898197</v>
-      </c>
-      <c r="E65">
-        <v>0.12785741414412999</v>
-      </c>
-      <c r="F65">
-        <v>4.9289064790383996</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0.99652702433934104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>541</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>4.5779005136573296</v>
-      </c>
-      <c r="E66">
-        <v>0.65846568284227303</v>
-      </c>
-      <c r="F66">
-        <v>5.4399420024419998</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1.0944757262393201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>55</v>
       </c>
@@ -26235,783 +26438,812 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
         <v>4.5757394308301</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>1.2449274535086401</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
         <v>0.67340924395023904</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>535</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2.9642419949291501</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.26252427703653902</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4.1615099009900902</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.91102813204758204</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>536</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4.6446333573898197</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.12785741414412999</v>
+      </c>
+      <c r="F69" s="4">
+        <v>4.9289064790383996</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.99652702433934104</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>538</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4.4829050648369</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1.23146877833557</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1.1834458768160401</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.910260128626041</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>539</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>4.4378430557515802</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.39891620027851099</v>
+      </c>
+      <c r="F71" s="4">
+        <v>5.3693837279902796</v>
+      </c>
+      <c r="G71" s="4">
+        <v>10</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.85640634269581095</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>540</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>4.8141700740209501</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.69460891022620497</v>
+      </c>
+      <c r="F72" s="4">
+        <v>2.9031150355653601</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.60747320192842502</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4.5779005136573296</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.65846568284227303</v>
+      </c>
+      <c r="F73" s="4">
+        <v>5.4399420024419998</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1.0944757262393201</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>542</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>5.4863875359112004</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.777238491244584</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4.8638086905803402</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0.99480517455600703</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4.0267382986637497</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.69491626143599505</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2.5920770877944301</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0.910260128626041</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>544</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2.3801663452496298</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.26322925525988999</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.83171378091872705</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1.00005352510618</v>
+      </c>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>545</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4.3110791429955402</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.45142639642993498</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4.0757575757575699</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.77287377746213903</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>546</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4.4270888503923196</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.62694995181200897</v>
+      </c>
+      <c r="F78" s="4">
+        <v>5.1622610513739504</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0.910260128626041</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>547</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>5.66882089300187</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2.7452294685990299</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5.3952259302786798</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.19961027520347799</v>
+      </c>
+      <c r="F80" s="4">
+        <v>3.6917392451834199</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0.64853586526844997</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>549</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>4.7113662011223001</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.67192435801534001</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2.92606932153392</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0.89013376629350205</v>
+      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>551</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3.3774605727054201</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.214647176406002</v>
+      </c>
+      <c r="F82" s="4">
+        <v>4.1903777226357803</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0.99652702433934104</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B83" t="s">
         <v>552</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
         <v>4.5478313236078103</v>
       </c>
-      <c r="E68">
+      <c r="E83" s="4">
         <v>0.64040862698507595</v>
       </c>
-      <c r="F68">
+      <c r="F83" s="4">
         <v>2.7452294685990299</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
         <v>0.67340924395023904</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>554</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4.0613115992273601</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.21619332182766901</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.53486859224564</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0.54723786311966105</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>557</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4.2314147796135497</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.33034638656938398</v>
+      </c>
+      <c r="F85" s="4">
+        <v>4.8962719298245601</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0.91102813204758204</v>
+      </c>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>80</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B86" t="s">
         <v>558</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
         <v>4.5274171872536</v>
       </c>
-      <c r="E69">
+      <c r="E86" s="4">
         <v>0.73123866217092504</v>
       </c>
-      <c r="F69">
+      <c r="F86" s="4">
         <v>4.5791310541310501</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
         <v>1.0578209707479</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>496</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>4.5099846165524999</v>
-      </c>
-      <c r="E70">
-        <v>0.20807001388369201</v>
-      </c>
-      <c r="F70">
-        <v>3.1134259259259198</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0.87591500638705799</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>538</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>4.4829050648369</v>
-      </c>
-      <c r="E71">
-        <v>1.23146877833557</v>
-      </c>
-      <c r="F71">
-        <v>1.1834458768160401</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0.910260128626041</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>43</v>
-      </c>
-      <c r="B72" t="s">
-        <v>521</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>4.4797681847627402</v>
-      </c>
-      <c r="E72">
-        <v>0.70658044658598596</v>
-      </c>
-      <c r="F72">
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>559</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4.8149112842320596</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.68115023505313899</v>
+      </c>
+      <c r="F87" s="4">
+        <v>5.40456621004566</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0.85421393301626203</v>
+      </c>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>561</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>4.3476560477435298</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.70837493660906103</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1.01158243080625</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0.67340924395023904</v>
+      </c>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>564</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>5.0807714842934102</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.68241892020386197</v>
+      </c>
+      <c r="F89" s="4">
         <v>2.7898471615720499</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1.0944757262393201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>61</v>
-      </c>
-      <c r="B73" t="s">
-        <v>539</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>4.4378430557515802</v>
-      </c>
-      <c r="E73">
-        <v>0.39891620027851099</v>
-      </c>
-      <c r="F73">
-        <v>5.3693837279902796</v>
-      </c>
-      <c r="G73">
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0.98582024919267197</v>
+      </c>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>565</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>3.70582054958397</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.61236972037452098</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2.5278368794326198</v>
+      </c>
+      <c r="G90" s="4">
         <v>10</v>
       </c>
-      <c r="H73">
-        <v>0.85640634269581095</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>68</v>
-      </c>
-      <c r="B74" t="s">
-        <v>546</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>4.4270888503923196</v>
-      </c>
-      <c r="E74">
-        <v>0.62694995181200897</v>
-      </c>
-      <c r="F74">
-        <v>5.1622610513739504</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0.910260128626041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>48</v>
-      </c>
-      <c r="B75" t="s">
-        <v>526</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>4.4034797036534901</v>
-      </c>
-      <c r="E75">
-        <v>0.31560593280840699</v>
-      </c>
-      <c r="F75">
-        <v>4.9617136978248002</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0.87591500638705799</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>45</v>
-      </c>
-      <c r="B76" t="s">
-        <v>523</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>4.3900706988436902</v>
-      </c>
-      <c r="E76">
-        <v>1.2180101031624999</v>
-      </c>
-      <c r="F76">
-        <v>2.8123024556284899</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>1.1115834959800399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>83</v>
-      </c>
-      <c r="B77" t="s">
-        <v>561</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>4.3476560477435298</v>
-      </c>
-      <c r="E77">
-        <v>0.70837493660906103</v>
-      </c>
-      <c r="F77">
-        <v>1.01158243080625</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0.67340924395023904</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>67</v>
-      </c>
-      <c r="B78" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>4.3110791429955402</v>
-      </c>
-      <c r="E78">
-        <v>0.45142639642993498</v>
-      </c>
-      <c r="F78">
-        <v>4.0757575757575699</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0.77287377746213903</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>557</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>4.2314147796135497</v>
-      </c>
-      <c r="E79">
-        <v>0.33034638656938398</v>
-      </c>
-      <c r="F79">
-        <v>4.8962719298245601</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0.91102813204758204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>53</v>
-      </c>
-      <c r="B80" t="s">
-        <v>531</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>4.2202140936721104</v>
-      </c>
-      <c r="E80">
-        <v>0.46683444320544998</v>
-      </c>
-      <c r="F80">
-        <v>3.53486859224564</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0.85640634269581095</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>47</v>
-      </c>
-      <c r="B81" t="s">
-        <v>525</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>4.16774288099983</v>
-      </c>
-      <c r="E81">
-        <v>0.63189880723286396</v>
-      </c>
-      <c r="F81">
-        <v>1.7980495288187599</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
+      <c r="H90" s="4">
+        <v>1.2370058049555399</v>
+      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>566</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5.2912023148243001</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.689098958613937</v>
+      </c>
+      <c r="F91" s="4">
+        <v>4.6725523973585998</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1.21912556093834</v>
+      </c>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>567</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4.12793836302526</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1.4950474415086099</v>
+      </c>
+      <c r="F92" s="4">
+        <v>4.1042008757525998</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
         <v>1.00005352510618</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>89</v>
-      </c>
-      <c r="B82" t="s">
-        <v>567</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>4.12793836302526</v>
-      </c>
-      <c r="E82">
-        <v>1.4950474415086099</v>
-      </c>
-      <c r="F82">
-        <v>4.1042008757525998</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>1.00005352510618</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>76</v>
-      </c>
-      <c r="B83" t="s">
-        <v>554</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>4.0613115992273601</v>
-      </c>
-      <c r="E83">
-        <v>0.21619332182766901</v>
-      </c>
-      <c r="F83">
-        <v>3.53486859224564</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0.54723786311966105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>65</v>
-      </c>
-      <c r="B84" t="s">
-        <v>543</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>4.0267382986637497</v>
-      </c>
-      <c r="E84">
-        <v>0.69491626143599505</v>
-      </c>
-      <c r="F84">
-        <v>2.5920770877944301</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0.910260128626041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>21</v>
-      </c>
-      <c r="B85" t="s">
-        <v>499</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>3.98409587051612</v>
-      </c>
-      <c r="E85">
-        <v>0.52040210669190001</v>
-      </c>
-      <c r="F85">
-        <v>3.1134259259259198</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>1.00005352510618</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>52</v>
-      </c>
-      <c r="B86" t="s">
-        <v>530</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>3.8812557430385501</v>
-      </c>
-      <c r="E86">
-        <v>0.62582839554758696</v>
-      </c>
-      <c r="F86">
-        <v>2.8802618697993099</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>1.00005352510618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>41</v>
-      </c>
-      <c r="B87" t="s">
-        <v>519</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>3.85640221345332</v>
-      </c>
-      <c r="E87">
-        <v>0.61236972037452098</v>
-      </c>
-      <c r="F87">
-        <v>3.85314591700133</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>1.4285302198460801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>527</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>3.70582054958397</v>
-      </c>
-      <c r="E88">
-        <v>0.62582839554758696</v>
-      </c>
-      <c r="F88">
-        <v>0.92068452380952304</v>
-      </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
-      <c r="H88">
-        <v>1.0578209707479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>565</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>3.70582054958397</v>
-      </c>
-      <c r="E89">
-        <v>0.61236972037452098</v>
-      </c>
-      <c r="F89">
-        <v>2.5278368794326198</v>
-      </c>
-      <c r="G89">
-        <v>10</v>
-      </c>
-      <c r="H89">
-        <v>1.2370058049555399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>491</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>3.4652751532266199</v>
-      </c>
-      <c r="E90">
-        <v>0.61236972037452098</v>
-      </c>
-      <c r="F90">
-        <v>5.3343929760823396</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1.1879070358633601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>493</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>3.4528483884340102</v>
-      </c>
-      <c r="E91">
-        <v>0.62582839554758696</v>
-      </c>
-      <c r="F91">
-        <v>1.87176938369781</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>1.2831372951179001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>73</v>
-      </c>
-      <c r="B92" t="s">
-        <v>551</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>3.3774605727054201</v>
-      </c>
-      <c r="E92">
-        <v>0.214647176406002</v>
-      </c>
-      <c r="F92">
-        <v>4.1903777226357803</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0.99652702433934104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93">
-        <v>3.27239396478083</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>4.93277787237799</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D93" s="4">
+        <v>2.2523807516019598</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.64575471184548805</v>
+      </c>
+      <c r="F93" s="4">
+        <v>5.4399420024419998</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1.5151250080882199</v>
+      </c>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94">
-        <v>2.9642419949291501</v>
-      </c>
-      <c r="E94">
-        <v>0.26252427703653902</v>
-      </c>
-      <c r="F94">
-        <v>4.1615099009900902</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0.91102813204758204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="4">
+        <v>4.6623000366750098</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.72003912175905205</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1.15168195718654</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.89013376629350205</v>
+      </c>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95">
-        <v>2.3801663452496298</v>
-      </c>
-      <c r="E95">
-        <v>0.26322925525988999</v>
-      </c>
-      <c r="F95">
-        <v>0.83171378091872705</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>1.00005352510618</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D95" s="4">
+        <v>5.0812213443665302</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.43651917362687498</v>
+      </c>
+      <c r="F95" s="4">
+        <v>4.5176445578231199</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.60747320192842502</v>
+      </c>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96">
-        <v>2.2523807516019598</v>
-      </c>
-      <c r="E96">
-        <v>0.64575471184548805</v>
-      </c>
-      <c r="F96">
-        <v>5.4399420024419998</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>1.5151250080882199</v>
-      </c>
+      <c r="D96" s="4">
+        <v>5.0812213443665302</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.43651917362687498</v>
+      </c>
+      <c r="F96" s="4">
+        <v>4.5176445578231199</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.60747320192842502</v>
+      </c>
+      <c r="I96" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H96" xr:uid="{D237C934-1A94-40E0-8B75-3C0418AA65FF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H96">
-      <sortCondition descending="1" ref="C1:C96"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Language Data/Data.xlsx
+++ b/Language Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53276\OneDrive\Documents\MathsProject\Language Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB6694-96FA-4A30-93D9-F0BC806B76A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC06DA8-8383-4723-90A3-BD602D47E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
   </bookViews>
@@ -4572,15 +4572,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>94826</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161662</xdr:rowOff>
+      <xdr:colOff>313901</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4603,7 +4603,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="1866900"/>
+          <a:off x="6400800" y="1381125"/>
           <a:ext cx="3390476" cy="2104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5721,28 +5721,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>649</v>
+        <v>529</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>6.1104603280358196</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
-        <v>10</v>
+        <v>3.5573776812451001</v>
       </c>
       <c r="F2" s="4">
-        <v>1.9568822553897101</v>
+        <v>1.9063004846526601</v>
       </c>
       <c r="G2" s="4">
-        <v>0.16666666666666599</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>10</v>
+        <v>1.3554695372530099</v>
       </c>
       <c r="J2" s="4">
         <v>15</v>
@@ -5750,28 +5750,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>5.3825257142334797</v>
+        <v>9.4370019535073002</v>
       </c>
       <c r="E3" s="4">
-        <v>9.8739888701821101</v>
+        <v>5.63824236270868</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0884955752212302</v>
+        <v>1.75074183976261</v>
       </c>
       <c r="G3" s="4">
-        <v>0.38461538461538403</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>8.5352138666467408</v>
+        <v>6.0265456187300099</v>
       </c>
       <c r="J3" s="4">
         <v>13</v>
@@ -5779,28 +5779,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>4.6278378319590496</v>
+        <v>9.3403608163190697</v>
       </c>
       <c r="E4" s="4">
-        <v>6.1542854939659897</v>
+        <v>1.20911462684265</v>
       </c>
       <c r="F4" s="4">
-        <v>2.4229979466119098</v>
+        <v>0.96800656275635699</v>
       </c>
       <c r="G4" s="4">
-        <v>0.36363636363636298</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>7.8458140057512402</v>
+        <v>0.48382093167356399</v>
       </c>
       <c r="J4" s="4">
         <v>12</v>
@@ -5808,210 +5808,210 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>633</v>
+        <v>532</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>5.8094379273401504</v>
+        <v>8.9033575140615806</v>
       </c>
       <c r="E5" s="4">
-        <v>6.1549846418794703</v>
+        <v>0.48364585073706101</v>
       </c>
       <c r="F5" s="4">
-        <v>2.3694779116465798</v>
+        <v>1.6298342541436399</v>
       </c>
       <c r="G5" s="4">
-        <v>0.72727272727272696</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>6.1829840882805902</v>
+        <v>2.0493560460351898</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>9.4370019535073002</v>
+        <v>8.7008639229478906</v>
       </c>
       <c r="E6" s="4">
-        <v>5.63824236270868</v>
+        <v>1.6531763677723601</v>
       </c>
       <c r="F6" s="4">
-        <v>1.75074183976261</v>
+        <v>1.5945945945945901</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>6.0265456187300099</v>
+        <v>2.88343696652043</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>1.9845881484408601</v>
+        <v>8.6807216326381305</v>
       </c>
       <c r="E7" s="4">
-        <v>1.74889794239741</v>
+        <v>1.2155920266293101</v>
       </c>
       <c r="F7" s="4">
-        <v>1.5344603381014299</v>
+        <v>1.06306306306306</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>4.6203927757121903</v>
+        <v>0.71056255484489805</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>6.5483589005021603</v>
+        <v>8.5995788781693197</v>
       </c>
       <c r="E8" s="4">
-        <v>5.1541646853191798</v>
+        <v>2.41571026487938</v>
       </c>
       <c r="F8" s="4">
-        <v>2.1851851851851798</v>
+        <v>1.6298342541436399</v>
       </c>
       <c r="G8" s="4">
-        <v>0.55555555555555503</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H8" s="4">
-        <v>4.6112764964166804</v>
+        <v>2.80288684047837</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>675</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>5.5420082958103798</v>
+        <v>8.5927748976109992</v>
       </c>
       <c r="E9" s="4">
-        <v>4.9851045508874297</v>
+        <v>0.621290596203524</v>
       </c>
       <c r="F9" s="4">
-        <v>1.9568822553897101</v>
+        <v>0.91402013942680105</v>
       </c>
       <c r="G9" s="4">
-        <v>0.44444444444444398</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>4.5458897881403502</v>
+        <v>1.3554695372530099</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>6.0600937299220901</v>
+        <v>8.1870739268111894</v>
       </c>
       <c r="E10" s="4">
-        <v>2.224626971173</v>
+        <v>0.926268169491961</v>
       </c>
       <c r="F10" s="4">
-        <v>1.22026887280248</v>
+        <v>1.6434540389972101</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>4.2860768202819299</v>
+        <v>1.83224116305186</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>628</v>
+        <v>527</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>5.8478960830444304</v>
+        <v>8.1827832039654798</v>
       </c>
       <c r="E11" s="4">
-        <v>3.6098908866583499</v>
+        <v>0.75137837525221995</v>
       </c>
       <c r="F11" s="4">
-        <v>2.13381555153707</v>
+        <v>1.3882352941176399</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>4.1485277447492104</v>
+        <v>1.44547155497791</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>5.2439965910274102</v>
+        <v>8.0210824489572001</v>
       </c>
       <c r="E12" s="4">
-        <v>3.0173887339510799</v>
+        <v>1.2220694264159599</v>
       </c>
       <c r="F12" s="4">
-        <v>1.76119402985074</v>
+        <v>1.17882117882117</v>
       </c>
       <c r="G12" s="4">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>3.8972568824756602</v>
+        <v>0.90329352851054301</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,28 +6042,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>2.66033852542833</v>
+        <v>7.7485478417147</v>
       </c>
       <c r="E14" s="4">
-        <v>0.91439293654975595</v>
+        <v>0.62776799599018096</v>
       </c>
       <c r="F14" s="4">
-        <v>1.3409090909090899</v>
+        <v>0.99746407438715101</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>3.6764135971626799</v>
+        <v>1.45146279502069</v>
       </c>
       <c r="J14" s="4">
         <v>2</v>
@@ -6071,184 +6071,184 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>4.0724903407036903</v>
+        <v>7.7466685808114999</v>
       </c>
       <c r="E15" s="4">
-        <v>3.5998097906411801</v>
+        <v>0.75461707514554799</v>
       </c>
       <c r="F15" s="4">
-        <v>2.12996389891696</v>
+        <v>1.3768961493582199</v>
       </c>
       <c r="G15" s="4">
-        <v>1.6666666666666601</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>3.6734715588222802</v>
+        <v>1.3751177679442801</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>5.6039395618032</v>
+        <v>7.6823512797943598</v>
       </c>
       <c r="E16" s="4">
-        <v>3.1831279157938002</v>
+        <v>0.75983498052924403</v>
       </c>
       <c r="F16" s="4">
-        <v>2.1033868092691601</v>
+        <v>1.5147625160462099</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>3.6216992098726299</v>
+        <v>1.3408820126295899</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>5.5131617903594501</v>
+        <v>7.6647024849830601</v>
       </c>
       <c r="E17" s="4">
-        <v>3.5548381292652498</v>
+        <v>0.744900975465563</v>
       </c>
       <c r="F17" s="4">
-        <v>1.5445026178010399</v>
+        <v>1.2291666666666601</v>
       </c>
       <c r="G17" s="4">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>3.56228617257434</v>
+        <v>1.3484202313783</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>3.6951536294533098</v>
+        <v>7.5893839596480097</v>
       </c>
       <c r="E18" s="4">
-        <v>3.0902543407574901</v>
+        <v>1.4140523589816001</v>
       </c>
       <c r="F18" s="4">
-        <v>1.76646706586826</v>
+        <v>1.8759936406995199</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H18" s="4">
-        <v>3.2132410735999901</v>
+        <v>1.3408820126295899</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>1.4311044424037</v>
+        <v>7.5306989670680196</v>
       </c>
       <c r="E19" s="4">
-        <v>1.4165764885810099</v>
+        <v>1.4833245511444599</v>
       </c>
       <c r="F19" s="4">
-        <v>1.65034965034965</v>
+        <v>1.3532110091743099</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>3.2132410735999901</v>
+        <v>1.7079504558493599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>0.67641656012928297</v>
+        <v>7.4948693938860602</v>
       </c>
       <c r="E20" s="4">
-        <v>1.42305388836766</v>
+        <v>0.32063128943952501</v>
       </c>
       <c r="F20" s="4">
-        <v>1.9633943427620599</v>
+        <v>1.41656662665066</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>3.0305670180731799</v>
+        <v>1.2342428147236799</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>5.1552839863439299</v>
+        <v>7.4097638338703904</v>
       </c>
       <c r="E21" s="4">
-        <v>2.59743731444948</v>
+        <v>0.41563315297716202</v>
       </c>
       <c r="F21" s="4">
-        <v>1.6643159379407599</v>
+        <v>1.4955640050697001</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>3.0272845332718599</v>
+        <v>1.25904196210335</v>
       </c>
       <c r="J21" s="4">
         <v>5</v>
@@ -6256,1351 +6256,1351 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>8.7008639229478906</v>
+        <v>7.3614432652762698</v>
       </c>
       <c r="E22" s="4">
-        <v>1.6531763677723601</v>
+        <v>1.22854682620262</v>
       </c>
       <c r="F22" s="4">
-        <v>1.5945945945945901</v>
+        <v>1.3228699551569501</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>2.88343696652043</v>
+        <v>1.0671146156001301</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>8.5995788781693197</v>
+        <v>7.1844535133601903</v>
       </c>
       <c r="E23" s="4">
-        <v>2.41571026487938</v>
+        <v>1.4768471513578101</v>
       </c>
       <c r="F23" s="4">
-        <v>1.6298342541436399</v>
+        <v>1.21149897330595</v>
       </c>
       <c r="G23" s="4">
-        <v>1.6666666666666601</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>2.80288684047837</v>
+        <v>1.6572126398901199</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>5.0906965253287604</v>
+        <v>7.1466217660006501</v>
       </c>
       <c r="E24" s="4">
-        <v>3.25021527072703</v>
+        <v>0.73842357567890604</v>
       </c>
       <c r="F24" s="4">
-        <v>1.3882352941176399</v>
+        <v>1.10280373831775</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>2.7622537350276799</v>
+        <v>1.2342428147236799</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>4.8151516022085303</v>
+        <v>7.1429416141475297</v>
       </c>
       <c r="E25" s="4">
-        <v>3.25669267051369</v>
+        <v>0.26233469135961102</v>
       </c>
       <c r="F25" s="4">
-        <v>1.60108548168249</v>
+        <v>1.73529411764705</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>2.6472339568048802</v>
+        <v>1.02063307376194</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>676</v>
+        <v>622</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>5.1069807911132497</v>
+        <v>7.1192761344516304</v>
       </c>
       <c r="E26" s="4">
-        <v>3.2631700703003501</v>
+        <v>0.439743474405274</v>
       </c>
       <c r="F26" s="4">
-        <v>1.8910256410256401</v>
+        <v>1.3409090909090899</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>2.5494623219107302</v>
+        <v>1.2563476624185499</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>5.8777830834012104</v>
+        <v>6.9043207858183999</v>
       </c>
       <c r="E27" s="4">
-        <v>1.3271472451772901</v>
+        <v>0.63424539577683803</v>
       </c>
       <c r="F27" s="4">
-        <v>1.2016293279022401</v>
+        <v>1.0976744186046501</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <v>2.5457676532770699</v>
+        <v>1.5330579342356401</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>5.3619085997386202</v>
+        <v>6.83820805965237</v>
       </c>
       <c r="E28" s="4">
-        <v>0.71251397653227799</v>
+        <v>1.47036975157115</v>
       </c>
       <c r="F28" s="4">
-        <v>1.0727272727272701</v>
+        <v>1.09665427509293</v>
       </c>
       <c r="G28" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>2.3341581884788001</v>
+        <v>1.5975293403284401</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>4.0111235625834798</v>
+        <v>6.8026648609609399</v>
       </c>
       <c r="E29" s="4">
-        <v>0.71899137631893495</v>
+        <v>0.314153889652868</v>
       </c>
       <c r="F29" s="4">
-        <v>1.19191919191919</v>
+        <v>1.2447257383966199</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <v>2.2833481809524598</v>
+        <v>1.0999153737551199</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>5.9662424204396096</v>
+        <v>6.7924732386751003</v>
       </c>
       <c r="E30" s="4">
-        <v>1.2598542585048</v>
+        <v>0.76109447493220495</v>
       </c>
       <c r="F30" s="4">
-        <v>1.98319327731092</v>
+        <v>1.5838926174496599</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>2.1413173469745299</v>
+        <v>1.4681638405564501</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>5.7144210461542597</v>
+        <v>6.7651236814193902</v>
       </c>
       <c r="E31" s="4">
-        <v>0.49228238378593703</v>
+        <v>0.76631238031590199</v>
       </c>
       <c r="F31" s="4">
-        <v>1.4285714285714199</v>
+        <v>1.77177177177177</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>2.0871855659916001</v>
+        <v>1.43906511722634</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>5.8790314952333098</v>
+        <v>6.7018040815953404</v>
       </c>
       <c r="E32" s="4">
-        <v>0.50667660553406402</v>
+        <v>1.2350242259892801</v>
       </c>
       <c r="F32" s="4">
-        <v>1.9218241042345201</v>
+        <v>1.50702426564495</v>
       </c>
       <c r="G32" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>2.0633882846853999</v>
+        <v>1.20636163341614</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>8.9033575140615806</v>
+        <v>6.6285410470182304</v>
       </c>
       <c r="E33" s="4">
-        <v>0.48364585073706101</v>
+        <v>0.73194617589224897</v>
       </c>
       <c r="F33" s="4">
-        <v>1.6298342541436399</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>2.0493560460351898</v>
+        <v>1.0999153737551199</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D34" s="4">
-        <v>5.8382778965386999</v>
+        <v>6.5483589005021603</v>
       </c>
       <c r="E34" s="4">
-        <v>1.4141808788186401</v>
+        <v>5.1541646853191798</v>
       </c>
       <c r="F34" s="4">
-        <v>1.86413902053712</v>
+        <v>2.1851851851851798</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="H34" s="4">
-        <v>1.9514766069116201</v>
+        <v>4.6112764964166804</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>8.1870739268111894</v>
+        <v>6.5161142035598898</v>
       </c>
       <c r="E35" s="4">
-        <v>0.926268169491961</v>
+        <v>1.3289465228958</v>
       </c>
       <c r="F35" s="4">
-        <v>1.6434540389972101</v>
+        <v>1.4390243902438999</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>1.83224116305186</v>
+        <v>1.7481606597813</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>661</v>
+        <v>525</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>4.4200441471499499</v>
+        <v>6.4919626059445399</v>
       </c>
       <c r="E36" s="4">
-        <v>0.77674819108329396</v>
+        <v>1.46389235178449</v>
       </c>
       <c r="F36" s="4">
-        <v>1.9633943427620599</v>
+        <v>1.0016977928692601</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>1.8059893821181601</v>
+        <v>1.5273164650743001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>5.5547582269369498</v>
+        <v>6.3616078481274103</v>
       </c>
       <c r="E37" s="4">
-        <v>2.4415684560911899</v>
+        <v>0.43326607461861699</v>
       </c>
       <c r="F37" s="4">
-        <v>1.5902964959568699</v>
+        <v>1.19191919191919</v>
       </c>
       <c r="G37" s="4">
-        <v>1.6666666666666601</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>1.7938018825373001</v>
+        <v>1.12591980046047</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>660</v>
+        <v>602</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4">
-        <v>6.5161142035598898</v>
+        <v>6.1798897201430201</v>
       </c>
       <c r="E38" s="4">
-        <v>1.3289465228958</v>
+        <v>1.2760014908301001</v>
       </c>
       <c r="F38" s="4">
-        <v>1.4390243902438999</v>
+        <v>2.0068027210884298</v>
       </c>
       <c r="G38" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H38" s="4">
-        <v>1.7481606597813</v>
+        <v>1.05472618069707</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>7.5306989670680196</v>
+        <v>6.1740433119851703</v>
       </c>
       <c r="E39" s="4">
-        <v>1.4833245511444599</v>
+        <v>0.30695677877880401</v>
       </c>
       <c r="F39" s="4">
-        <v>1.3532110091743099</v>
+        <v>1.33938706015891</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>1.7079504558493599</v>
+        <v>0.40422295391260399</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>6.1457171522367204</v>
       </c>
       <c r="E40" s="4">
-        <v>1.9604930020948701</v>
+        <v>1.4574149519978401</v>
       </c>
       <c r="F40" s="4">
-        <v>1.3154960981047901</v>
+        <v>0.921875</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>1.6634003226293901</v>
+        <v>1.4447062880394099</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D41" s="4">
-        <v>7.1844535133601903</v>
+        <v>6.1104603280358196</v>
       </c>
       <c r="E41" s="4">
-        <v>1.4768471513578101</v>
+        <v>10</v>
       </c>
       <c r="F41" s="4">
-        <v>1.21149897330595</v>
+        <v>1.9568822553897101</v>
       </c>
       <c r="G41" s="4">
-        <v>0</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="H41" s="4">
-        <v>1.6572126398901199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4">
-        <v>1.6728528024441001</v>
+        <v>6.0600937299220901</v>
       </c>
       <c r="E42" s="4">
-        <v>1.95401560230821</v>
+        <v>2.224626971173</v>
       </c>
       <c r="F42" s="4">
-        <v>1.17179741807348</v>
+        <v>1.22026887280248</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <v>1.6048058476115701</v>
+        <v>4.2860768202819299</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>5.4011880108229002</v>
+        <v>6.04216489791441</v>
       </c>
       <c r="E43" s="4">
         <v>1.2415016257759299</v>
       </c>
       <c r="F43" s="4">
-        <v>1.75595238095238</v>
+        <v>1.75074183976261</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <v>1.6021567871560101</v>
+        <v>1.3247215973794899</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
-        <v>6.83820805965237</v>
+        <v>6.0292066010029304</v>
       </c>
       <c r="E44" s="4">
-        <v>1.47036975157115</v>
+        <v>0.63190633474276703</v>
       </c>
       <c r="F44" s="4">
-        <v>1.09665427509293</v>
+        <v>1.9471947194719399</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <v>1.5975293403284401</v>
+        <v>1.27518702614616</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>6.9043207858183999</v>
+        <v>6.0229389130386899</v>
       </c>
       <c r="E45" s="4">
-        <v>0.63424539577683803</v>
+        <v>0.25261859167962503</v>
       </c>
       <c r="F45" s="4">
-        <v>1.0976744186046501</v>
+        <v>1.65497896213183</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <v>1.5330579342356401</v>
+        <v>1.3832242967444901</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>5.4198503074123199</v>
+        <v>6.0091561747892897</v>
       </c>
       <c r="E46" s="4">
-        <v>1.2350242259892801</v>
+        <v>0.75137837525221995</v>
       </c>
       <c r="F46" s="4">
-        <v>1.5147625160462099</v>
+        <v>1.65497896213183</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>1.53275634918504</v>
+        <v>1.46144229543575</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4">
-        <v>6.4919626059445399</v>
+        <v>5.9662424204396096</v>
       </c>
       <c r="E47" s="4">
-        <v>1.46389235178449</v>
+        <v>1.2598542585048</v>
       </c>
       <c r="F47" s="4">
-        <v>1.0016977928692601</v>
+        <v>1.98319327731092</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <v>1.5273164650743001</v>
+        <v>2.1413173469745299</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>6.7924732386751003</v>
+        <v>5.9354174980415602</v>
       </c>
       <c r="E48" s="4">
-        <v>0.76109447493220495</v>
+        <v>0.24614119189296799</v>
       </c>
       <c r="F48" s="4">
-        <v>1.5838926174496599</v>
+        <v>1.43377885783718</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <v>1.4681638405564501</v>
+        <v>1.27518702614616</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>6.0091561747892897</v>
+        <v>5.9193222641715399</v>
       </c>
       <c r="E49" s="4">
-        <v>0.75137837525221995</v>
+        <v>0.103998252130216</v>
       </c>
       <c r="F49" s="4">
-        <v>1.65497896213183</v>
+        <v>1.93760262725779</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <v>1.46144229543575</v>
+        <v>0.69161214837224605</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>7.7485478417147</v>
+        <v>5.9078520215427703</v>
       </c>
       <c r="E50" s="4">
-        <v>0.62776799599018096</v>
+        <v>0.744900975465563</v>
       </c>
       <c r="F50" s="4">
-        <v>0.99746407438715101</v>
+        <v>1.43377885783718</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <v>1.45146279502069</v>
+        <v>1.3672102355186799</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>5.4385126040017502</v>
+        <v>5.88784017388988</v>
       </c>
       <c r="E51" s="4">
-        <v>1.22854682620262</v>
+        <v>0.392216838669048</v>
       </c>
       <c r="F51" s="4">
-        <v>1.3318284424379201</v>
+        <v>1.6643159379407599</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>1.4511042739570501</v>
+        <v>0.92580793862617194</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>8.1827832039654798</v>
+        <v>5.8790314952333098</v>
       </c>
       <c r="E52" s="4">
-        <v>0.75137837525221995</v>
+        <v>0.50667660553406402</v>
       </c>
       <c r="F52" s="4">
-        <v>1.3882352941176399</v>
+        <v>1.9218241042345201</v>
       </c>
       <c r="G52" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H52" s="4">
-        <v>1.44547155497791</v>
+        <v>2.0633882846853999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>6.1457171522367204</v>
+        <v>5.8777830834012104</v>
       </c>
       <c r="E53" s="4">
-        <v>1.4574149519978401</v>
+        <v>1.3271472451772901</v>
       </c>
       <c r="F53" s="4">
-        <v>0.921875</v>
+        <v>1.2016293279022401</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <v>1.4447062880394099</v>
+        <v>2.5457676532770699</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4">
-        <v>6.7651236814193902</v>
+        <v>5.8739036277311696</v>
       </c>
       <c r="E54" s="4">
-        <v>0.76631238031590199</v>
+        <v>0.12522972920870301</v>
       </c>
       <c r="F54" s="4">
-        <v>1.77177177177177</v>
+        <v>1.6457461645746101</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <v>1.43906511722634</v>
+        <v>1.03671210488761</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>5.4138289268598703</v>
+        <v>5.8478960830444304</v>
       </c>
       <c r="E55" s="4">
-        <v>0.66213420041383397</v>
+        <v>3.6098908866583499</v>
       </c>
       <c r="F55" s="4">
-        <v>1.23044838373305</v>
+        <v>2.13381555153707</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <v>1.4163489344922</v>
+        <v>4.1485277447492104</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4">
-        <v>6.0229389130386899</v>
+        <v>5.8382778965386999</v>
       </c>
       <c r="E56" s="4">
-        <v>0.25261859167962503</v>
+        <v>1.4141808788186401</v>
       </c>
       <c r="F56" s="4">
-        <v>1.65497896213183</v>
+        <v>1.86413902053712</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <v>1.3832242967444901</v>
+        <v>1.9514766069116201</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" s="4">
-        <v>7.7466685808114999</v>
+        <v>5.8334783666287899</v>
       </c>
       <c r="E57" s="4">
-        <v>0.75461707514554799</v>
+        <v>0.76253389710701802</v>
       </c>
       <c r="F57" s="4">
-        <v>1.3768961493582199</v>
+        <v>1.7797888386123599</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H57" s="4">
-        <v>1.3751177679442801</v>
+        <v>0.91202308361344397</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>5.9078520215427703</v>
+        <v>5.8248310455632</v>
       </c>
       <c r="E58" s="4">
-        <v>0.744900975465563</v>
+        <v>0.60638229510724995</v>
       </c>
       <c r="F58" s="4">
-        <v>1.43377885783718</v>
+        <v>1.66902404526166</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <v>1.3672102355186799</v>
+        <v>0.88911821765272703</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>529</v>
+        <v>633</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D59" s="4">
-        <v>10</v>
+        <v>5.8094379273401504</v>
       </c>
       <c r="E59" s="4">
-        <v>3.5573776812451001</v>
+        <v>6.1549846418794703</v>
       </c>
       <c r="F59" s="4">
-        <v>1.9063004846526601</v>
+        <v>2.3694779116465798</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="H59" s="4">
-        <v>1.3554695372530099</v>
+        <v>6.1829840882805902</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>8.5927748976109992</v>
+        <v>5.8065478682962501</v>
       </c>
       <c r="E60" s="4">
-        <v>0.621290596203524</v>
+        <v>0.73842357567890604</v>
       </c>
       <c r="F60" s="4">
-        <v>0.91402013942680105</v>
+        <v>1.2647374062165</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <v>1.3554695372530099</v>
+        <v>1.2563476624185499</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>5.4571749005911698</v>
+        <v>5.7994716985289001</v>
       </c>
       <c r="E61" s="4">
-        <v>1.2220694264159599</v>
+        <v>1.45093755221118</v>
       </c>
       <c r="F61" s="4">
-        <v>1.1883182275931501</v>
+        <v>0.85383502170767001</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <v>1.35504489847899</v>
+        <v>1.34751439955676</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="4">
-        <v>7.6647024849830601</v>
+        <v>5.7369613283909802</v>
       </c>
       <c r="E62" s="4">
-        <v>0.744900975465563</v>
+        <v>0.65565680062717702</v>
       </c>
       <c r="F62" s="4">
-        <v>1.2291666666666601</v>
+        <v>1.1048689138576699</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>1.3484202313783</v>
+        <v>1.3141594363498199</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="4">
-        <v>5.7994716985289001</v>
+        <v>5.7361844638872199</v>
       </c>
       <c r="E63" s="4">
-        <v>1.45093755221118</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>0.85383502170767001</v>
+        <v>0.97601323407774998</v>
       </c>
       <c r="G63" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H63" s="4">
-        <v>1.34751439955676</v>
+        <v>1.0999153737551199</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>7.5893839596480097</v>
+        <v>5.7213097220777804</v>
       </c>
       <c r="E64" s="4">
-        <v>1.4140523589816001</v>
+        <v>1.3291264506676601</v>
       </c>
       <c r="F64" s="4">
-        <v>1.8759936406995199</v>
+        <v>1.09665427509293</v>
       </c>
       <c r="G64" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H64" s="4">
-        <v>1.3408820126295899</v>
+        <v>1.25904196210335</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="4">
-        <v>7.6823512797943598</v>
+        <v>5.7187089642159998</v>
       </c>
       <c r="E65" s="4">
-        <v>0.75983498052924403</v>
+        <v>0.45560282229562099</v>
       </c>
       <c r="F65" s="4">
-        <v>1.5147625160462099</v>
+        <v>1.75334323922734</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>1.3408820126295899</v>
+        <v>0.53726712421705902</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="4">
-        <v>6.04216489791441</v>
+        <v>5.7144210461542597</v>
       </c>
       <c r="E66" s="4">
-        <v>1.2415016257759299</v>
+        <v>0.49228238378593703</v>
       </c>
       <c r="F66" s="4">
-        <v>1.75074183976261</v>
+        <v>1.4285714285714199</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>1.3247215973794899</v>
+        <v>2.0871855659916001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="4">
-        <v>5.7369613283909802</v>
+        <v>5.7052437150497202</v>
       </c>
       <c r="E67" s="4">
-        <v>0.65565680062717702</v>
+        <v>0.73194617589224897</v>
       </c>
       <c r="F67" s="4">
-        <v>1.1048689138576699</v>
+        <v>1.1313518696069</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>1.3141594363498199</v>
+        <v>1.12591980046047</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>0.91182977883738403</v>
+        <v>5.6954724368803298</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>1.3336246449639499</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>1.3516609392898</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>1.2960492790112701</v>
+        <v>1.23160821692725</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>5.4412099993492999</v>
+        <v>5.6834196706867903</v>
       </c>
       <c r="E69" s="4">
-        <v>0.75713606395147104</v>
+        <v>0.59990489532059299</v>
       </c>
       <c r="F69" s="4">
-        <v>1.77443609022556</v>
+        <v>1.4407814407814401</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <v>1.2864876170419901</v>
+        <v>0.69388650878218605</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="4">
-        <v>6.0292066010029304</v>
+        <v>5.6307786047333899</v>
       </c>
       <c r="E70" s="4">
-        <v>0.63190633474276703</v>
+        <v>7.7368941896181695E-2</v>
       </c>
       <c r="F70" s="4">
-        <v>1.9471947194719399</v>
+        <v>1.61865569272976</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>1.27518702614616</v>
+        <v>1.25904196210335</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" s="4">
-        <v>5.9354174980415602</v>
+        <v>5.6282146709823202</v>
       </c>
       <c r="E71" s="4">
-        <v>0.24614119189296799</v>
+        <v>0.12522972920870301</v>
       </c>
       <c r="F71" s="4">
-        <v>1.43377885783718</v>
+        <v>1.6457461645746101</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>1.27518702614616</v>
+        <v>1.03671210488761</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="4">
-        <v>5.5959818207868102</v>
+        <v>5.6039395618032</v>
       </c>
       <c r="E72" s="4">
-        <v>1.55068436813222</v>
+        <v>3.1831279157938002</v>
       </c>
       <c r="F72" s="4">
-        <v>1.9218241042345201</v>
+        <v>2.1033868092691601</v>
       </c>
       <c r="G72" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>1.25904196210335</v>
+        <v>3.6216992098726299</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="4">
-        <v>5.7213097220777804</v>
+        <v>5.5959818207868102</v>
       </c>
       <c r="E73" s="4">
-        <v>1.3291264506676601</v>
+        <v>1.55068436813222</v>
       </c>
       <c r="F73" s="4">
-        <v>1.09665427509293</v>
+        <v>1.9218241042345201</v>
       </c>
       <c r="G73" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H73" s="4">
         <v>1.25904196210335</v>
@@ -7608,184 +7608,184 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D74" s="4">
-        <v>7.4097638338703904</v>
+        <v>5.5547582269369498</v>
       </c>
       <c r="E74" s="4">
-        <v>0.41563315297716202</v>
+        <v>2.4415684560911899</v>
       </c>
       <c r="F74" s="4">
-        <v>1.4955640050697001</v>
+        <v>1.5902964959568699</v>
       </c>
       <c r="G74" s="4">
-        <v>0</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H74" s="4">
-        <v>1.25904196210335</v>
+        <v>1.7938018825373001</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D75" s="4">
-        <v>5.6307786047333899</v>
+        <v>5.5420082958103798</v>
       </c>
       <c r="E75" s="4">
-        <v>7.7368941896181695E-2</v>
+        <v>4.9851045508874297</v>
       </c>
       <c r="F75" s="4">
-        <v>1.61865569272976</v>
+        <v>1.9568822553897101</v>
       </c>
       <c r="G75" s="4">
-        <v>0</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="H75" s="4">
-        <v>1.25904196210335</v>
+        <v>4.5458897881403502</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>656</v>
+        <v>577</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" s="4">
-        <v>5.8065478682962501</v>
+        <v>5.5411372437830497</v>
       </c>
       <c r="E76" s="4">
-        <v>0.73842357567890604</v>
+        <v>0.26552198331812499</v>
       </c>
       <c r="F76" s="4">
-        <v>1.2647374062165</v>
+        <v>1.5128205128205101</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <v>1.2563476624185499</v>
+        <v>0.97903619775501705</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" s="4">
-        <v>7.1192761344516304</v>
+        <v>5.5131617903594501</v>
       </c>
       <c r="E77" s="4">
-        <v>0.439743474405274</v>
+        <v>3.5548381292652498</v>
       </c>
       <c r="F77" s="4">
-        <v>1.3409090909090899</v>
+        <v>1.5445026178010399</v>
       </c>
       <c r="G77" s="4">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H77" s="4">
-        <v>1.2563476624185499</v>
+        <v>3.56228617257434</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>5.4758371971806001</v>
+        <v>5.4944994937700198</v>
       </c>
       <c r="E78" s="4">
-        <v>1.2155920266293101</v>
+        <v>1.20911462684265</v>
       </c>
       <c r="F78" s="4">
-        <v>1.0727272727272701</v>
+        <v>0.97763048881524395</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <v>1.24203701534053</v>
+        <v>1.1090866129738399</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>543</v>
+        <v>629</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>7.1466217660006501</v>
+        <v>5.4758371971806001</v>
       </c>
       <c r="E79" s="4">
-        <v>0.73842357567890604</v>
+        <v>1.2155920266293101</v>
       </c>
       <c r="F79" s="4">
-        <v>1.10280373831775</v>
+        <v>1.0727272727272701</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>1.2342428147236799</v>
+        <v>1.24203701534053</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" s="4">
-        <v>7.4948693938860602</v>
+        <v>5.4571749005911698</v>
       </c>
       <c r="E80" s="4">
-        <v>0.32063128943952501</v>
+        <v>1.2220694264159599</v>
       </c>
       <c r="F80" s="4">
-        <v>1.41656662665066</v>
+        <v>1.1883182275931501</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <v>1.2342428147236799</v>
+        <v>1.35504489847899</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -7816,178 +7816,178 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>645</v>
+        <v>582</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>5.6954724368803298</v>
+        <v>5.4412099993492999</v>
       </c>
       <c r="E82" s="4">
-        <v>1.3336246449639499</v>
+        <v>0.75713606395147104</v>
       </c>
       <c r="F82" s="4">
-        <v>1.3516609392898</v>
+        <v>1.77443609022556</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <v>1.23160821692725</v>
+        <v>1.2864876170419901</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="4">
-        <v>6.7018040815953404</v>
+        <v>5.4385126040017502</v>
       </c>
       <c r="E83" s="4">
-        <v>1.2350242259892801</v>
+        <v>1.22854682620262</v>
       </c>
       <c r="F83" s="4">
-        <v>1.50702426564495</v>
+        <v>1.3318284424379201</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <v>1.20636163341614</v>
+        <v>1.4511042739570501</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>0.68387233412803805</v>
+        <v>5.4198503074123199</v>
       </c>
       <c r="E84" s="4">
-        <v>0.25477772494184397</v>
+        <v>1.2350242259892801</v>
       </c>
       <c r="F84" s="4">
-        <v>10</v>
+        <v>1.5147625160462099</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <v>1.17262781848421</v>
+        <v>1.53275634918504</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="4">
-        <v>5.0345239156541801</v>
+        <v>5.4138289268598703</v>
       </c>
       <c r="E85" s="4">
-        <v>0.75065866416481397</v>
+        <v>0.66213420041383397</v>
       </c>
       <c r="F85" s="4">
-        <v>1.51866151866151</v>
+        <v>1.23044838373305</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <v>1.1613776273654299</v>
+        <v>1.4163489344922</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>5.7052437150497202</v>
+        <v>5.4011880108229002</v>
       </c>
       <c r="E86" s="4">
-        <v>0.73194617589224897</v>
+        <v>1.2415016257759299</v>
       </c>
       <c r="F86" s="4">
-        <v>1.1313518696069</v>
+        <v>1.75595238095238</v>
       </c>
       <c r="G86" s="4">
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <v>1.12591980046047</v>
+        <v>1.6021567871560101</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4">
-        <v>6.3616078481274103</v>
+        <v>5.3825257142334797</v>
       </c>
       <c r="E87" s="4">
-        <v>0.43326607461861699</v>
+        <v>9.8739888701821101</v>
       </c>
       <c r="F87" s="4">
-        <v>1.19191919191919</v>
+        <v>2.0884955752212302</v>
       </c>
       <c r="G87" s="4">
-        <v>0</v>
+        <v>0.38461538461538403</v>
       </c>
       <c r="H87" s="4">
-        <v>1.12591980046047</v>
+        <v>8.5352138666467408</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>668</v>
+        <v>587</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>5.4944994937700198</v>
+        <v>5.3785791906934302</v>
       </c>
       <c r="E88" s="4">
-        <v>1.20911462684265</v>
+        <v>0.84836458507370605</v>
       </c>
       <c r="F88" s="4">
-        <v>0.97763048881524395</v>
+        <v>1.50510204081632</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
@@ -7998,48 +7998,48 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4">
-        <v>5.3342228883516896</v>
+        <v>5.3619085997386202</v>
       </c>
       <c r="E89" s="4">
-        <v>1.0072356668251701</v>
+        <v>0.71251397653227799</v>
       </c>
       <c r="F89" s="4">
-        <v>1.4372716199756299</v>
+        <v>1.0727272727272701</v>
       </c>
       <c r="G89" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H89" s="4">
-        <v>1.1090866129738399</v>
+        <v>2.3341581884788001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>5.3785791906934302</v>
+        <v>5.3342228883516896</v>
       </c>
       <c r="E90" s="4">
-        <v>0.84836458507370605</v>
+        <v>1.0072356668251701</v>
       </c>
       <c r="F90" s="4">
-        <v>1.50510204081632</v>
+        <v>1.4372716199756299</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
@@ -8050,464 +8050,464 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" s="4">
-        <v>6.6285410470182304</v>
+        <v>5.2439965910274102</v>
       </c>
       <c r="E91" s="4">
-        <v>0.73194617589224897</v>
+        <v>3.0173887339510799</v>
       </c>
       <c r="F91" s="4">
-        <v>0.999999999999999</v>
+        <v>1.76119402985074</v>
       </c>
       <c r="G91" s="4">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H91" s="4">
-        <v>1.0999153737551199</v>
+        <v>3.8972568824756602</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="4">
-        <v>6.8026648609609399</v>
+        <v>5.1552839863439299</v>
       </c>
       <c r="E92" s="4">
-        <v>0.314153889652868</v>
+        <v>2.59743731444948</v>
       </c>
       <c r="F92" s="4">
-        <v>1.2447257383966199</v>
+        <v>1.6643159379407599</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>1.0999153737551199</v>
+        <v>3.0272845332718599</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="4">
-        <v>5.7361844638872199</v>
+        <v>5.1069807911132497</v>
       </c>
       <c r="E93" s="4">
-        <v>0</v>
+        <v>3.2631700703003501</v>
       </c>
       <c r="F93" s="4">
-        <v>0.97601323407774998</v>
+        <v>1.8910256410256401</v>
       </c>
       <c r="G93" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H93" s="4">
-        <v>1.0999153737551199</v>
+        <v>2.5494623219107302</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4">
-        <v>4.4711422031944901</v>
+        <v>5.0906965253287604</v>
       </c>
       <c r="E94" s="4">
-        <v>1.4436890334023</v>
+        <v>3.25021527072703</v>
       </c>
       <c r="F94" s="4">
-        <v>1.80428134556574</v>
+        <v>1.3882352941176399</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <v>1.0745342484341101</v>
+        <v>2.7622537350276799</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>7.3614432652762698</v>
+        <v>5.0345239156541801</v>
       </c>
       <c r="E95" s="4">
-        <v>1.22854682620262</v>
+        <v>0.75065866416481397</v>
       </c>
       <c r="F95" s="4">
-        <v>1.3228699551569501</v>
+        <v>1.51866151866151</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <v>1.0671146156001301</v>
+        <v>1.1613776273654299</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4">
-        <v>2.87394318528324</v>
+        <v>4.8151516022085303</v>
       </c>
       <c r="E96" s="4">
-        <v>0.57324988111915098</v>
+        <v>3.25669267051369</v>
       </c>
       <c r="F96" s="4">
-        <v>1.3409090909090899</v>
+        <v>1.60108548168249</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <v>1.0550658890917799</v>
+        <v>2.6472339568048802</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="4">
-        <v>6.1798897201430201</v>
+        <v>4.6526532589679999</v>
       </c>
       <c r="E97" s="4">
-        <v>1.2760014908301001</v>
+        <v>0.56029508154583596</v>
       </c>
       <c r="F97" s="4">
-        <v>2.0068027210884298</v>
+        <v>1.0707803992740399</v>
       </c>
       <c r="G97" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H97" s="4">
-        <v>1.05472618069707</v>
+        <v>0.69388650878218605</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <v>5.6282146709823202</v>
+        <v>4.6311183810460603</v>
       </c>
       <c r="E98" s="4">
-        <v>0.12522972920870301</v>
+        <v>0.28212674626328499</v>
       </c>
       <c r="F98" s="4">
-        <v>1.6457461645746101</v>
+        <v>1.05924596050269</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <v>1.03671210488761</v>
+        <v>0.719532558613174</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D99" s="4">
-        <v>5.8739036277311696</v>
+        <v>4.6278378319590496</v>
       </c>
       <c r="E99" s="4">
-        <v>0.12522972920870301</v>
+        <v>6.1542854939659897</v>
       </c>
       <c r="F99" s="4">
-        <v>1.6457461645746101</v>
+        <v>2.4229979466119098</v>
       </c>
       <c r="G99" s="4">
-        <v>0</v>
+        <v>0.36363636363636298</v>
       </c>
       <c r="H99" s="4">
-        <v>1.03671210488761</v>
+        <v>7.8458140057512402</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="4">
-        <v>4.0736402186905396</v>
+        <v>4.4711422031944901</v>
       </c>
       <c r="E100" s="4">
-        <v>0.97160996799856103</v>
+        <v>1.4436890334023</v>
       </c>
       <c r="F100" s="4">
-        <v>1.65497896213183</v>
+        <v>1.80428134556574</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <v>1.0274261545680099</v>
+        <v>1.0745342484341101</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4">
-        <v>0.45591488941869102</v>
+        <v>4.4200441471499499</v>
       </c>
       <c r="E101" s="4">
-        <v>0.50523718335925105</v>
+        <v>0.77674819108329396</v>
       </c>
       <c r="F101" s="4">
-        <v>6.6666666666666599</v>
+        <v>1.9633943427620599</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <v>1.0274261545680099</v>
+        <v>1.8059893821181601</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="4">
-        <v>7.1429416141475297</v>
+        <v>4.3998803872497101</v>
       </c>
       <c r="E102" s="4">
-        <v>0.26233469135961102</v>
+        <v>0</v>
       </c>
       <c r="F102" s="4">
-        <v>1.73529411764705</v>
+        <v>1.96369636963696</v>
       </c>
       <c r="G102" s="4">
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <v>1.02063307376194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103" s="4">
-        <v>5.5411372437830497</v>
+        <v>4.2737992167302199</v>
       </c>
       <c r="E103" s="4">
-        <v>0.26552198331812499</v>
+        <v>1.43721163361564</v>
       </c>
       <c r="F103" s="4">
-        <v>1.5128205128205101</v>
+        <v>1.5384615384615301</v>
       </c>
       <c r="G103" s="4">
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <v>0.97903619775501705</v>
+        <v>0.91202308361344397</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" s="4">
-        <v>5.88784017388988</v>
+        <v>4.2718162719490902</v>
       </c>
       <c r="E104" s="4">
-        <v>0.392216838669048</v>
+        <v>0.24830032515518699</v>
       </c>
       <c r="F104" s="4">
-        <v>1.6643159379407599</v>
+        <v>1.77177177177177</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <v>0.92580793862617194</v>
+        <v>0.40422295391260399</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" s="4">
-        <v>4.2737992167302199</v>
+        <v>4.0736402186905396</v>
       </c>
       <c r="E105" s="4">
-        <v>1.43721163361564</v>
+        <v>0.97160996799856103</v>
       </c>
       <c r="F105" s="4">
-        <v>1.5384615384615301</v>
+        <v>1.65497896213183</v>
       </c>
       <c r="G105" s="4">
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <v>0.91202308361344397</v>
+        <v>1.0274261545680099</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>5.8334783666287899</v>
+        <v>4.0724903407036903</v>
       </c>
       <c r="E106" s="4">
-        <v>0.76253389710701802</v>
+        <v>3.5998097906411801</v>
       </c>
       <c r="F106" s="4">
-        <v>1.7797888386123599</v>
+        <v>2.12996389891696</v>
       </c>
       <c r="G106" s="4">
-        <v>3.3333333333333299</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H106" s="4">
-        <v>0.91202308361344397</v>
+        <v>3.6734715588222802</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s">
-        <v>642</v>
+        <v>548</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" s="4">
-        <v>8.0210824489572001</v>
+        <v>4.0111235625834798</v>
       </c>
       <c r="E107" s="4">
-        <v>1.2220694264159599</v>
+        <v>0.71899137631893495</v>
       </c>
       <c r="F107" s="4">
-        <v>1.17882117882117</v>
+        <v>1.19191919191919</v>
       </c>
       <c r="G107" s="4">
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <v>0.90329352851054301</v>
+        <v>2.2833481809524598</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" s="4">
-        <v>5.8248310455632</v>
+        <v>3.7632982221256199</v>
       </c>
       <c r="E108" s="4">
-        <v>0.60638229510724995</v>
+        <v>0.56677248133249303</v>
       </c>
       <c r="F108" s="4">
-        <v>1.66902404526166</v>
+        <v>1.19071644803229</v>
       </c>
       <c r="G108" s="4">
         <v>0</v>
@@ -8518,346 +8518,346 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>606</v>
+        <v>647</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="4">
-        <v>3.7632982221256199</v>
+        <v>3.6951536294533098</v>
       </c>
       <c r="E109" s="4">
-        <v>0.56677248133249303</v>
+        <v>3.0902543407574901</v>
       </c>
       <c r="F109" s="4">
-        <v>1.19071644803229</v>
+        <v>1.76646706586826</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <v>0.88911821765272703</v>
+        <v>3.2132410735999901</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>644</v>
+        <v>538</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" s="4">
-        <v>2.0368201093452698</v>
+        <v>2.87394318528324</v>
       </c>
       <c r="E110" s="4">
-        <v>0.96513256821190396</v>
+        <v>0.57324988111915098</v>
       </c>
       <c r="F110" s="4">
-        <v>1.43377885783718</v>
+        <v>1.3409090909090899</v>
       </c>
       <c r="G110" s="4">
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <v>0.85660210864973096</v>
+        <v>1.0550658890917799</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" s="4">
-        <v>0.22795744470934501</v>
+        <v>2.66033852542833</v>
       </c>
       <c r="E111" s="4">
-        <v>0.75137837525221995</v>
+        <v>0.91439293654975595</v>
       </c>
       <c r="F111" s="4">
-        <v>5</v>
+        <v>1.3409090909090899</v>
       </c>
       <c r="G111" s="4">
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <v>0.85660210864973096</v>
+        <v>3.6764135971626799</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" s="4">
-        <v>4.6311183810460603</v>
+        <v>2.0368201093452698</v>
       </c>
       <c r="E112" s="4">
-        <v>0.28212674626328499</v>
+        <v>0.96513256821190396</v>
       </c>
       <c r="F112" s="4">
-        <v>1.05924596050269</v>
+        <v>1.43377885783718</v>
       </c>
       <c r="G112" s="4">
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <v>0.719532558613174</v>
+        <v>0.85660210864973096</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>605</v>
+        <v>523</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" s="4">
-        <v>8.6807216326381305</v>
+        <v>1.9845881484408601</v>
       </c>
       <c r="E113" s="4">
-        <v>1.2155920266293101</v>
+        <v>1.74889794239741</v>
       </c>
       <c r="F113" s="4">
-        <v>1.06306306306306</v>
+        <v>1.5344603381014299</v>
       </c>
       <c r="G113" s="4">
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <v>0.71056255484489805</v>
+        <v>4.6203927757121903</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4">
-        <v>5.6834196706867903</v>
+        <v>1.6728528024441001</v>
       </c>
       <c r="E114" s="4">
-        <v>0.59990489532059299</v>
+        <v>1.95401560230821</v>
       </c>
       <c r="F114" s="4">
-        <v>1.4407814407814401</v>
+        <v>1.17179741807348</v>
       </c>
       <c r="G114" s="4">
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <v>0.69388650878218605</v>
+        <v>1.6048058476115701</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="4">
-        <v>4.6526532589679999</v>
+        <v>1.4311044424037</v>
       </c>
       <c r="E115" s="4">
-        <v>0.56029508154583596</v>
+        <v>1.4165764885810099</v>
       </c>
       <c r="F115" s="4">
-        <v>1.0707803992740399</v>
+        <v>1.65034965034965</v>
       </c>
       <c r="G115" s="4">
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <v>0.69388650878218605</v>
+        <v>3.2132410735999901</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="4">
-        <v>5.9193222641715399</v>
+        <v>0.91182977883738403</v>
       </c>
       <c r="E116" s="4">
-        <v>0.103998252130216</v>
+        <v>0</v>
       </c>
       <c r="F116" s="4">
-        <v>1.93760262725779</v>
+        <v>0</v>
       </c>
       <c r="G116" s="4">
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <v>0.69161214837224605</v>
+        <v>1.2960492790112701</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B117" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="4">
-        <v>5.7187089642159998</v>
+        <v>0.68387233412803805</v>
       </c>
       <c r="E117" s="4">
-        <v>0.45560282229562099</v>
+        <v>0.25477772494184397</v>
       </c>
       <c r="F117" s="4">
-        <v>1.75334323922734</v>
+        <v>10</v>
       </c>
       <c r="G117" s="4">
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <v>0.53726712421705902</v>
+        <v>1.17262781848421</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="4">
-        <v>9.3403608163190697</v>
+        <v>0.67641656012928297</v>
       </c>
       <c r="E118" s="4">
-        <v>1.20911462684265</v>
+        <v>1.42305388836766</v>
       </c>
       <c r="F118" s="4">
-        <v>0.96800656275635699</v>
+        <v>1.9633943427620599</v>
       </c>
       <c r="G118" s="4">
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <v>0.48382093167356399</v>
+        <v>3.0305670180731799</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" s="4">
-        <v>6.1740433119851703</v>
+        <v>0.45591488941869102</v>
       </c>
       <c r="E119" s="4">
-        <v>0.30695677877880401</v>
+        <v>0.50523718335925105</v>
       </c>
       <c r="F119" s="4">
-        <v>1.33938706015891</v>
+        <v>6.6666666666666599</v>
       </c>
       <c r="G119" s="4">
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <v>0.40422295391260399</v>
+        <v>1.0274261545680099</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>648</v>
+        <v>591</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" s="4">
-        <v>4.2718162719490902</v>
+        <v>0.22795744470934501</v>
       </c>
       <c r="E120" s="4">
-        <v>0.24830032515518699</v>
+        <v>0.75137837525221995</v>
       </c>
       <c r="F120" s="4">
-        <v>1.77177177177177</v>
+        <v>5</v>
       </c>
       <c r="G120" s="4">
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <v>0.40422295391260399</v>
+        <v>0.85660210864973096</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="4">
-        <v>4.3998803872497101</v>
+        <v>0</v>
       </c>
       <c r="E121" s="4">
-        <v>0</v>
+        <v>1.9604930020948701</v>
       </c>
       <c r="F121" s="4">
-        <v>1.96369636963696</v>
+        <v>1.3154960981047901</v>
       </c>
       <c r="G121" s="4">
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <v>0</v>
+        <v>1.6634003226293901</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I121" xr:uid="{EC5D1EED-4380-4FB7-92FB-CDD1B707814B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I121">
-      <sortCondition descending="1" ref="H1:H121"/>
+      <sortCondition descending="1" ref="D1:D121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15983,7 +15983,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18613,7 +18613,7 @@
   <dimension ref="A1:H441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21454,28 +21454,28 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>1153</v>
+        <v>933</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>6.8111070824037103</v>
+        <v>6.5539256580061203</v>
       </c>
       <c r="E110">
         <v>0.118402070646804</v>
       </c>
       <c r="F110">
-        <v>2.95469912102772</v>
+        <v>2.5736160188457</v>
       </c>
       <c r="G110">
-        <v>1.6666666666666601</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0.31188446960358301</v>
+        <v>0.18121043747791299</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -21506,28 +21506,28 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>933</v>
+        <v>1153</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>6.5539256580061203</v>
+        <v>6.8111070824037103</v>
       </c>
       <c r="E112">
         <v>0.118402070646804</v>
       </c>
       <c r="F112">
-        <v>2.5736160188457</v>
+        <v>2.95469912102772</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H112">
-        <v>0.18121043747791299</v>
+        <v>0.31188446960358301</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -21558,54 +21558,54 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>1171</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>6.7539794622045699</v>
+        <v>6.6718137436942797</v>
       </c>
       <c r="E114">
         <v>0.11649893747911701</v>
       </c>
       <c r="F114">
-        <v>1.8516949152542299</v>
+        <v>2.0506804317221898</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0.16394701375783999</v>
+        <v>0.15177859020062601</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="B115" t="s">
-        <v>1171</v>
+        <v>71</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>6.6718137436942797</v>
+        <v>6.7539794622045699</v>
       </c>
       <c r="E115">
         <v>0.11649893747911701</v>
       </c>
       <c r="F115">
-        <v>2.0506804317221898</v>
+        <v>1.8516949152542299</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0.15177859020062601</v>
+        <v>0.16394701375783999</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -21714,54 +21714,54 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>1193</v>
+        <v>81</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>6.7897018293824303</v>
+        <v>6.7823100542555199</v>
       </c>
       <c r="E120">
         <v>0.11459580431143</v>
       </c>
       <c r="F120">
-        <v>1.7043681747269801</v>
+        <v>1.5663082437275899</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0.117153317992287</v>
+        <v>0.13147051740858501</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>1193</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>6.7823100542555199</v>
+        <v>6.7897018293824303</v>
       </c>
       <c r="E121">
         <v>0.11459580431143</v>
       </c>
       <c r="F121">
-        <v>1.5663082437275899</v>
+        <v>1.7043681747269801</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0.13147051740858501</v>
+        <v>0.117153317992287</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -23274,22 +23274,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>174</v>
+        <v>434</v>
       </c>
       <c r="B180" t="s">
-        <v>1025</v>
+        <v>1226</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>7.1125220336390997</v>
+        <v>6.6407275585701697</v>
       </c>
       <c r="E180">
         <v>6.4738168078129807E-2</v>
       </c>
       <c r="F180">
-        <v>1.9631626235399799</v>
+        <v>2.6230492196878701</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -23300,22 +23300,22 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>434</v>
+        <v>174</v>
       </c>
       <c r="B181" t="s">
-        <v>1226</v>
+        <v>1025</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>6.6407275585701697</v>
+        <v>7.1125220336390997</v>
       </c>
       <c r="E181">
         <v>6.4738168078129807E-2</v>
       </c>
       <c r="F181">
-        <v>2.6230492196878701</v>
+        <v>1.9631626235399799</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -24080,210 +24080,210 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B211" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6.9181077805010096</v>
+        <v>6.5576284011032202</v>
       </c>
       <c r="E211">
         <v>5.9269004365105203E-2</v>
       </c>
       <c r="F211">
-        <v>2.9250334672021401</v>
+        <v>2.5736160188457</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0.165766478293119</v>
+        <v>0.16327133565206101</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
+        <v>1109</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6.9181077805010096</v>
+        <v>6.7663127984833702</v>
       </c>
       <c r="E212">
         <v>5.9269004365105203E-2</v>
       </c>
       <c r="F212">
-        <v>2.9250334672021401</v>
+        <v>2.9230769230769198</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>0.165766478293119</v>
+        <v>0.15465801305426899</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="B213" t="s">
-        <v>1165</v>
+        <v>1022</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>6.8719966296049702</v>
+        <v>6.8003867676629399</v>
       </c>
       <c r="E213">
         <v>5.9269004365105203E-2</v>
       </c>
       <c r="F213">
-        <v>2.6183343319352899</v>
+        <v>2.9230769230769198</v>
       </c>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213">
-        <v>0.16327133565206101</v>
+        <v>0.155745144956149</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="B214" t="s">
-        <v>1022</v>
+        <v>1165</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>6.8003867676629399</v>
+        <v>6.8719966296049702</v>
       </c>
       <c r="E214">
         <v>5.9269004365105203E-2</v>
       </c>
       <c r="F214">
-        <v>2.9230769230769198</v>
+        <v>2.6183343319352899</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0.155745144956149</v>
+        <v>0.16327133565206101</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>1109</v>
+        <v>930</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6.7663127984833702</v>
+        <v>6.9181077805010096</v>
       </c>
       <c r="E215">
         <v>5.9269004365105203E-2</v>
       </c>
       <c r="F215">
-        <v>2.9230769230769198</v>
+        <v>2.9250334672021401</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0.15465801305426899</v>
+        <v>0.165766478293119</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B216" t="s">
-        <v>910</v>
+        <v>28</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>6.5576284011032202</v>
+        <v>6.9181077805010096</v>
       </c>
       <c r="E216">
         <v>5.9269004365105203E-2</v>
       </c>
       <c r="F216">
-        <v>2.5736160188457</v>
+        <v>2.9250334672021401</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0.16327133565206101</v>
+        <v>0.165766478293119</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s">
-        <v>64</v>
+        <v>1224</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>7.0424295098805203</v>
+        <v>6.6060001032027902</v>
       </c>
       <c r="E217">
         <v>5.9269004365105099E-2</v>
       </c>
       <c r="F217">
-        <v>2.4413407821229001</v>
+        <v>2.3109465891062899</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0.238870332755929</v>
+        <v>0.15024143796615799</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>430</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>1224</v>
+        <v>64</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>6.6060001032027902</v>
+        <v>7.0424295098805203</v>
       </c>
       <c r="E218">
         <v>5.9269004365105099E-2</v>
       </c>
       <c r="F218">
-        <v>2.3109465891062899</v>
+        <v>2.4413407821229001</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0.15024143796615799</v>
+        <v>0.238870332755929</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -24522,210 +24522,210 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="B228" t="s">
-        <v>83</v>
+        <v>925</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>7.25264769919883</v>
+        <v>6.6792192298884796</v>
       </c>
       <c r="E228">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F228">
-        <v>1.9649280575539501</v>
+        <v>2.0506804317221898</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0.2196147079162</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B229" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>7.03540550232829</v>
+        <v>6.6998431144562502</v>
       </c>
       <c r="E229">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F229">
-        <v>2.2677737415672001</v>
+        <v>1.88118811881188</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0.13360930787734801</v>
+        <v>0.11534470529115499</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="B230" t="s">
-        <v>68</v>
+        <v>1170</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>7.03540550232829</v>
+        <v>6.7318155382930103</v>
       </c>
       <c r="E230">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F230">
-        <v>2.2677737415672001</v>
+        <v>2.2654224987039902</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>0.13360930787734801</v>
+        <v>0.120540512781215</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>1130</v>
+        <v>1073</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6.8364033441393497</v>
+        <v>6.7999634766521497</v>
       </c>
       <c r="E231">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F231">
-        <v>2.0789724072312001</v>
+        <v>2.2654224987039902</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
       <c r="H231">
-        <v>0.130674032125669</v>
+        <v>0.12181997308641999</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="B232" t="s">
-        <v>1073</v>
+        <v>1130</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>6.7999634766521497</v>
+        <v>6.8364033441393497</v>
       </c>
       <c r="E232">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F232">
-        <v>2.2654224987039902</v>
+        <v>2.0789724072312001</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>0.12181997308641999</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>361</v>
+        <v>258</v>
       </c>
       <c r="B233" t="s">
-        <v>1170</v>
+        <v>1085</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6.7318155382930103</v>
+        <v>7.03540550232829</v>
       </c>
       <c r="E233">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F233">
-        <v>2.2654224987039902</v>
+        <v>2.2677737415672001</v>
       </c>
       <c r="G233">
         <v>0</v>
       </c>
       <c r="H233">
-        <v>0.120540512781215</v>
+        <v>0.13360930787734801</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="B234" t="s">
-        <v>1071</v>
+        <v>68</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>6.6998431144562502</v>
+        <v>7.03540550232829</v>
       </c>
       <c r="E234">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F234">
-        <v>1.88118811881188</v>
+        <v>2.2677737415672001</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>0.11534470529115499</v>
+        <v>0.13360930787734801</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="B235" t="s">
-        <v>925</v>
+        <v>83</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>6.6792192298884796</v>
+        <v>7.25264769919883</v>
       </c>
       <c r="E235">
         <v>5.7365871197418303E-2</v>
       </c>
       <c r="F235">
-        <v>2.0506804317221898</v>
+        <v>1.9649280575539501</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>0.130674032125669</v>
+        <v>0.2196147079162</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -27122,25 +27122,25 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="B328" t="s">
-        <v>988</v>
+        <v>1064</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D328">
-        <v>9.0225352935952294</v>
+        <v>6.9592723597223802</v>
       </c>
       <c r="E328">
         <v>1.8280298736593498E-2</v>
       </c>
       <c r="F328">
-        <v>2.3183023872679001</v>
+        <v>2.7763659466327799</v>
       </c>
       <c r="G328">
-        <v>10</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H328">
         <v>0.117153317992287</v>
@@ -27200,25 +27200,25 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="B331" t="s">
-        <v>1064</v>
+        <v>988</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D331">
-        <v>6.9592723597223802</v>
+        <v>9.0225352935952294</v>
       </c>
       <c r="E331">
         <v>1.8280298736593498E-2</v>
       </c>
       <c r="F331">
-        <v>2.7763659466327799</v>
+        <v>2.3183023872679001</v>
       </c>
       <c r="G331">
-        <v>3.3333333333333299</v>
+        <v>10</v>
       </c>
       <c r="H331">
         <v>0.117153317992287</v>
@@ -28942,516 +28942,516 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B398" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D398">
-        <v>10</v>
+        <v>4.0733679409716501</v>
       </c>
       <c r="E398">
         <v>0</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>2.3596112311015101</v>
       </c>
       <c r="G398">
-        <v>0</v>
+        <v>6.6666666666666599</v>
       </c>
       <c r="H398">
-        <v>0.13782125861491701</v>
+        <v>0.117153317992287</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B399" t="s">
-        <v>955</v>
+        <v>911</v>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
       <c r="D399">
-        <v>9.6241583771400201</v>
+        <v>5.7227642089988304</v>
       </c>
       <c r="E399">
         <v>0</v>
       </c>
       <c r="F399">
-        <v>0</v>
+        <v>2.61648745519713</v>
       </c>
       <c r="G399">
         <v>0</v>
       </c>
       <c r="H399">
-        <v>0.153020408410418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>429</v>
+        <v>176</v>
       </c>
       <c r="B400" t="s">
-        <v>1223</v>
+        <v>1027</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400">
-        <v>9.0694690060202703</v>
+        <v>5.7227642089988304</v>
       </c>
       <c r="E400">
         <v>0</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>2.61648745519713</v>
       </c>
       <c r="G400">
         <v>0</v>
       </c>
       <c r="H400">
-        <v>0.203546311136512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="B401" t="s">
-        <v>956</v>
+        <v>1094</v>
       </c>
       <c r="C401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D401">
-        <v>9.0669696902461805</v>
+        <v>6.4360375723179697</v>
       </c>
       <c r="E401">
         <v>0</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>2.5690770135214498</v>
       </c>
       <c r="G401">
         <v>0</v>
       </c>
       <c r="H401">
-        <v>0.30931602610853898</v>
+        <v>0.12039406781138499</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="B402" t="s">
-        <v>1225</v>
+        <v>1140</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
       <c r="D402">
-        <v>8.3375289302273305</v>
+        <v>6.4488461687317704</v>
       </c>
       <c r="E402">
         <v>0</v>
       </c>
       <c r="F402">
-        <v>0</v>
+        <v>2.5736160188457</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H402">
-        <v>0.13360930787734801</v>
+        <v>9.5193819157351506E-2</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="B403" t="s">
-        <v>932</v>
+        <v>1175</v>
       </c>
       <c r="C403">
         <v>1</v>
       </c>
       <c r="D403">
-        <v>8.1952043922390203</v>
+        <v>6.6564835753115297</v>
       </c>
       <c r="E403">
         <v>0</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>2.30850501848917</v>
       </c>
       <c r="G403">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H403">
-        <v>0.120132894718744</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="B404" t="s">
-        <v>915</v>
+        <v>1101</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
       <c r="D404">
-        <v>8.1540484080137308</v>
+        <v>6.6718137436942797</v>
       </c>
       <c r="E404">
         <v>0</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H404">
-        <v>0.10716894213907301</v>
+        <v>0.12039406781138499</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="B405" t="s">
-        <v>985</v>
+        <v>1111</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
       <c r="D405">
-        <v>8.1242793673904092</v>
+        <v>6.6718137436942797</v>
       </c>
       <c r="E405">
         <v>0</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G405">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H405">
-        <v>0.150696829586284</v>
+        <v>0.12039406781138499</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="B406" t="s">
-        <v>1012</v>
+        <v>1156</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
       <c r="D406">
-        <v>8.1242793673904092</v>
+        <v>6.6718137436942797</v>
       </c>
       <c r="E406">
         <v>0</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G406">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H406">
-        <v>0.150696829586284</v>
+        <v>0.12039406781138499</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B407" t="s">
-        <v>54</v>
+        <v>1112</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
       <c r="D407">
-        <v>7.6464804712173402</v>
+        <v>6.7554271142611997</v>
       </c>
       <c r="E407">
         <v>0</v>
       </c>
       <c r="F407">
-        <v>0</v>
+        <v>2.9250334672021401</v>
       </c>
       <c r="G407">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H407">
-        <v>9.5193819157351506E-2</v>
+        <v>0.12285821178733899</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B408" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
       <c r="D408">
-        <v>7.6208632783897299</v>
+        <v>6.8001751221575502</v>
       </c>
       <c r="E408">
         <v>0</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>2.2724908996359798</v>
       </c>
       <c r="G408">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H408">
-        <v>0.12039406781138499</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="B409" t="s">
-        <v>1093</v>
+        <v>928</v>
       </c>
       <c r="C409">
         <v>1</v>
       </c>
       <c r="D409">
-        <v>7.4723906166001797</v>
+        <v>6.8008100586737399</v>
       </c>
       <c r="E409">
         <v>0</v>
       </c>
       <c r="F409">
-        <v>2.6167664670658599</v>
+        <v>2.9191716766867</v>
       </c>
       <c r="G409">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H409">
-        <v>0.249411591582089</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="B410" t="s">
-        <v>1167</v>
+        <v>950</v>
       </c>
       <c r="C410">
         <v>1</v>
       </c>
       <c r="D410">
-        <v>7.4636064690204096</v>
+        <v>6.8008100586737399</v>
       </c>
       <c r="E410">
         <v>0</v>
       </c>
       <c r="F410">
-        <v>2.0535714285714199</v>
+        <v>2.9191716766867</v>
       </c>
       <c r="G410">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H410">
-        <v>0.120540512781215</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="B411" t="s">
-        <v>996</v>
+        <v>1052</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411">
-        <v>7.4190006884017503</v>
+        <v>6.8089381469202799</v>
       </c>
       <c r="E411">
         <v>0</v>
       </c>
       <c r="F411">
-        <v>2.32076473712161</v>
+        <v>2.01289728235836</v>
       </c>
       <c r="G411">
         <v>10</v>
       </c>
       <c r="H411">
-        <v>0.130674032125669</v>
+        <v>0.120540512781215</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B412" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
       <c r="D412">
-        <v>7.3704753368967797</v>
+        <v>6.8204126137970098</v>
       </c>
       <c r="E412">
         <v>0</v>
       </c>
       <c r="F412">
-        <v>1.8844329452350099</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G412">
         <v>10</v>
       </c>
       <c r="H412">
-        <v>0.117153317992287</v>
+        <v>0.126085627288823</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B413" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="C413">
         <v>1</v>
       </c>
       <c r="D413">
-        <v>7.3083407539540097</v>
+        <v>6.8371916652944797</v>
       </c>
       <c r="E413">
         <v>0</v>
       </c>
       <c r="F413">
-        <v>2.0779838326200601</v>
+        <v>2.4130314743235699</v>
       </c>
       <c r="G413">
         <v>10</v>
       </c>
       <c r="H413">
-        <v>0.13302012317300299</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B414" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="C414">
         <v>1</v>
       </c>
       <c r="D414">
-        <v>7.1537516768539096</v>
+        <v>6.8528922962387204</v>
       </c>
       <c r="E414">
         <v>0</v>
       </c>
       <c r="F414">
-        <v>1.8595744680851001</v>
+        <v>2.4413407821229001</v>
       </c>
       <c r="G414">
         <v>10</v>
       </c>
       <c r="H414">
-        <v>0.117153317992287</v>
+        <v>0.15071668100725699</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="B415" t="s">
-        <v>1081</v>
+        <v>949</v>
       </c>
       <c r="C415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D415">
-        <v>7.0930064669673696</v>
+        <v>6.8541999868721604</v>
       </c>
       <c r="E415">
         <v>0</v>
       </c>
       <c r="F415">
-        <v>2.6183343319352899</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G415">
         <v>10</v>
       </c>
       <c r="H415">
-        <v>0.17020865060534601</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="B416" t="s">
-        <v>959</v>
+        <v>1128</v>
       </c>
       <c r="C416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D416">
-        <v>7.05867002329407</v>
+        <v>6.8541999868721604</v>
       </c>
       <c r="E416">
         <v>0</v>
       </c>
       <c r="F416">
-        <v>2.2607346094154099</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G416">
-        <v>6.6666666666666599</v>
+        <v>10</v>
       </c>
       <c r="H416">
-        <v>0.24693478405801</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>118</v>
+        <v>346</v>
       </c>
       <c r="B417" t="s">
-        <v>986</v>
+        <v>1161</v>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
       <c r="D417">
-        <v>7.0310521526703003</v>
+        <v>6.8541999868721604</v>
       </c>
       <c r="E417">
         <v>0</v>
       </c>
       <c r="F417">
-        <v>2.2963741460851201</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G417">
         <v>10</v>
@@ -29462,126 +29462,126 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="B418" t="s">
-        <v>2</v>
+        <v>1086</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
       <c r="D418">
-        <v>6.9682806035370497</v>
+        <v>6.8851178007575804</v>
       </c>
       <c r="E418">
         <v>0</v>
       </c>
       <c r="F418">
-        <v>2.6167664670658599</v>
+        <v>2.2364380757420599</v>
       </c>
       <c r="G418">
         <v>10</v>
       </c>
       <c r="H418">
-        <v>0.13111327791819</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B419" t="s">
-        <v>902</v>
+        <v>980</v>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
       <c r="D419">
-        <v>6.9235217881946198</v>
+        <v>6.9075899150705897</v>
       </c>
       <c r="E419">
         <v>0</v>
       </c>
       <c r="F419">
-        <v>2.6183343319352899</v>
+        <v>2.6136363636363602</v>
       </c>
       <c r="G419">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H419">
-        <v>0.150696829586284</v>
+        <v>0.117153317992287</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B420" t="s">
-        <v>980</v>
+        <v>902</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420">
-        <v>6.9075899150705897</v>
+        <v>6.9235217881946198</v>
       </c>
       <c r="E420">
         <v>0</v>
       </c>
       <c r="F420">
-        <v>2.6136363636363602</v>
+        <v>2.6183343319352899</v>
       </c>
       <c r="G420">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H420">
-        <v>0.117153317992287</v>
+        <v>0.150696829586284</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="B421" t="s">
-        <v>1086</v>
+        <v>2</v>
       </c>
       <c r="C421">
         <v>1</v>
       </c>
       <c r="D421">
-        <v>6.8851178007575804</v>
+        <v>6.9682806035370497</v>
       </c>
       <c r="E421">
         <v>0</v>
       </c>
       <c r="F421">
-        <v>2.2364380757420599</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G421">
         <v>10</v>
       </c>
       <c r="H421">
-        <v>0.130674032125669</v>
+        <v>0.13111327791819</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B422" t="s">
-        <v>949</v>
+        <v>986</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422">
-        <v>6.8541999868721604</v>
+        <v>7.0310521526703003</v>
       </c>
       <c r="E422">
         <v>0</v>
       </c>
       <c r="F422">
-        <v>2.6167664670658599</v>
+        <v>2.2963741460851201</v>
       </c>
       <c r="G422">
         <v>10</v>
@@ -29592,500 +29592,504 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="B423" t="s">
-        <v>1128</v>
+        <v>959</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D423">
-        <v>6.8541999868721604</v>
+        <v>7.05867002329407</v>
       </c>
       <c r="E423">
         <v>0</v>
       </c>
       <c r="F423">
-        <v>2.6167664670658599</v>
+        <v>2.2607346094154099</v>
       </c>
       <c r="G423">
-        <v>10</v>
+        <v>6.6666666666666599</v>
       </c>
       <c r="H423">
-        <v>0.130674032125669</v>
+        <v>0.24693478405801</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="B424" t="s">
-        <v>1161</v>
+        <v>1081</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D424">
-        <v>6.8541999868721604</v>
+        <v>7.0930064669673696</v>
       </c>
       <c r="E424">
         <v>0</v>
       </c>
       <c r="F424">
-        <v>2.6167664670658599</v>
+        <v>2.6183343319352899</v>
       </c>
       <c r="G424">
         <v>10</v>
       </c>
       <c r="H424">
-        <v>0.130674032125669</v>
+        <v>0.17020865060534601</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B425" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425">
-        <v>6.8528922962387204</v>
+        <v>7.1537516768539096</v>
       </c>
       <c r="E425">
         <v>0</v>
       </c>
       <c r="F425">
-        <v>2.4413407821229001</v>
+        <v>1.8595744680851001</v>
       </c>
       <c r="G425">
         <v>10</v>
       </c>
       <c r="H425">
-        <v>0.15071668100725699</v>
+        <v>0.117153317992287</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B426" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
       <c r="D426">
-        <v>6.8371916652944797</v>
+        <v>7.3083407539540097</v>
       </c>
       <c r="E426">
         <v>0</v>
       </c>
       <c r="F426">
-        <v>2.4130314743235699</v>
+        <v>2.0779838326200601</v>
       </c>
       <c r="G426">
         <v>10</v>
       </c>
       <c r="H426">
-        <v>0.130674032125669</v>
+        <v>0.13302012317300299</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="B427" t="s">
-        <v>1031</v>
+        <v>927</v>
       </c>
       <c r="C427">
         <v>1</v>
       </c>
       <c r="D427">
-        <v>6.8204126137970098</v>
+        <v>7.3704753368967797</v>
       </c>
       <c r="E427">
         <v>0</v>
       </c>
       <c r="F427">
-        <v>2.6167664670658599</v>
+        <v>1.8844329452350099</v>
       </c>
       <c r="G427">
         <v>10</v>
       </c>
       <c r="H427">
-        <v>0.126085627288823</v>
+        <v>0.117153317992287</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="B428" t="s">
-        <v>1052</v>
+        <v>996</v>
       </c>
       <c r="C428">
         <v>1</v>
       </c>
       <c r="D428">
-        <v>6.8089381469202799</v>
+        <v>7.4190006884017503</v>
       </c>
       <c r="E428">
         <v>0</v>
       </c>
       <c r="F428">
-        <v>2.01289728235836</v>
+        <v>2.32076473712161</v>
       </c>
       <c r="G428">
         <v>10</v>
       </c>
       <c r="H428">
-        <v>0.120540512781215</v>
+        <v>0.130674032125669</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="B429" t="s">
-        <v>928</v>
+        <v>1167</v>
       </c>
       <c r="C429">
         <v>1</v>
       </c>
       <c r="D429">
-        <v>6.8008100586737399</v>
+        <v>7.4636064690204096</v>
       </c>
       <c r="E429">
         <v>0</v>
       </c>
       <c r="F429">
-        <v>2.9191716766867</v>
+        <v>2.0535714285714199</v>
       </c>
       <c r="G429">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H429">
-        <v>0.130674032125669</v>
+        <v>0.120540512781215</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="B430" t="s">
-        <v>950</v>
+        <v>1093</v>
       </c>
       <c r="C430">
         <v>1</v>
       </c>
       <c r="D430">
-        <v>6.8008100586737399</v>
+        <v>7.4723906166001797</v>
       </c>
       <c r="E430">
         <v>0</v>
       </c>
       <c r="F430">
-        <v>2.9191716766867</v>
+        <v>2.6167664670658599</v>
       </c>
       <c r="G430">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H430">
-        <v>0.130674032125669</v>
+        <v>0.249411591582089</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B431" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C431">
         <v>1</v>
       </c>
       <c r="D431">
-        <v>6.8001751221575502</v>
+        <v>7.6208632783897299</v>
       </c>
       <c r="E431">
         <v>0</v>
       </c>
       <c r="F431">
-        <v>2.2724908996359798</v>
+        <v>0</v>
       </c>
       <c r="G431">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H431">
-        <v>0.130674032125669</v>
+        <v>0.12039406781138499</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="B432" t="s">
-        <v>1112</v>
+        <v>54</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
       <c r="D432">
-        <v>6.7554271142611997</v>
+        <v>7.6464804712173402</v>
       </c>
       <c r="E432">
         <v>0</v>
       </c>
       <c r="F432">
-        <v>2.9250334672021401</v>
+        <v>0</v>
       </c>
       <c r="G432">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H432">
-        <v>0.12285821178733899</v>
+        <v>9.5193819157351506E-2</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="B433" t="s">
-        <v>1101</v>
+        <v>985</v>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433">
-        <v>6.6718137436942797</v>
+        <v>8.1242793673904092</v>
       </c>
       <c r="E433">
         <v>0</v>
       </c>
       <c r="F433">
-        <v>2.6167664670658599</v>
+        <v>0</v>
       </c>
       <c r="G433">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H433">
-        <v>0.12039406781138499</v>
+        <v>0.150696829586284</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="B434" t="s">
-        <v>1111</v>
+        <v>1012</v>
       </c>
       <c r="C434">
         <v>1</v>
       </c>
       <c r="D434">
-        <v>6.6718137436942797</v>
+        <v>8.1242793673904092</v>
       </c>
       <c r="E434">
         <v>0</v>
       </c>
       <c r="F434">
-        <v>2.6167664670658599</v>
+        <v>0</v>
       </c>
       <c r="G434">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H434">
-        <v>0.12039406781138499</v>
+        <v>0.150696829586284</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>341</v>
+        <v>24</v>
       </c>
       <c r="B435" t="s">
-        <v>1156</v>
+        <v>915</v>
       </c>
       <c r="C435">
         <v>1</v>
       </c>
       <c r="D435">
-        <v>6.6718137436942797</v>
+        <v>8.1540484080137308</v>
       </c>
       <c r="E435">
         <v>0</v>
       </c>
       <c r="F435">
-        <v>2.6167664670658599</v>
+        <v>0</v>
       </c>
       <c r="G435">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H435">
-        <v>0.12039406781138499</v>
+        <v>0.10716894213907301</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>368</v>
+        <v>48</v>
       </c>
       <c r="B436" t="s">
-        <v>1175</v>
+        <v>932</v>
       </c>
       <c r="C436">
         <v>1</v>
       </c>
       <c r="D436">
-        <v>6.6564835753115297</v>
+        <v>8.1952043922390203</v>
       </c>
       <c r="E436">
         <v>0</v>
       </c>
       <c r="F436">
-        <v>2.30850501848917</v>
+        <v>0</v>
       </c>
       <c r="G436">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H436">
-        <v>0.130674032125669</v>
+        <v>0.120132894718744</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>324</v>
+        <v>431</v>
       </c>
       <c r="B437" t="s">
-        <v>1140</v>
+        <v>1225</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437">
-        <v>6.4488461687317704</v>
+        <v>8.3375289302273305</v>
       </c>
       <c r="E437">
         <v>0</v>
       </c>
       <c r="F437">
-        <v>2.5736160188457</v>
+        <v>0</v>
       </c>
       <c r="G437">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H437">
-        <v>9.5193819157351506E-2</v>
+        <v>0.13360930787734801</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="B438" t="s">
-        <v>1094</v>
+        <v>956</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D438">
-        <v>6.4360375723179697</v>
+        <v>9.0669696902461805</v>
       </c>
       <c r="E438">
         <v>0</v>
       </c>
       <c r="F438">
-        <v>2.5690770135214498</v>
+        <v>0</v>
       </c>
       <c r="G438">
         <v>0</v>
       </c>
       <c r="H438">
-        <v>0.12039406781138499</v>
+        <v>0.30931602610853898</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="B439" t="s">
-        <v>911</v>
+        <v>1223</v>
       </c>
       <c r="C439">
         <v>1</v>
       </c>
       <c r="D439">
-        <v>5.7227642089988304</v>
+        <v>9.0694690060202703</v>
       </c>
       <c r="E439">
         <v>0</v>
       </c>
       <c r="F439">
-        <v>2.61648745519713</v>
+        <v>0</v>
       </c>
       <c r="G439">
         <v>0</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>0.203546311136512</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B440" t="s">
-        <v>1027</v>
+        <v>955</v>
       </c>
       <c r="C440">
         <v>1</v>
       </c>
       <c r="D440">
-        <v>5.7227642089988304</v>
+        <v>9.6241583771400201</v>
       </c>
       <c r="E440">
         <v>0</v>
       </c>
       <c r="F440">
-        <v>2.61648745519713</v>
+        <v>0</v>
       </c>
       <c r="G440">
         <v>0</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>0.153020408410418</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="B441" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="C441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D441">
-        <v>4.0733679409716501</v>
+        <v>10</v>
       </c>
       <c r="E441">
         <v>0</v>
       </c>
       <c r="F441">
-        <v>2.3596112311015101</v>
+        <v>0</v>
       </c>
       <c r="G441">
-        <v>6.6666666666666599</v>
+        <v>0</v>
       </c>
       <c r="H441">
-        <v>0.117153317992287</v>
+        <v>0.13782125861491701</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H441" xr:uid="{62D9CDE8-563E-4A30-A0FD-17B8F9009504}"/>
+  <autoFilter ref="A1:H441" xr:uid="{62D9CDE8-563E-4A30-A0FD-17B8F9009504}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H441">
+      <sortCondition descending="1" ref="E1:E441"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Language Data/Data.xlsx
+++ b/Language Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53276\OneDrive\Documents\MathsProject\Language Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B660CDB3-4C6D-4442-990F-87A876D21E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11593044-B108-4143-BB83-86E738074E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
   </bookViews>
   <sheets>
     <sheet name="KarateClub" sheetId="12" r:id="rId1"/>
@@ -3825,7 +3825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3840,9 +3840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4900,7 +4898,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}" name="Table1" displayName="Table1" ref="A1:H100">
   <autoFilter ref="A1:H100" xr:uid="{7E917053-E9CE-4742-AA29-FFC184437467}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H100">
-    <sortCondition descending="1" ref="H1:H100"/>
+    <sortCondition ref="D1:D100"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{56C0FDDF-B280-41BC-91E9-7D29EABE3154}" name="Vertex" totalsRowLabel="Total"/>
@@ -5914,8 +5912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5D1EED-4380-4FB7-92FB-CDD1B707814B}">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16430,8 +16428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A0F90-1795-4012-BBCE-A5CAF8674F8A}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16491,28 +16489,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>3.33559212197722</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>9.1947998302828395</v>
+        <v>1.28887761432149</v>
       </c>
       <c r="F2" s="4">
-        <v>2.2022471910112298</v>
+        <v>1.50306748466257</v>
       </c>
       <c r="G2" s="4">
-        <v>0.441176470588235</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>10</v>
+        <v>0.436421721802142</v>
       </c>
       <c r="J2" s="9">
         <v>75</v>
@@ -16526,28 +16524,28 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>2.0342273307738701</v>
+        <v>8.5965811614600096E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>10</v>
+        <v>2.13309327484526</v>
       </c>
       <c r="F3" s="4">
-        <v>2.48730964467005</v>
+        <v>1.5076923076922999</v>
       </c>
       <c r="G3" s="4">
-        <v>0.57142857142857095</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>8.1275071452924408</v>
+        <v>0.72994839516871901</v>
       </c>
       <c r="J3" s="9">
         <v>3</v>
@@ -16561,28 +16559,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>3.8251836516669502</v>
+        <v>0.430054434237292</v>
       </c>
       <c r="E4" s="4">
-        <v>9.2591591517434502</v>
+        <v>0.69628036556537598</v>
       </c>
       <c r="F4" s="4">
-        <v>2.2222222222222201</v>
+        <v>1.3243243243243199</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>7.6451761693819202</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -16596,28 +16594,28 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>3.64325189395201</v>
+        <v>0.50198902187558503</v>
       </c>
       <c r="E5" s="4">
-        <v>6.2101709069765798</v>
+        <v>1.1302743835592799</v>
       </c>
       <c r="F5" s="4">
-        <v>2.3728813559322002</v>
+        <v>1.55309033280507</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>6.0340622132343498</v>
+        <v>0.124747956473544</v>
       </c>
       <c r="J5" s="9">
         <v>56</v>
@@ -16631,28 +16629,28 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>2.2175675538395798</v>
+        <v>0.86010886847458501</v>
       </c>
       <c r="E6" s="4">
-        <v>7.4833347177105196</v>
+        <v>0.71356637265488299</v>
       </c>
       <c r="F6" s="4">
-        <v>2.2843822843822799</v>
+        <v>1.51001540832049</v>
       </c>
       <c r="G6" s="4">
-        <v>0.18181818181818099</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>5.5410111743001798</v>
+        <v>0.244198026754012</v>
       </c>
       <c r="J6" s="9">
         <v>84</v>
@@ -16666,28 +16664,28 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>2.8045487574506902</v>
+        <v>0.91801223213657102</v>
       </c>
       <c r="E7" s="4">
-        <v>3.4870680462546599</v>
+        <v>1.1475603906487899</v>
       </c>
       <c r="F7" s="4">
-        <v>2.1875</v>
+        <v>1.8114602587800299</v>
       </c>
       <c r="G7" s="4">
-        <v>0.35714285714285698</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>5.1190067869111404</v>
+        <v>0.35023591597581799</v>
       </c>
       <c r="J7" s="9">
         <v>74</v>
@@ -16701,28 +16699,28 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>2.7457808745744301</v>
+        <v>1.05998468598628</v>
       </c>
       <c r="E8" s="4">
-        <v>5.3157629676856404</v>
+        <v>1.0683770085629301</v>
       </c>
       <c r="F8" s="4">
-        <v>2.48101265822784</v>
+        <v>2.0675105485232002</v>
       </c>
       <c r="G8" s="4">
-        <v>0.35714285714285698</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8172065854447199</v>
+        <v>0.71654227885190902</v>
       </c>
       <c r="J8" s="9">
         <v>36</v>
@@ -16736,28 +16734,28 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>2.8588756150428898</v>
+        <v>1.28670822180981</v>
       </c>
       <c r="E9" s="4">
-        <v>3.1497903603945399</v>
+        <v>1.2897995346996001</v>
       </c>
       <c r="F9" s="4">
-        <v>1.90661478599221</v>
+        <v>1.52173913043478</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>3.2395303824554098</v>
+        <v>1.33169954170156</v>
       </c>
       <c r="J9" s="9">
         <v>6</v>
@@ -16771,28 +16769,28 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" s="4">
-        <v>1.3706455181194099</v>
+        <v>1.29016330271187</v>
       </c>
       <c r="E10" s="4">
-        <v>5.0322447638738899</v>
+        <v>2.6288559581723501</v>
       </c>
       <c r="F10" s="4">
-        <v>2.3960880195599001</v>
+        <v>1.7562724014336899</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>2.70044377639615</v>
+        <v>1.5935328368330399</v>
       </c>
       <c r="J10" s="9">
         <v>77</v>
@@ -16806,28 +16804,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>1.7982479790857799</v>
+        <v>1.3100834494750799</v>
       </c>
       <c r="E11" s="4">
-        <v>3.6842243110104298</v>
+        <v>0.33422906279160702</v>
       </c>
       <c r="F11" s="4">
-        <v>2.0675105485232002</v>
+        <v>1.63879598662207</v>
       </c>
       <c r="G11" s="4">
-        <v>0.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>2.3841050117692602</v>
+        <v>0.38049321678397102</v>
       </c>
       <c r="J11" s="9">
         <v>39</v>
@@ -16841,28 +16839,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.3008681796329999</v>
+        <v>1.33345867714035</v>
       </c>
       <c r="E12" s="4">
-        <v>2.0525270121922401</v>
+        <v>1.29187385555034</v>
       </c>
       <c r="F12" s="4">
-        <v>1.79487179487179</v>
+        <v>1.9483101391650099</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>2.1224032740641601</v>
+        <v>1.72941215095136</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -16893,2264 +16891,2264 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>4.7717064685155304</v>
+        <v>1.3626951929823501</v>
       </c>
       <c r="E14" s="4">
-        <v>2.4489662443942</v>
+        <v>2.11580726775576</v>
       </c>
       <c r="F14" s="4">
-        <v>1.92913385826771</v>
+        <v>1.3225371120107901</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>1.93161079390949</v>
+        <v>0.57146709773492699</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>2.6656270349778302</v>
+        <v>1.3633526327485199</v>
       </c>
       <c r="E15" s="4">
-        <v>1.48172509860881</v>
+        <v>1.0648180367136799</v>
       </c>
       <c r="F15" s="4">
-        <v>2.0545073375262</v>
+        <v>1.80811808118081</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>1.8492648124514699</v>
+        <v>0.81464096509473205</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.6394245743500999</v>
+        <v>1.3706455181194099</v>
       </c>
       <c r="E16" s="4">
-        <v>5.7869219009219899</v>
+        <v>5.0322447638738899</v>
       </c>
       <c r="F16" s="4">
-        <v>2.1030042918454899</v>
+        <v>2.3960880195599001</v>
       </c>
       <c r="G16" s="4">
-        <v>1.6666666666666601</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>1.7810590840635001</v>
+        <v>2.70044377639615</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>3.7691682956488299</v>
+        <v>1.3926698230994801</v>
       </c>
       <c r="E17" s="4">
-        <v>2.6155457327134299</v>
+        <v>1.0475320296241699</v>
       </c>
       <c r="F17" s="4">
-        <v>1.72231985940246</v>
+        <v>1.5481832543443901</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>1.7810590840635001</v>
+        <v>0.67110860802309102</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>6.6677960609886098</v>
+        <v>1.42198701345045</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1.0302460225346599</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>1.35359116022099</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>1.7810590840635001</v>
+        <v>0.50224833464233598</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>1.33345867714035</v>
+        <v>1.4513042038014099</v>
       </c>
       <c r="E19" s="4">
-        <v>1.29187385555034</v>
+        <v>1.0129600154451499</v>
       </c>
       <c r="F19" s="4">
-        <v>1.9483101391650099</v>
+        <v>1.20245398773006</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>1.72941215095136</v>
+        <v>0.30358717820109599</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
-        <v>1.29016330271187</v>
+        <v>1.48062139415238</v>
       </c>
       <c r="E20" s="4">
-        <v>2.6288559581723501</v>
+        <v>2.0468937194922501</v>
       </c>
       <c r="F20" s="4">
-        <v>1.7562724014336899</v>
+        <v>1.5506329113924</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>1.5935328368330399</v>
+        <v>1.1507425925033199</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>1.88440148981794</v>
+        <v>1.4882426984138899</v>
       </c>
       <c r="E21" s="4">
-        <v>3.0867802454612998</v>
+        <v>1.5591978394735999</v>
       </c>
       <c r="F21" s="4">
-        <v>1.87739463601532</v>
+        <v>1.51001540832049</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>1.5257292382063199</v>
+        <v>0.33224602469585701</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>3.01422454157602</v>
+        <v>1.5358812581311601</v>
       </c>
       <c r="E22" s="4">
-        <v>0.746064065983158</v>
+        <v>0.65133674713265499</v>
       </c>
       <c r="F22" s="4">
-        <v>1.8181818181818099</v>
+        <v>1.6955017301038</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>1.4495015781146701</v>
+        <v>0.38049321678397102</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>2.5192135852224502</v>
+        <v>1.6394346866190801</v>
       </c>
       <c r="E23" s="4">
-        <v>1.63364889650171</v>
+        <v>0.729699979271757</v>
       </c>
       <c r="F23" s="4">
-        <v>1.71628721541155</v>
+        <v>1.72231985940246</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>1.4193569357925599</v>
+        <v>0.30358717820109599</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>3.2239003257013499</v>
+        <v>1.68384300395711</v>
       </c>
       <c r="E24" s="4">
-        <v>0.72877805889364999</v>
+        <v>0.60155304671487297</v>
       </c>
       <c r="F24" s="4">
-        <v>1.55555555555555</v>
+        <v>1.6415410385259599</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>1.41800366701228</v>
+        <v>0.35581012224877501</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>3.4335761098266802</v>
+        <v>1.6841313865857099</v>
       </c>
       <c r="E25" s="4">
-        <v>0.71149205180414299</v>
+        <v>0.78138514046938601</v>
       </c>
       <c r="F25" s="4">
-        <v>1.3592233009708701</v>
+        <v>2.02479338842975</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>1.3809452177936701</v>
+        <v>0.704341295752826</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>1.28670822180981</v>
+        <v>1.68632209411592</v>
       </c>
       <c r="E26" s="4">
-        <v>1.2897995346996001</v>
+        <v>1.5419118323840899</v>
       </c>
       <c r="F26" s="4">
-        <v>1.52173913043478</v>
+        <v>1.3243243243243199</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>1.33169954170156</v>
+        <v>0.103584627651352</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>3.3125615214755801</v>
+        <v>1.7850542944525201</v>
       </c>
       <c r="E27" s="4">
-        <v>1.65279670383532</v>
+        <v>0.668622754222163</v>
       </c>
       <c r="F27" s="4">
-        <v>1.8738049713193099</v>
+        <v>2.0164609053497902</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <v>1.30321340979428</v>
+        <v>0.56761811936982598</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="4">
-        <v>3.8251836516669502</v>
+        <v>1.7982479790857799</v>
       </c>
       <c r="E28" s="4">
-        <v>1.96023320395018</v>
+        <v>3.6842243110104298</v>
       </c>
       <c r="F28" s="4">
-        <v>1.84210526315789</v>
+        <v>2.0675105485232002</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H28" s="4">
-        <v>1.24448484444478</v>
+        <v>2.3841050117692602</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4">
-        <v>3.8251836516669502</v>
+        <v>1.88440148981794</v>
       </c>
       <c r="E29" s="4">
-        <v>1.94294719686068</v>
+        <v>3.0867802454612998</v>
       </c>
       <c r="F29" s="4">
-        <v>1.5730337078651599</v>
+        <v>1.87739463601532</v>
       </c>
       <c r="G29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>1.17681387652481</v>
+        <v>1.5257292382063199</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>1.48062139415238</v>
+        <v>1.9322667217184799</v>
       </c>
       <c r="E30" s="4">
-        <v>2.0468937194922501</v>
+        <v>0.17879493332914201</v>
       </c>
       <c r="F30" s="4">
-        <v>1.5506329113924</v>
+        <v>1.81481481481481</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>1.1507425925033199</v>
+        <v>0.11905177566107</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" s="4">
-        <v>2.12538152724431</v>
+        <v>1.9699140494845999</v>
       </c>
       <c r="E31" s="4">
-        <v>0.73465530130408296</v>
+        <v>1.4374055723801</v>
       </c>
       <c r="F31" s="4">
-        <v>2.15859030837004</v>
+        <v>1.70138888888888</v>
       </c>
       <c r="G31" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>1.1322623609931799</v>
+        <v>0.61113996810595606</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>3.8251836516669502</v>
+        <v>2.0079077664626799</v>
       </c>
       <c r="E32" s="4">
-        <v>1.92566118977117</v>
+        <v>0.38203721954201803</v>
       </c>
       <c r="F32" s="4">
-        <v>1.37254901960784</v>
+        <v>1.87739463601532</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>1.09718975628597</v>
+        <v>0.10630371247272601</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4">
-        <v>3.8251836516669502</v>
+        <v>2.0342273307738701</v>
       </c>
       <c r="E33" s="4">
-        <v>1.90837518268166</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4">
-        <v>1.2173913043478199</v>
+        <v>2.48730964467005</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="H33" s="4">
-        <v>1.00351365327104</v>
+        <v>8.1275071452924408</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="4">
-        <v>3.8251836516669502</v>
+        <v>2.0745261664585901</v>
       </c>
       <c r="E34" s="4">
-        <v>1.89108917559215</v>
+        <v>0.978388001266144</v>
       </c>
       <c r="F34" s="4">
-        <v>1.09375</v>
+        <v>1.6470588235294099</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>0.89331493463725098</v>
+        <v>0.122795638440371</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4">
-        <v>3.3581150259295298</v>
+        <v>2.12538152724431</v>
       </c>
       <c r="E35" s="4">
-        <v>0.99567400835565101</v>
+        <v>0.73465530130408296</v>
       </c>
       <c r="F35" s="4">
-        <v>1.9405940594059401</v>
+        <v>2.15859030837004</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H35" s="4">
-        <v>0.82045072486955495</v>
+        <v>1.1322623609931799</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>2.7306140028022301</v>
+        <v>2.1258974423067301</v>
       </c>
       <c r="E36" s="4">
-        <v>0.99567400835565101</v>
+        <v>1.15958426778793</v>
       </c>
       <c r="F36" s="4">
-        <v>1.6225165562913899</v>
+        <v>1.8738049713193099</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>0.82045072486955495</v>
+        <v>0.35581012224877501</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D37" s="4">
-        <v>1.3633526327485199</v>
+        <v>2.2175675538395798</v>
       </c>
       <c r="E37" s="4">
-        <v>1.0648180367136799</v>
+        <v>7.4833347177105196</v>
       </c>
       <c r="F37" s="4">
-        <v>1.80811808118081</v>
+        <v>2.2843822843822799</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>0.18181818181818099</v>
       </c>
       <c r="H37" s="4">
-        <v>0.81464096509473205</v>
+        <v>5.5410111743001798</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="4">
-        <v>3.8251836516669502</v>
+        <v>2.3008681796329999</v>
       </c>
       <c r="E38" s="4">
-        <v>1.8738031685026499</v>
+        <v>2.0525270121922401</v>
       </c>
       <c r="F38" s="4">
-        <v>0.99290780141843904</v>
+        <v>1.79487179487179</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>0.76365981839803398</v>
+        <v>2.1224032740641601</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>10</v>
+        <v>2.31069602671626</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>0.38819433063866099</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>1.55309033280507</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>0.76365981839803398</v>
+        <v>0.10630371247272601</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" s="4">
-        <v>3.5030809727922598</v>
+        <v>2.3345253995587898</v>
       </c>
       <c r="E40" s="4">
-        <v>0.83318554171427806</v>
+        <v>0.237509737409837</v>
       </c>
       <c r="F40" s="4">
-        <v>1.84210526315789</v>
+        <v>1.82156133828996</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>0.74498643332491499</v>
+        <v>0.161294975894755</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4">
-        <v>8.5965811614600096E-2</v>
+        <v>2.3458291660802399</v>
       </c>
       <c r="E41" s="4">
-        <v>2.13309327484526</v>
+        <v>0.94381598708712799</v>
       </c>
       <c r="F41" s="4">
-        <v>1.5076923076922999</v>
+        <v>1.1212814645308899</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <v>0.72994839516871901</v>
+        <v>0.31304586846430499</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4">
-        <v>1.05998468598628</v>
+        <v>2.3499271828758501</v>
       </c>
       <c r="E42" s="4">
-        <v>1.0683770085629301</v>
+        <v>0.47551336073651801</v>
       </c>
       <c r="F42" s="4">
-        <v>2.0675105485232002</v>
+        <v>1.71929824561403</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <v>0.71654227885190902</v>
+        <v>0.35581012224877501</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>2.9815632122928601</v>
+        <v>2.4465514729083799</v>
       </c>
       <c r="E43" s="4">
-        <v>0.76232114407924301</v>
+        <v>1.38483141653215</v>
       </c>
       <c r="F43" s="4">
-        <v>1.80478821362799</v>
+        <v>2.00819672131147</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <v>0.71574678442968298</v>
+        <v>0.58916176606801995</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>1.6841313865857099</v>
+        <v>2.4740907783209098</v>
       </c>
       <c r="E44" s="4">
-        <v>0.78138514046938601</v>
+        <v>0.961101994176636</v>
       </c>
       <c r="F44" s="4">
-        <v>2.02479338842975</v>
+        <v>1.24999999999999</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <v>0.704341295752826</v>
+        <v>0.51028725523805296</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>3.07007043971395</v>
+        <v>2.5027044218620702</v>
       </c>
       <c r="E45" s="4">
-        <v>0</v>
+        <v>0.94381598708712799</v>
       </c>
       <c r="F45" s="4">
-        <v>1.8181818181818099</v>
+        <v>1.25480153649167</v>
       </c>
       <c r="G45" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="4">
-        <v>0.68747078086993696</v>
+        <v>0.31304586846430499</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4">
-        <v>2.7751648160125599</v>
+        <v>2.5192135852224502</v>
       </c>
       <c r="E46" s="4">
-        <v>0.64162515405873199</v>
+        <v>1.63364889650171</v>
       </c>
       <c r="F46" s="4">
-        <v>2.0123203285420899</v>
+        <v>1.71628721541155</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>0.68747078086993696</v>
+        <v>1.4193569357925599</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>3.2868308089239102</v>
+        <v>2.5576734771894101</v>
       </c>
       <c r="E47" s="4">
-        <v>0.73615342191850697</v>
+        <v>0.51235725013301203</v>
       </c>
       <c r="F47" s="4">
-        <v>1.9367588932806299</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <v>0.67794298025185795</v>
+        <v>0.122795638440371</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>3.0729781579070399</v>
+        <v>2.5576734771894101</v>
       </c>
       <c r="E48" s="4">
-        <v>0.978388001266144</v>
+        <v>0.51235725013301203</v>
       </c>
       <c r="F48" s="4">
-        <v>1.6415410385259599</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <v>0.67794298025185795</v>
+        <v>0.122795638440371</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>2.60235239056157</v>
+        <v>2.5739886388676898</v>
       </c>
       <c r="E49" s="4">
-        <v>0.978388001266144</v>
+        <v>0.70158140773949096</v>
       </c>
       <c r="F49" s="4">
-        <v>1.41210374639769</v>
+        <v>1.4161849710982599</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <v>0.67794298025185795</v>
+        <v>0.31304586846430499</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>1.3926698230994801</v>
+        <v>2.5984815056467601</v>
       </c>
       <c r="E50" s="4">
-        <v>1.0475320296241699</v>
+        <v>0.188262576692625</v>
       </c>
       <c r="F50" s="4">
-        <v>1.5481832543443901</v>
+        <v>1.58833063209076</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <v>0.67110860802309102</v>
+        <v>0.103584627651352</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>6.91259182583347</v>
+        <v>2.60235239056157</v>
       </c>
       <c r="E51" s="4">
-        <v>0.32497693328274702</v>
+        <v>0.978388001266144</v>
       </c>
       <c r="F51" s="4">
-        <v>10</v>
+        <v>1.41210374639769</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>0.61113996810595606</v>
+        <v>0.67794298025185795</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>1.9699140494845999</v>
+        <v>2.6394245743500999</v>
       </c>
       <c r="E52" s="4">
-        <v>1.4374055723801</v>
+        <v>5.7869219009219899</v>
       </c>
       <c r="F52" s="4">
-        <v>1.70138888888888</v>
+        <v>2.1030042918454899</v>
       </c>
       <c r="G52" s="4">
-        <v>0</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H52" s="4">
-        <v>0.61113996810595606</v>
+        <v>1.7810590840635001</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="4">
-        <v>3.8251836516669502</v>
+        <v>2.6527530857309101</v>
       </c>
       <c r="E53" s="4">
-        <v>1.8565171614131399</v>
+        <v>0.362786145153071</v>
       </c>
       <c r="F53" s="4">
-        <v>0.90909090909090895</v>
+        <v>1.82156133828996</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <v>0.61113996810595606</v>
+        <v>7.4251277774191798E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="4">
-        <v>2.76225132501036</v>
+        <v>2.66188117133657</v>
       </c>
       <c r="E54" s="4">
-        <v>0.27945711461370998</v>
+        <v>0.76618467891054698</v>
       </c>
       <c r="F54" s="4">
-        <v>1.6144975288303101</v>
+        <v>1.8114602587800299</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <v>0.600459343047403</v>
+        <v>0.41774790400580403</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4">
-        <v>2.4465514729083799</v>
+        <v>2.6656270349778302</v>
       </c>
       <c r="E55" s="4">
-        <v>1.38483141653215</v>
+        <v>1.48172509860881</v>
       </c>
       <c r="F55" s="4">
-        <v>2.00819672131147</v>
+        <v>2.0545073375262</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <v>0.58916176606801995</v>
+        <v>1.8492648124514699</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="4">
-        <v>3.8152910417792101</v>
+        <v>2.6849097263755501</v>
       </c>
       <c r="E56" s="4">
-        <v>0.323305952597428</v>
+        <v>0.59869150164516305</v>
       </c>
       <c r="F56" s="4">
-        <v>1.630615640599</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H56" s="4">
-        <v>0.58916176606801995</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>3.1809782939175801</v>
+        <v>2.6849097263755501</v>
       </c>
       <c r="E57" s="4">
-        <v>0.81589953462477005</v>
+        <v>0.59869150164516305</v>
       </c>
       <c r="F57" s="4">
-        <v>1.5730337078651599</v>
+        <v>2</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H57" s="4">
-        <v>0.58916176606801995</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>3.1441909404356401</v>
+        <v>2.7306140028022301</v>
       </c>
       <c r="E58" s="4">
-        <v>0.52445745509566799</v>
+        <v>0.99567400835565101</v>
       </c>
       <c r="F58" s="4">
-        <v>1.4759036144578299</v>
+        <v>1.6225165562913899</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <v>0.57146709773492699</v>
+        <v>0.82045072486955495</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" s="4">
-        <v>1.3626951929823501</v>
+        <v>2.7457808745744301</v>
       </c>
       <c r="E59" s="4">
-        <v>2.11580726775576</v>
+        <v>5.3157629676856404</v>
       </c>
       <c r="F59" s="4">
-        <v>1.3225371120107901</v>
+        <v>2.48101265822784</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>0.35714285714285698</v>
       </c>
       <c r="H59" s="4">
-        <v>0.57146709773492699</v>
+        <v>3.8172065854447199</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>1.7850542944525201</v>
+        <v>2.76225132501036</v>
       </c>
       <c r="E60" s="4">
-        <v>0.668622754222163</v>
+        <v>0.27945711461370998</v>
       </c>
       <c r="F60" s="4">
-        <v>2.0164609053497902</v>
+        <v>1.6144975288303101</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <v>0.56761811936982598</v>
+        <v>0.600459343047403</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>2.6849097263755501</v>
+        <v>2.7751648160125599</v>
       </c>
       <c r="E61" s="4">
-        <v>0.59869150164516305</v>
+        <v>0.64162515405873199</v>
       </c>
       <c r="F61" s="4">
-        <v>2</v>
+        <v>2.0123203285420899</v>
       </c>
       <c r="G61" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H61" s="4">
-        <v>0.55476185310790005</v>
+        <v>0.68747078086993696</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" s="4">
-        <v>2.6849097263755501</v>
+        <v>2.7878412898845601</v>
       </c>
       <c r="E62" s="4">
-        <v>0.59869150164516305</v>
+        <v>0.961101994176636</v>
       </c>
       <c r="F62" s="4">
-        <v>2</v>
+        <v>1.4223512336719799</v>
       </c>
       <c r="G62" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>0.55476185310790005</v>
+        <v>0.51028725523805296</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" s="4">
-        <v>3.1585776671350398</v>
+        <v>2.8045487574506902</v>
       </c>
       <c r="E63" s="4">
-        <v>0.745035136989735</v>
+        <v>3.4870680462546599</v>
       </c>
       <c r="F63" s="4">
-        <v>1.5360501567398099</v>
+        <v>2.1875</v>
       </c>
       <c r="G63" s="4">
-        <v>0</v>
+        <v>0.35714285714285698</v>
       </c>
       <c r="H63" s="4">
-        <v>0.55476185310790005</v>
+        <v>5.1190067869111404</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>6.4230002961437398</v>
+        <v>2.8117158153763699</v>
       </c>
       <c r="E64" s="4">
-        <v>0</v>
+        <v>0.52613666721293395</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>1.8317757009345701</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <v>0.55476185310790005</v>
+        <v>0.10630371247272601</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" s="4">
-        <v>2.9304097238957998</v>
+        <v>2.82314407434674</v>
       </c>
       <c r="E65" s="4">
-        <v>0.71886741482899896</v>
+        <v>0.40548033772816899</v>
       </c>
       <c r="F65" s="4">
-        <v>1.6360601001669399</v>
+        <v>1.82156133828996</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>0.51028725523805296</v>
+        <v>0.33455705592381402</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" s="4">
-        <v>2.7878412898845601</v>
+        <v>2.8547925707424402</v>
       </c>
       <c r="E66" s="4">
-        <v>0.961101994176636</v>
+        <v>0.73085237974439099</v>
       </c>
       <c r="F66" s="4">
-        <v>1.4223512336719799</v>
+        <v>1.8317757009345701</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>0.51028725523805296</v>
+        <v>0.103584627651352</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" s="4">
-        <v>2.4740907783209098</v>
+        <v>2.8588756150428898</v>
       </c>
       <c r="E67" s="4">
-        <v>0.961101994176636</v>
+        <v>3.1497903603945399</v>
       </c>
       <c r="F67" s="4">
-        <v>1.24999999999999</v>
+        <v>1.90661478599221</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>0.51028725523805296</v>
+        <v>3.2395303824554098</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>1.42198701345045</v>
+        <v>2.8588890302053001</v>
       </c>
       <c r="E68" s="4">
-        <v>1.0302460225346599</v>
+        <v>0.99567400835565101</v>
       </c>
       <c r="F68" s="4">
-        <v>1.35359116022099</v>
+        <v>1.94444444444444</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>0.50224833464233598</v>
+        <v>0.34857516153444201</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4">
-        <v>0</v>
+        <v>2.9304097238957998</v>
       </c>
       <c r="E69" s="4">
-        <v>1.28887761432149</v>
+        <v>0.71886741482899896</v>
       </c>
       <c r="F69" s="4">
-        <v>1.50306748466257</v>
+        <v>1.6360601001669399</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <v>0.436421721802142</v>
+        <v>0.51028725523805296</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" s="4">
-        <v>2.66188117133657</v>
+        <v>2.9815632122928601</v>
       </c>
       <c r="E70" s="4">
-        <v>0.76618467891054698</v>
+        <v>0.76232114407924301</v>
       </c>
       <c r="F70" s="4">
-        <v>1.8114602587800299</v>
+        <v>1.80478821362799</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>0.41774790400580403</v>
+        <v>0.71574678442968298</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" s="4">
-        <v>5.8331890487409499</v>
+        <v>3.01422454157602</v>
       </c>
       <c r="E71" s="4">
-        <v>0</v>
+        <v>0.746064065983158</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>1.8181818181818099</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>0.41083737318012398</v>
+        <v>1.4495015781146701</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="4">
-        <v>1.5358812581311601</v>
+        <v>3.07007043971395</v>
       </c>
       <c r="E72" s="4">
-        <v>0.65133674713265499</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4">
-        <v>1.6955017301038</v>
+        <v>1.8181818181818099</v>
       </c>
       <c r="G72" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H72" s="4">
-        <v>0.38049321678397102</v>
+        <v>0.68747078086993696</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="4">
-        <v>1.3100834494750799</v>
+        <v>3.0729781579070399</v>
       </c>
       <c r="E73" s="4">
-        <v>0.33422906279160702</v>
+        <v>0.978388001266144</v>
       </c>
       <c r="F73" s="4">
-        <v>1.63879598662207</v>
+        <v>1.6415410385259599</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>0.38049321678397102</v>
+        <v>0.67794298025185795</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" s="4">
-        <v>2.1258974423067301</v>
+        <v>3.1441909404356401</v>
       </c>
       <c r="E74" s="4">
-        <v>1.15958426778793</v>
+        <v>0.52445745509566799</v>
       </c>
       <c r="F74" s="4">
-        <v>1.8738049713193099</v>
+        <v>1.4759036144578299</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <v>0.35581012224877501</v>
+        <v>0.57146709773492699</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>2.3499271828758501</v>
+        <v>3.1585776671350398</v>
       </c>
       <c r="E75" s="4">
-        <v>0.47551336073651801</v>
+        <v>0.745035136989735</v>
       </c>
       <c r="F75" s="4">
-        <v>1.71929824561403</v>
+        <v>1.5360501567398099</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <v>0.35581012224877501</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" s="4">
-        <v>1.68384300395711</v>
+        <v>3.1809782939175801</v>
       </c>
       <c r="E76" s="4">
-        <v>0.60155304671487297</v>
+        <v>0.81589953462477005</v>
       </c>
       <c r="F76" s="4">
-        <v>1.6415410385259599</v>
+        <v>1.5730337078651599</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <v>0.35581012224877501</v>
+        <v>0.58916176606801995</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" s="4">
-        <v>0.91801223213657102</v>
+        <v>3.2239003257013499</v>
       </c>
       <c r="E77" s="4">
-        <v>1.1475603906487899</v>
+        <v>0.72877805889364999</v>
       </c>
       <c r="F77" s="4">
-        <v>1.8114602587800299</v>
+        <v>1.55555555555555</v>
       </c>
       <c r="G77" s="4">
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <v>0.35023591597581799</v>
+        <v>1.41800366701228</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>2.8588890302053001</v>
+        <v>3.2868308089239102</v>
       </c>
       <c r="E78" s="4">
-        <v>0.99567400835565101</v>
+        <v>0.73615342191850697</v>
       </c>
       <c r="F78" s="4">
-        <v>1.94444444444444</v>
+        <v>1.9367588932806299</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <v>0.34857516153444201</v>
+        <v>0.67794298025185795</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4">
-        <v>2.82314407434674</v>
+        <v>3.3125615214755801</v>
       </c>
       <c r="E79" s="4">
-        <v>0.40548033772816899</v>
+        <v>1.65279670383532</v>
       </c>
       <c r="F79" s="4">
-        <v>1.82156133828996</v>
+        <v>1.8738049713193099</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>0.33455705592381402</v>
+        <v>1.30321340979428</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D80" s="4">
-        <v>1.4882426984138899</v>
+        <v>3.33559212197722</v>
       </c>
       <c r="E80" s="4">
-        <v>1.5591978394735999</v>
+        <v>9.1947998302828395</v>
       </c>
       <c r="F80" s="4">
-        <v>1.51001540832049</v>
+        <v>2.2022471910112298</v>
       </c>
       <c r="G80" s="4">
-        <v>0</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="H80" s="4">
-        <v>0.33224602469585701</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" s="4">
-        <v>2.5739886388676898</v>
+        <v>3.3581150259295298</v>
       </c>
       <c r="E81" s="4">
-        <v>0.70158140773949096</v>
+        <v>0.99567400835565101</v>
       </c>
       <c r="F81" s="4">
-        <v>1.4161849710982599</v>
+        <v>1.9405940594059401</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <v>0.31304586846430499</v>
+        <v>0.82045072486955495</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>2.5027044218620702</v>
+        <v>3.4335761098266802</v>
       </c>
       <c r="E82" s="4">
-        <v>0.94381598708712799</v>
+        <v>0.71149205180414299</v>
       </c>
       <c r="F82" s="4">
-        <v>1.25480153649167</v>
+        <v>1.3592233009708701</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <v>0.31304586846430499</v>
+        <v>1.3809452177936701</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="4">
-        <v>2.3458291660802399</v>
+        <v>3.5030809727922598</v>
       </c>
       <c r="E83" s="4">
-        <v>0.94381598708712799</v>
+        <v>0.83318554171427806</v>
       </c>
       <c r="F83" s="4">
-        <v>1.1212814645308899</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <v>0.31304586846430499</v>
+        <v>0.74498643332491499</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" s="4">
-        <v>1.6394346866190801</v>
+        <v>3.64325189395201</v>
       </c>
       <c r="E84" s="4">
-        <v>0.729699979271757</v>
+        <v>6.2101709069765798</v>
       </c>
       <c r="F84" s="4">
-        <v>1.72231985940246</v>
+        <v>2.3728813559322002</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <v>0.30358717820109599</v>
+        <v>6.0340622132343498</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="4">
-        <v>1.4513042038014099</v>
+        <v>3.7691682956488299</v>
       </c>
       <c r="E85" s="4">
-        <v>1.0129600154451499</v>
+        <v>2.6155457327134299</v>
       </c>
       <c r="F85" s="4">
-        <v>1.20245398773006</v>
+        <v>1.72231985940246</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <v>0.30358717820109599</v>
+        <v>1.7810590840635001</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>0.86010886847458501</v>
+        <v>3.8152910417792101</v>
       </c>
       <c r="E86" s="4">
-        <v>0.71356637265488299</v>
+        <v>0.323305952597428</v>
       </c>
       <c r="F86" s="4">
-        <v>1.51001540832049</v>
+        <v>1.630615640599</v>
       </c>
       <c r="G86" s="4">
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <v>0.244198026754012</v>
+        <v>0.58916176606801995</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D87" s="4">
-        <v>2.3345253995587898</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E87" s="4">
-        <v>0.237509737409837</v>
+        <v>9.2591591517434502</v>
       </c>
       <c r="F87" s="4">
-        <v>1.82156133828996</v>
+        <v>2.2222222222222201</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <v>0.161294975894755</v>
+        <v>7.6451761693819202</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>0.50198902187558503</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E88" s="4">
-        <v>1.1302743835592799</v>
+        <v>1.96023320395018</v>
       </c>
       <c r="F88" s="4">
-        <v>1.55309033280507</v>
+        <v>1.84210526315789</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <v>0.124747956473544</v>
+        <v>1.24448484444478</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" s="4">
-        <v>2.5576734771894101</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E89" s="4">
-        <v>0.51235725013301203</v>
+        <v>1.94294719686068</v>
       </c>
       <c r="F89" s="4">
-        <v>1.84210526315789</v>
+        <v>1.5730337078651599</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <v>0.122795638440371</v>
+        <v>1.17681387652481</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>2.5576734771894101</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E90" s="4">
-        <v>0.51235725013301203</v>
+        <v>1.92566118977117</v>
       </c>
       <c r="F90" s="4">
-        <v>1.84210526315789</v>
+        <v>1.37254901960784</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <v>0.122795638440371</v>
+        <v>1.09718975628597</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>2.0745261664585901</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E91" s="4">
-        <v>0.978388001266144</v>
+        <v>1.90837518268166</v>
       </c>
       <c r="F91" s="4">
-        <v>1.6470588235294099</v>
+        <v>1.2173913043478199</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <v>0.122795638440371</v>
+        <v>1.00351365327104</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>1.9322667217184799</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E92" s="4">
-        <v>0.17879493332914201</v>
+        <v>1.89108917559215</v>
       </c>
       <c r="F92" s="4">
-        <v>1.81481481481481</v>
+        <v>1.09375</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>0.11905177566107</v>
+        <v>0.89331493463725098</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>2.0079077664626799</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E93" s="4">
-        <v>0.38203721954201803</v>
+        <v>1.8738031685026499</v>
       </c>
       <c r="F93" s="4">
-        <v>1.87739463601532</v>
+        <v>0.99290780141843904</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <v>0.10630371247272601</v>
+        <v>0.76365981839803398</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" s="4">
-        <v>2.8117158153763699</v>
+        <v>3.8251836516669502</v>
       </c>
       <c r="E94" s="4">
-        <v>0.52613666721293395</v>
+        <v>1.8565171614131399</v>
       </c>
       <c r="F94" s="4">
-        <v>1.8317757009345701</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <v>0.10630371247272601</v>
+        <v>0.61113996810595606</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="4">
-        <v>2.31069602671626</v>
+        <v>4.7717064685155304</v>
       </c>
       <c r="E95" s="4">
-        <v>0.38819433063866099</v>
+        <v>2.4489662443942</v>
       </c>
       <c r="F95" s="4">
-        <v>1.55309033280507</v>
+        <v>1.92913385826771</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <v>0.10630371247272601</v>
+        <v>1.93161079390949</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>2.8547925707424402</v>
+        <v>5.8331890487409499</v>
       </c>
       <c r="E96" s="4">
-        <v>0.73085237974439099</v>
+        <v>0</v>
       </c>
       <c r="F96" s="4">
-        <v>1.8317757009345701</v>
+        <v>0</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <v>0.103584627651352</v>
+        <v>0.41083737318012398</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" s="4">
-        <v>2.5984815056467601</v>
+        <v>6.4230002961437398</v>
       </c>
       <c r="E97" s="4">
-        <v>0.188262576692625</v>
+        <v>0</v>
       </c>
       <c r="F97" s="4">
-        <v>1.58833063209076</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <v>0.103584627651352</v>
+        <v>0.55476185310790005</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="4">
-        <v>1.68632209411592</v>
+        <v>6.6677960609886098</v>
       </c>
       <c r="E98" s="4">
-        <v>1.5419118323840899</v>
+        <v>0</v>
       </c>
       <c r="F98" s="4">
-        <v>1.3243243243243199</v>
+        <v>0</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <v>0.103584627651352</v>
+        <v>1.7810590840635001</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" s="4">
-        <v>2.6527530857309101</v>
+        <v>6.91259182583347</v>
       </c>
       <c r="E99" s="4">
-        <v>0.362786145153071</v>
+        <v>0.32497693328274702</v>
       </c>
       <c r="F99" s="4">
-        <v>1.82156133828996</v>
+        <v>10</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <v>7.4251277774191798E-2</v>
+        <v>0.61113996810595606</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <v>0.430054434237292</v>
+        <v>10</v>
       </c>
       <c r="E100" s="4">
-        <v>0.69628036556537598</v>
+        <v>0</v>
       </c>
       <c r="F100" s="4">
-        <v>1.3243243243243199</v>
+        <v>0</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <v>0</v>
+        <v>0.76365981839803398</v>
       </c>
     </row>
   </sheetData>
@@ -30745,13 +30743,13 @@
       <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <v>26</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="10">
         <v>10</v>
       </c>
     </row>
@@ -30783,13 +30781,13 @@
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="9">
         <v>84</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>8.3514273502614707</v>
       </c>
     </row>
@@ -30821,13 +30819,13 @@
       <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>21</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>4.4885919171608002</v>
       </c>
     </row>
@@ -30859,13 +30857,13 @@
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>27</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="10">
         <v>4.17264898311526</v>
       </c>
     </row>
@@ -30897,13 +30895,13 @@
       <c r="I6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>16</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>2.9054777047628102</v>
       </c>
     </row>
@@ -30935,13 +30933,13 @@
       <c r="I7" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>74</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>2.8107031687155999</v>
       </c>
     </row>
@@ -30973,13 +30971,13 @@
       <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>44</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <v>2.8053274922783702</v>
       </c>
     </row>
@@ -31011,13 +31009,13 @@
       <c r="I9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>106</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <v>2.76594200614444</v>
       </c>
     </row>
@@ -31049,13 +31047,13 @@
       <c r="I10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>15</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>2.7487180393094302</v>
       </c>
     </row>
@@ -31085,13 +31083,13 @@
         <v>2.6695918899054298</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>58</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <v>2.6695918899054298</v>
       </c>
     </row>
@@ -33885,13 +33883,13 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <v>93</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="10">
         <v>10</v>
       </c>
     </row>
@@ -33921,13 +33919,13 @@
         <v>6.5790104365481197</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="K3" s="12">
+      <c r="K3" s="9">
         <v>92</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>6.5790104365481197</v>
       </c>
     </row>
@@ -33957,13 +33955,13 @@
         <v>6.3019845644000396</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>33</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>6.3019845644000396</v>
       </c>
     </row>
@@ -33993,13 +33991,13 @@
         <v>5.8707152505508899</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>62</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="10">
         <v>5.8707152505508899</v>
       </c>
     </row>
@@ -34029,13 +34027,13 @@
         <v>4.7283729771947103</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>83</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>4.7283729771947103</v>
       </c>
     </row>
@@ -34065,13 +34063,13 @@
         <v>4.6492518788553996</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>73</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>4.6492518788553996</v>
       </c>
     </row>
@@ -34101,13 +34099,13 @@
         <v>4.0517331651829904</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>96</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <v>4.0517331651829904</v>
       </c>
     </row>
@@ -34137,13 +34135,13 @@
         <v>3.7777415595425201</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>20</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <v>3.7777415595425201</v>
       </c>
     </row>
@@ -34173,13 +34171,13 @@
         <v>3.7333369188956702</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>51</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>3.7333369188956702</v>
       </c>
     </row>
@@ -34209,13 +34207,13 @@
         <v>3.18623191890239</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>66</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <v>3.18623191890239</v>
       </c>
     </row>
@@ -41581,13 +41579,13 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <v>25</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="10">
         <v>10</v>
       </c>
     </row>
@@ -41617,13 +41615,13 @@
         <v>8.6599581171437503</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="K3" s="12">
+      <c r="K3" s="9">
         <v>31</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>8.6599581171437503</v>
       </c>
     </row>
@@ -41655,13 +41653,13 @@
       <c r="I4" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>7.9802448930513403</v>
       </c>
     </row>
@@ -41691,13 +41689,13 @@
         <v>7.8092085389925199</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>26</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="10">
         <v>7.8092085389925199</v>
       </c>
     </row>
@@ -41727,13 +41725,13 @@
         <v>7.7210387678087997</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="K6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>7.7210387678087997</v>
       </c>
     </row>
@@ -41765,13 +41763,13 @@
       <c r="I7" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>12</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>6.89420307168053</v>
       </c>
     </row>
@@ -41801,13 +41799,13 @@
         <v>6.6617145775277002</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>40</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <v>6.6617145775277002</v>
       </c>
     </row>
@@ -41839,13 +41837,13 @@
       <c r="I9" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>17</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <v>6.1180443431035698</v>
       </c>
     </row>
@@ -41875,13 +41873,13 @@
         <v>6.0426093346661203</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>6.0426093346661203</v>
       </c>
     </row>
@@ -41913,13 +41911,13 @@
       <c r="I11" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>27</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <v>5.7063782064167698</v>
       </c>
     </row>

--- a/Language Data/Data.xlsx
+++ b/Language Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53276\OneDrive\Documents\MathsProject\Language Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11593044-B108-4143-BB83-86E738074E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86518C5A-82B5-4C05-BD90-5C773E3820B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{CCE9E3C6-6CED-41B5-BE3F-22AB5F066C30}"/>
   </bookViews>
   <sheets>
     <sheet name="KarateClub" sheetId="12" r:id="rId1"/>
@@ -4960,7 +4960,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8ACAD852-50C1-4085-B5C0-7C88A5438747}" name="Table3" displayName="Table3" ref="A1:I96" totalsRowShown="0">
   <autoFilter ref="A1:I96" xr:uid="{8ACAD852-50C1-4085-B5C0-7C88A5438747}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
-    <sortCondition descending="1" ref="H1:H96"/>
+    <sortCondition descending="1" ref="D1:D96"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{58E1D8A0-1571-4635-8916-C547A7DAA106}" name="Vertex"/>
@@ -16428,7 +16428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A0F90-1795-4012-BBCE-A5CAF8674F8A}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -41495,8 +41495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237C934-1A94-40E0-8B75-3C0418AA65FF}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41555,28 +41555,28 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>7.1512444612150503</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
-        <v>9.3968878306612904</v>
+        <v>1.04463229443577</v>
       </c>
       <c r="F2" s="4">
-        <v>9.5568639291465303</v>
+        <v>2.3195023148148102</v>
       </c>
       <c r="G2" s="4">
-        <v>0.66176470588235203</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>10</v>
+        <v>2.2926391672727502</v>
       </c>
       <c r="I2" s="4"/>
       <c r="K2" s="9">
@@ -41591,28 +41591,28 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4">
-        <v>7.9037860819697201</v>
+        <v>8.4710483386459607</v>
       </c>
       <c r="E3" s="4">
-        <v>10</v>
+        <v>2.75357218798101</v>
       </c>
       <c r="F3" s="4">
-        <v>9.3135912698412699</v>
+        <v>6.8135764944275499</v>
       </c>
       <c r="G3" s="4">
-        <v>0.76923076923076905</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="H3" s="4">
-        <v>8.6599581171437503</v>
+        <v>4.8529630574665603</v>
       </c>
       <c r="I3" s="4"/>
       <c r="K3" s="9">
@@ -41627,32 +41627,30 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>5.8553616454378004</v>
+        <v>8.2373448588014693</v>
       </c>
       <c r="E4" s="4">
-        <v>9.9673699660213408</v>
+        <v>0.26322925525988999</v>
       </c>
       <c r="F4" s="4">
-        <v>8.6790759831996898</v>
+        <v>0.83171378091872705</v>
       </c>
       <c r="G4" s="4">
-        <v>0.58823529411764697</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>7.9802448930513403</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>886</v>
-      </c>
+        <v>1.00005352510618</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="K4" s="9">
         <v>6</v>
       </c>
@@ -41665,28 +41663,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>5.9773142133014598</v>
+        <v>8.1927499230236602</v>
       </c>
       <c r="E5" s="4">
-        <v>6.7375680840428798</v>
+        <v>1.385590534151</v>
       </c>
       <c r="F5" s="4">
-        <v>9.5568639291465303</v>
+        <v>5.1283884420613601</v>
       </c>
       <c r="G5" s="4">
-        <v>0.76923076923076905</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>7.8092085389925199</v>
+        <v>3.6455783452024502</v>
       </c>
       <c r="I5" s="4"/>
       <c r="K5" s="9">
@@ -41701,28 +41699,28 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>6.7279174693890296</v>
+        <v>8.1871296931456001</v>
       </c>
       <c r="E6" s="4">
-        <v>7.4595523444460099</v>
+        <v>4.6022874384520902</v>
       </c>
       <c r="F6" s="4">
-        <v>8.5142668178382408</v>
+        <v>7.4012834036568202</v>
       </c>
       <c r="G6" s="4">
-        <v>0.98901098901098805</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H6" s="4">
-        <v>7.7210387678087997</v>
+        <v>4.4672034830942602</v>
       </c>
       <c r="I6" s="4"/>
       <c r="K6" s="9">
@@ -41737,32 +41735,30 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>6.90771199507848</v>
+        <v>7.9970935144617501</v>
       </c>
       <c r="E7" s="4">
-        <v>8.1862079512058799</v>
+        <v>1.3462039841859601</v>
       </c>
       <c r="F7" s="4">
-        <v>8.7347701149425205</v>
+        <v>6.4744477415100503</v>
       </c>
       <c r="G7" s="4">
-        <v>0.30303030303030298</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4">
-        <v>6.89420307168053</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>885</v>
-      </c>
+        <v>2.9670478488035998</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="K7" s="9">
         <v>12</v>
       </c>
@@ -41775,28 +41771,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>6.4746897176029297</v>
+        <v>7.9337686677230899</v>
       </c>
       <c r="E8" s="4">
-        <v>8.1169058790705098</v>
+        <v>2.01910035763047</v>
       </c>
       <c r="F8" s="4">
-        <v>5.1963162623539896</v>
+        <v>4.5483091787439598</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>6.6617145775277002</v>
+        <v>3.16751402563736</v>
       </c>
       <c r="I8" s="4"/>
       <c r="K8" s="9">
@@ -41811,32 +41807,30 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4">
-        <v>5.7279384348648197</v>
+        <v>7.9037860819697201</v>
       </c>
       <c r="E9" s="4">
-        <v>8.1162669758394195</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4">
-        <v>9.4953870838347303</v>
+        <v>9.3135912698412699</v>
       </c>
       <c r="G9" s="4">
-        <v>1.0606060606060601</v>
+        <v>0.76923076923076905</v>
       </c>
       <c r="H9" s="4">
-        <v>6.1180443431035698</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>884</v>
-      </c>
+        <v>8.6599581171437503</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="K9" s="9">
         <v>17</v>
       </c>
@@ -41849,28 +41843,28 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>571</v>
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>6.39632805825934</v>
+        <v>7.81114639993051</v>
       </c>
       <c r="E10" s="4">
-        <v>4.0242239879085897</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>9.0771713615023408</v>
+        <v>5.40456621004566</v>
       </c>
       <c r="G10" s="4">
-        <v>1.55555555555555</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4">
-        <v>6.0426093346661203</v>
+        <v>1.4876264674978401</v>
       </c>
       <c r="I10" s="4"/>
       <c r="K10" s="9">
@@ -41885,32 +41879,30 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>4.7439847231002901</v>
+        <v>7.68038543430084</v>
       </c>
       <c r="E11" s="4">
-        <v>6.2373031283477998</v>
+        <v>0.26252427703653902</v>
       </c>
       <c r="F11" s="4">
-        <v>8.1945370370370298</v>
+        <v>4.1615099009900902</v>
       </c>
       <c r="G11" s="4">
-        <v>0.329670329670329</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>5.7063782064167698</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>889</v>
-      </c>
+        <v>0.91102813204758204</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="K11" s="9">
         <v>27</v>
       </c>
@@ -41923,653 +41915,653 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>4.80278291331211</v>
+        <v>7.68038543430084</v>
       </c>
       <c r="E12" s="4">
-        <v>8.3536737453447198</v>
+        <v>0.26252427703653902</v>
       </c>
       <c r="F12" s="4">
-        <v>10</v>
+        <v>4.1615099009900902</v>
       </c>
       <c r="G12" s="4">
-        <v>0.76923076923076905</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>5.6359205166263404</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>887</v>
-      </c>
+        <v>0.91102813204758204</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>8.4710483386459607</v>
+        <v>7.6507757060205996</v>
       </c>
       <c r="E13" s="4">
-        <v>2.75357218798101</v>
+        <v>0.20965765277887799</v>
       </c>
       <c r="F13" s="4">
-        <v>6.8135764944275499</v>
+        <v>4.7993907745865902</v>
       </c>
       <c r="G13" s="4">
-        <v>1.9047619047619</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>4.8529630574665603</v>
+        <v>1.28958541679062</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>5.3704872465967304</v>
+        <v>7.4274206271807897</v>
       </c>
       <c r="E14" s="4">
-        <v>5.3406946647163602</v>
+        <v>0.61236972037452098</v>
       </c>
       <c r="F14" s="4">
-        <v>8.0394206087275393</v>
+        <v>5.3343929760823396</v>
       </c>
       <c r="G14" s="4">
-        <v>0.22222222222222199</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>4.75496809773853</v>
+        <v>1.1879070358633601</v>
       </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>5.4461319310286598</v>
+        <v>7.4019444492793101</v>
       </c>
       <c r="E15" s="4">
-        <v>5.6423640618922697</v>
+        <v>0.62582839554758696</v>
       </c>
       <c r="F15" s="4">
-        <v>8.3527871305649004</v>
+        <v>1.87176938369781</v>
       </c>
       <c r="G15" s="4">
-        <v>0.88888888888888895</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>4.6401872406173998</v>
+        <v>1.2831372951179001</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4">
-        <v>8.1871296931456001</v>
+        <v>7.2352910751149997</v>
       </c>
       <c r="E16" s="4">
-        <v>4.6022874384520902</v>
+        <v>1.8168250149698699</v>
       </c>
       <c r="F16" s="4">
-        <v>7.4012834036568202</v>
+        <v>3.7183201058201001</v>
       </c>
       <c r="G16" s="4">
-        <v>0.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>4.4672034830942602</v>
+        <v>2.47104433098127</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <v>6.39826118389849</v>
+        <v>7.18804719606422</v>
       </c>
       <c r="E17" s="4">
-        <v>3.8188460475997998</v>
+        <v>2.13062574012387</v>
       </c>
       <c r="F17" s="4">
-        <v>6.9009514101257201</v>
+        <v>5.7301029962546801</v>
       </c>
       <c r="G17" s="4">
-        <v>0.71428571428571397</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="H17" s="4">
-        <v>4.1596616877522203</v>
+        <v>3.3750357542425999</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>6.3084848917341398</v>
+        <v>7.1736411754560701</v>
       </c>
       <c r="E18" s="4">
-        <v>2.1107935392308002</v>
+        <v>2.13396908208377</v>
       </c>
       <c r="F18" s="4">
-        <v>6.2705490578297596</v>
+        <v>3.5091510903426699</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H18" s="4">
-        <v>3.7479630308871199</v>
+        <v>2.8179095861025099</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4">
-        <v>8.1927499230236602</v>
+        <v>7.1512444612150503</v>
       </c>
       <c r="E19" s="4">
-        <v>1.385590534151</v>
+        <v>9.3968878306612904</v>
       </c>
       <c r="F19" s="4">
-        <v>5.1283884420613601</v>
+        <v>9.5568639291465303</v>
       </c>
       <c r="G19" s="4">
-        <v>3</v>
+        <v>0.66176470588235203</v>
       </c>
       <c r="H19" s="4">
-        <v>3.6455783452024502</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>4.8543683363685499</v>
+        <v>7.08222195322353</v>
       </c>
       <c r="E20" s="4">
-        <v>6.9249704814057704</v>
+        <v>0.214647176406002</v>
       </c>
       <c r="F20" s="4">
-        <v>6.6844879518072204</v>
+        <v>4.1903777226357803</v>
       </c>
       <c r="G20" s="4">
-        <v>0.27777777777777701</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>3.5637438460961399</v>
+        <v>0.99652702433934104</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>5.1513402638325099</v>
+        <v>6.9555414405122802</v>
       </c>
       <c r="E21" s="4">
-        <v>5.2858503049630103</v>
+        <v>0.64575471184548805</v>
       </c>
       <c r="F21" s="4">
-        <v>7.3543638275499399</v>
+        <v>5.4399420024419998</v>
       </c>
       <c r="G21" s="4">
-        <v>0.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>3.5322258609350201</v>
+        <v>1.5151250080882199</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>7.18804719606422</v>
+        <v>6.9510551723918601</v>
       </c>
       <c r="E22" s="4">
-        <v>2.13062574012387</v>
+        <v>0.62582839554758696</v>
       </c>
       <c r="F22" s="4">
-        <v>5.7301029962546801</v>
+        <v>2.8802618697993099</v>
       </c>
       <c r="G22" s="4">
-        <v>1.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>3.3750357542425999</v>
+        <v>1.00005352510618</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4">
-        <v>6.22653047967035</v>
+        <v>6.90771199507848</v>
       </c>
       <c r="E23" s="4">
-        <v>4.6409357332496599</v>
+        <v>8.1862079512058799</v>
       </c>
       <c r="F23" s="4">
-        <v>4.8962719298245601</v>
+        <v>8.7347701149425205</v>
       </c>
       <c r="G23" s="4">
-        <v>0.66666666666666596</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="H23" s="4">
-        <v>3.3359515371926598</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>6.89420307168053</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>7.9337686677230899</v>
+        <v>6.9001028165889</v>
       </c>
       <c r="E24" s="4">
-        <v>2.01910035763047</v>
+        <v>0.61236972037452098</v>
       </c>
       <c r="F24" s="4">
-        <v>4.5483091787439598</v>
+        <v>3.85314591700133</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>3.16751402563736</v>
+        <v>1.4285302198460801</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>7.9970935144617501</v>
+        <v>6.8549903963589696</v>
       </c>
       <c r="E25" s="4">
-        <v>1.3462039841859601</v>
+        <v>0.63189880723286396</v>
       </c>
       <c r="F25" s="4">
-        <v>6.4744477415100503</v>
+        <v>1.7980495288187599</v>
       </c>
       <c r="G25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>2.9670478488035998</v>
+        <v>1.00005352510618</v>
       </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
-        <v>7.1736411754560701</v>
+        <v>6.8313684568335704</v>
       </c>
       <c r="E26" s="4">
-        <v>2.13396908208377</v>
+        <v>0.52040210669190001</v>
       </c>
       <c r="F26" s="4">
-        <v>3.5091510903426699</v>
+        <v>3.1134259259259198</v>
       </c>
       <c r="G26" s="4">
-        <v>0.476190476190476</v>
+        <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>2.8179095861025099</v>
+        <v>1.00005352510618</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D27" s="4">
-        <v>6.6776420122603701</v>
+        <v>6.7279174693890296</v>
       </c>
       <c r="E27" s="4">
-        <v>2.8396325838663299</v>
+        <v>7.4595523444460099</v>
       </c>
       <c r="F27" s="4">
-        <v>5.1622610513739504</v>
+        <v>8.5142668178382408</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>0.98901098901098805</v>
       </c>
       <c r="H27" s="4">
-        <v>2.7338093463318001</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>891</v>
-      </c>
+        <v>7.7210387678087997</v>
+      </c>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="4">
-        <v>6.34849133059069</v>
+        <v>6.6776420122603701</v>
       </c>
       <c r="E28" s="4">
-        <v>1.0984296099192199</v>
+        <v>2.8396325838663299</v>
       </c>
       <c r="F28" s="4">
-        <v>6.1906492248061999</v>
+        <v>5.1622610513739504</v>
       </c>
       <c r="G28" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>2.7041235723488701</v>
-      </c>
-      <c r="I28" s="4"/>
+        <v>2.7338093463318001</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>6.5552624184555999</v>
+        <v>6.6569493409296303</v>
       </c>
       <c r="E29" s="4">
-        <v>1.8409772254702199</v>
+        <v>2.3500757960290399</v>
       </c>
       <c r="F29" s="4">
-        <v>7.2153645833333302</v>
+        <v>5.3343929760823396</v>
       </c>
       <c r="G29" s="4">
-        <v>1.3333333333333299</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H29" s="4">
-        <v>2.6042475315122902</v>
+        <v>1.89018729139968</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>7.2352910751149997</v>
+        <v>6.6013035934959801</v>
       </c>
       <c r="E30" s="4">
-        <v>1.8168250149698699</v>
+        <v>0.68241892020386197</v>
       </c>
       <c r="F30" s="4">
-        <v>3.7183201058201001</v>
+        <v>2.7898471615720499</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>2.47104433098127</v>
+        <v>0.98582024919267197</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>479</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
       <c r="D31" s="4">
-        <v>10</v>
+        <v>6.5552624184555999</v>
       </c>
       <c r="E31" s="4">
-        <v>1.04463229443577</v>
+        <v>1.8409772254702199</v>
       </c>
       <c r="F31" s="4">
-        <v>2.3195023148148102</v>
+        <v>7.2153645833333302</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="H31" s="4">
-        <v>2.2926391672727502</v>
+        <v>2.6042475315122902</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>4.4959837166486203</v>
+        <v>6.5145014104469396</v>
       </c>
       <c r="E32" s="4">
-        <v>1.3234924698314099</v>
+        <v>0.33034638656938398</v>
       </c>
       <c r="F32" s="4">
-        <v>7.6404072883172498</v>
+        <v>4.8962719298245601</v>
       </c>
       <c r="G32" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>2.2412171290442302</v>
+        <v>0.91102813204758204</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4">
-        <v>5.5605438820155202</v>
+        <v>6.4746897176029297</v>
       </c>
       <c r="E33" s="4">
-        <v>1.0098950152297199</v>
+        <v>8.1169058790705098</v>
       </c>
       <c r="F33" s="4">
-        <v>6.6419753086419702</v>
+        <v>5.1963162623539896</v>
       </c>
       <c r="G33" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>1.9948658977028899</v>
+        <v>6.6617145775277002</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4">
-        <v>6.6569493409296303</v>
+        <v>6.39826118389849</v>
       </c>
       <c r="E34" s="4">
-        <v>2.3500757960290399</v>
+        <v>3.8188460475997998</v>
       </c>
       <c r="F34" s="4">
-        <v>5.3343929760823396</v>
+        <v>6.9009514101257201</v>
       </c>
       <c r="G34" s="4">
-        <v>3.3333333333333299</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H34" s="4">
-        <v>1.89018729139968</v>
+        <v>4.1596616877522203</v>
       </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>506</v>
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4">
-        <v>5.9319684769579499</v>
+        <v>6.39632805825934</v>
       </c>
       <c r="E35" s="4">
-        <v>1.2886681478211</v>
+        <v>4.0242239879085897</v>
       </c>
       <c r="F35" s="4">
-        <v>6.3513888888888799</v>
+        <v>9.0771713615023408</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>1.55555555555555</v>
       </c>
       <c r="H35" s="4">
-        <v>1.86882098353868</v>
+        <v>6.0426093346661203</v>
       </c>
       <c r="I35" s="4"/>
     </row>
@@ -42602,593 +42594,591 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4">
-        <v>5.1065115837774302</v>
+        <v>6.34849133059069</v>
       </c>
       <c r="E37" s="4">
-        <v>0.81831949498713497</v>
+        <v>1.0984296099192199</v>
       </c>
       <c r="F37" s="4">
-        <v>6.9894017094017</v>
+        <v>6.1906492248061999</v>
       </c>
       <c r="G37" s="4">
-        <v>1.6666666666666601</v>
+        <v>5</v>
       </c>
       <c r="H37" s="4">
-        <v>1.75809842763504</v>
+        <v>2.7041235723488701</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="4">
-        <v>3.5710954867273301</v>
+        <v>6.3084848917341398</v>
       </c>
       <c r="E38" s="4">
-        <v>2.8462213989212599</v>
+        <v>2.1107935392308002</v>
       </c>
       <c r="F38" s="4">
-        <v>2.5491589670694101</v>
+        <v>6.2705490578297596</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>1.74654010898931</v>
+        <v>3.7479630308871199</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>5.5891901171781004</v>
+        <v>6.2792672213304801</v>
       </c>
       <c r="E39" s="4">
-        <v>0.51940441460832898</v>
+        <v>0.20807001388369201</v>
       </c>
       <c r="F39" s="4">
-        <v>6.9450408997955</v>
+        <v>3.1134259259259198</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>1.5979123510823701</v>
+        <v>0.87591500638705799</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4">
-        <v>4.62663301325557</v>
+        <v>6.2682470268812196</v>
       </c>
       <c r="E40" s="4">
-        <v>1.3650461294282501</v>
+        <v>0.70658044658598596</v>
       </c>
       <c r="F40" s="4">
-        <v>4.76743344907407</v>
+        <v>2.7898471615720499</v>
       </c>
       <c r="G40" s="4">
-        <v>1.6666666666666601</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>1.5715703888769701</v>
+        <v>1.0944757262393201</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" s="4">
-        <v>6.9555414405122802</v>
+        <v>6.23476330336225</v>
       </c>
       <c r="E41" s="4">
-        <v>0.64575471184548805</v>
+        <v>0.777238491244584</v>
       </c>
       <c r="F41" s="4">
-        <v>5.4399420024419998</v>
+        <v>4.8638086905803402</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <v>1.5151250080882199</v>
+        <v>0.99480517455600703</v>
       </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4">
-        <v>7.81114639993051</v>
+        <v>6.22653047967035</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>4.6409357332496599</v>
       </c>
       <c r="F42" s="4">
-        <v>5.40456621004566</v>
+        <v>4.8962719298245601</v>
       </c>
       <c r="G42" s="4">
-        <v>10</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H42" s="4">
-        <v>1.4876264674978401</v>
+        <v>3.3359515371926598</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>6.9001028165889</v>
+        <v>6.22653047967035</v>
       </c>
       <c r="E43" s="4">
         <v>0.61236972037452098</v>
       </c>
       <c r="F43" s="4">
-        <v>3.85314591700133</v>
+        <v>2.5278368794326198</v>
       </c>
       <c r="G43" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4">
-        <v>1.4285302198460801</v>
+        <v>1.2370058049555399</v>
       </c>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>5.2484549713086999</v>
+        <v>6.22653047967035</v>
       </c>
       <c r="E44" s="4">
-        <v>1.8881399711547699</v>
+        <v>0.62582839554758696</v>
       </c>
       <c r="F44" s="4">
-        <v>2.5920770877944301</v>
+        <v>0.92068452380952304</v>
       </c>
       <c r="G44" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" s="4">
-        <v>1.42104109087858</v>
+        <v>1.0578209707479</v>
       </c>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4">
-        <v>3.9442252862464202</v>
+        <v>6.1390996208376096</v>
       </c>
       <c r="E45" s="4">
-        <v>1.13521521749962</v>
+        <v>0.31560593280840699</v>
       </c>
       <c r="F45" s="4">
-        <v>7.0789473684210504</v>
+        <v>4.9617136978248002</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <v>1.3308002578220399</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>890</v>
-      </c>
+        <v>0.87591500638705799</v>
+      </c>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4">
-        <v>5.4659688057448799</v>
+        <v>6.0696093722943401</v>
       </c>
       <c r="E46" s="4">
-        <v>0.53311098741324203</v>
+        <v>1.2180101031624999</v>
       </c>
       <c r="F46" s="4">
-        <v>5.6197771587743697</v>
+        <v>2.8123024556284899</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>1.28958541679062</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>892</v>
-      </c>
+        <v>1.1115834959800399</v>
+      </c>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>7.6507757060205996</v>
+        <v>6.0618043361595104</v>
       </c>
       <c r="E47" s="4">
-        <v>0.20965765277887799</v>
+        <v>0.72003912175905205</v>
       </c>
       <c r="F47" s="4">
-        <v>4.7993907745865902</v>
+        <v>1.15168195718654</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <v>1.28958541679062</v>
+        <v>0.89013376629350205</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>7.4019444492793101</v>
+        <v>5.98963789910764</v>
       </c>
       <c r="E48" s="4">
-        <v>0.62582839554758696</v>
+        <v>0.689098958613937</v>
       </c>
       <c r="F48" s="4">
-        <v>1.87176938369781</v>
+        <v>4.6725523973585998</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <v>1.2831372951179001</v>
+        <v>1.21912556093834</v>
       </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4">
-        <v>6.22653047967035</v>
+        <v>5.9773142133014598</v>
       </c>
       <c r="E49" s="4">
-        <v>0.61236972037452098</v>
+        <v>6.7375680840428798</v>
       </c>
       <c r="F49" s="4">
-        <v>2.5278368794326198</v>
+        <v>9.5568639291465303</v>
       </c>
       <c r="G49" s="4">
-        <v>10</v>
+        <v>0.76923076923076905</v>
       </c>
       <c r="H49" s="4">
-        <v>1.2370058049555399</v>
+        <v>7.8092085389925199</v>
       </c>
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>5.98963789910764</v>
+        <v>5.9366633573469096</v>
       </c>
       <c r="E50" s="4">
-        <v>0.689098958613937</v>
+        <v>0.65846568284227303</v>
       </c>
       <c r="F50" s="4">
-        <v>4.6725523973585998</v>
+        <v>5.4399420024419998</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <v>1.21912556093834</v>
+        <v>1.0944757262393201</v>
       </c>
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4">
-        <v>7.4274206271807897</v>
+        <v>5.9319684769579499</v>
       </c>
       <c r="E51" s="4">
-        <v>0.61236972037452098</v>
+        <v>1.2886681478211</v>
       </c>
       <c r="F51" s="4">
-        <v>5.3343929760823396</v>
+        <v>6.3513888888888799</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>1.1879070358633601</v>
+        <v>1.86882098353868</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="4">
-        <v>6.0696093722943401</v>
+        <v>5.9163379293696297</v>
       </c>
       <c r="E52" s="4">
-        <v>1.2180101031624999</v>
+        <v>0.12785741414412999</v>
       </c>
       <c r="F52" s="4">
-        <v>2.8123024556284899</v>
+        <v>4.9289064790383996</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <v>1.1115834959800399</v>
+        <v>0.99652702433934104</v>
       </c>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="4">
-        <v>5.9366633573469096</v>
+        <v>5.9018586948821499</v>
       </c>
       <c r="E53" s="4">
-        <v>0.65846568284227303</v>
+        <v>0.45142639642993498</v>
       </c>
       <c r="F53" s="4">
-        <v>5.4399420024419998</v>
+        <v>4.0757575757575699</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <v>1.0944757262393201</v>
+        <v>0.77287377746213903</v>
       </c>
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="4">
-        <v>6.2682470268812196</v>
+        <v>5.8960125013923603</v>
       </c>
       <c r="E54" s="4">
-        <v>0.70658044658598596</v>
+        <v>0.67192435801534001</v>
       </c>
       <c r="F54" s="4">
-        <v>2.7898471615720499</v>
+        <v>2.92606932153392</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <v>1.0944757262393201</v>
+        <v>0.89013376629350205</v>
       </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" s="4">
-        <v>6.22653047967035</v>
+        <v>5.8843742152476102</v>
       </c>
       <c r="E55" s="4">
-        <v>0.62582839554758696</v>
+        <v>0.31974767987059399</v>
       </c>
       <c r="F55" s="4">
-        <v>0.92068452380952304</v>
+        <v>4.5176445578231199</v>
       </c>
       <c r="G55" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H55" s="4">
-        <v>1.0578209707479</v>
+        <v>0.96839280543411399</v>
       </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="4">
-        <v>5.7985088631335397</v>
+        <v>5.8823414842957398</v>
       </c>
       <c r="E56" s="4">
-        <v>0.73123866217092504</v>
+        <v>0.62694995181200897</v>
       </c>
       <c r="F56" s="4">
-        <v>4.5791310541310501</v>
+        <v>5.1622610513739504</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <v>1.0578209707479</v>
+        <v>0.910260128626041</v>
       </c>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>565</v>
+        <v>482</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4">
-        <v>5.8130149907177202</v>
+        <v>5.8553616454378004</v>
       </c>
       <c r="E57" s="4">
-        <v>1.4950474415086099</v>
+        <v>9.9673699660213408</v>
       </c>
       <c r="F57" s="4">
-        <v>4.1042008757525998</v>
+        <v>8.6790759831996898</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>0.58823529411764697</v>
       </c>
       <c r="H57" s="4">
-        <v>1.00005352510618</v>
-      </c>
-      <c r="I57" s="4"/>
+        <v>7.9802448930513403</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>6.8313684568335704</v>
+        <v>5.8130149907177202</v>
       </c>
       <c r="E58" s="4">
-        <v>0.52040210669190001</v>
+        <v>1.4950474415086099</v>
       </c>
       <c r="F58" s="4">
-        <v>3.1134259259259198</v>
+        <v>4.1042008757525998</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -43200,975 +43190,985 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>6.9510551723918601</v>
+        <v>5.7985088631335397</v>
       </c>
       <c r="E59" s="4">
-        <v>0.62582839554758696</v>
+        <v>0.73123866217092504</v>
       </c>
       <c r="F59" s="4">
-        <v>2.8802618697993099</v>
+        <v>4.5791310541310501</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <v>1.00005352510618</v>
+        <v>1.0578209707479</v>
       </c>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>6.8549903963589696</v>
+        <v>5.7691430985697503</v>
       </c>
       <c r="E60" s="4">
-        <v>0.63189880723286396</v>
+        <v>0.69491626143599505</v>
       </c>
       <c r="F60" s="4">
-        <v>1.7980495288187599</v>
+        <v>2.5920770877944301</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <v>1.00005352510618</v>
+        <v>0.910260128626041</v>
       </c>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>8.2373448588014693</v>
+        <v>5.7416091373354803</v>
       </c>
       <c r="E61" s="4">
-        <v>0.26322925525988999</v>
+        <v>0.79069716641765098</v>
       </c>
       <c r="F61" s="4">
-        <v>0.83171378091872705</v>
+        <v>2.5705721747388401</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <v>1.00005352510618</v>
+        <v>0.77287377746213903</v>
       </c>
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>5.9163379293696297</v>
+        <v>5.7359510962446603</v>
       </c>
       <c r="E62" s="4">
-        <v>0.12785741414412999</v>
+        <v>0.32805520734349303</v>
       </c>
       <c r="F62" s="4">
-        <v>4.9289064790383996</v>
+        <v>4.6101113967437799</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>0.99652702433934104</v>
-      </c>
-      <c r="I62" s="4"/>
+        <v>0.98582024919267197</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4">
-        <v>7.08222195322353</v>
+        <v>5.7279384348648197</v>
       </c>
       <c r="E63" s="4">
-        <v>0.214647176406002</v>
+        <v>8.1162669758394195</v>
       </c>
       <c r="F63" s="4">
-        <v>4.1903777226357803</v>
+        <v>9.4953870838347303</v>
       </c>
       <c r="G63" s="4">
-        <v>0</v>
+        <v>1.0606060606060601</v>
       </c>
       <c r="H63" s="4">
-        <v>0.99652702433934104</v>
-      </c>
-      <c r="I63" s="4"/>
+        <v>6.1180443431035698</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>6.23476330336225</v>
+        <v>5.7117230721650598</v>
       </c>
       <c r="E64" s="4">
-        <v>0.777238491244584</v>
+        <v>0.39891620027851099</v>
       </c>
       <c r="F64" s="4">
-        <v>4.8638086905803402</v>
+        <v>5.3693837279902796</v>
       </c>
       <c r="G64" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H64" s="4">
-        <v>0.99480517455600703</v>
+        <v>0.85640634269581095</v>
       </c>
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" s="4">
-        <v>5.7359510962446603</v>
+        <v>5.6890502039933004</v>
       </c>
       <c r="E65" s="4">
-        <v>0.32805520734349303</v>
+        <v>0.46683444320544998</v>
       </c>
       <c r="F65" s="4">
-        <v>4.6101113967437799</v>
+        <v>3.53486859224564</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>0.98582024919267197</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>888</v>
-      </c>
+        <v>0.85640634269581095</v>
+      </c>
+      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" s="4">
-        <v>6.6013035934959801</v>
+        <v>5.6645290269857398</v>
       </c>
       <c r="E66" s="4">
-        <v>0.68241892020386197</v>
+        <v>1.23146877833557</v>
       </c>
       <c r="F66" s="4">
-        <v>2.7898471615720499</v>
+        <v>1.1834458768160401</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>0.98582024919267197</v>
+        <v>0.910260128626041</v>
       </c>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" s="4">
-        <v>5.8843742152476102</v>
+        <v>5.5891901171781004</v>
       </c>
       <c r="E67" s="4">
-        <v>0.31974767987059399</v>
+        <v>0.51940441460832898</v>
       </c>
       <c r="F67" s="4">
-        <v>4.5176445578231199</v>
+        <v>6.9450408997955</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>0.96839280543411399</v>
+        <v>1.5979123510823701</v>
       </c>
       <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="4">
-        <v>6.5145014104469396</v>
+        <v>5.5689723209041704</v>
       </c>
       <c r="E68" s="4">
-        <v>0.33034638656938398</v>
+        <v>0.19961027520347799</v>
       </c>
       <c r="F68" s="4">
-        <v>4.8962719298245601</v>
+        <v>3.6917392451834199</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>0.91102813204758204</v>
+        <v>0.64853586526844997</v>
       </c>
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" s="4">
-        <v>7.68038543430084</v>
+        <v>5.5605438820155202</v>
       </c>
       <c r="E69" s="4">
-        <v>0.26252427703653902</v>
+        <v>1.0098950152297199</v>
       </c>
       <c r="F69" s="4">
-        <v>4.1615099009900902</v>
+        <v>6.6419753086419702</v>
       </c>
       <c r="G69" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H69" s="4">
-        <v>0.91102813204758204</v>
+        <v>1.9948658977028899</v>
       </c>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="4">
-        <v>7.68038543430084</v>
+        <v>5.4659688057448799</v>
       </c>
       <c r="E70" s="4">
-        <v>0.26252427703653902</v>
+        <v>0.53311098741324203</v>
       </c>
       <c r="F70" s="4">
-        <v>4.1615099009900902</v>
+        <v>5.6197771587743697</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>0.91102813204758204</v>
-      </c>
-      <c r="I70" s="4"/>
+        <v>1.28958541679062</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" s="4">
-        <v>5.8823414842957398</v>
+        <v>5.4461319310286598</v>
       </c>
       <c r="E71" s="4">
-        <v>0.62694995181200897</v>
+        <v>5.6423640618922697</v>
       </c>
       <c r="F71" s="4">
-        <v>5.1622610513739504</v>
+        <v>8.3527871305649004</v>
       </c>
       <c r="G71" s="4">
-        <v>0</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="H71" s="4">
-        <v>0.910260128626041</v>
+        <v>4.6401872406173998</v>
       </c>
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72" s="4">
-        <v>5.7691430985697503</v>
+        <v>5.3704872465967304</v>
       </c>
       <c r="E72" s="4">
-        <v>0.69491626143599505</v>
+        <v>5.3406946647163602</v>
       </c>
       <c r="F72" s="4">
-        <v>2.5920770877944301</v>
+        <v>8.0394206087275393</v>
       </c>
       <c r="G72" s="4">
-        <v>0</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="H72" s="4">
-        <v>0.910260128626041</v>
+        <v>4.75496809773853</v>
       </c>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="4">
-        <v>5.6645290269857398</v>
+        <v>5.3683549103321502</v>
       </c>
       <c r="E73" s="4">
-        <v>1.23146877833557</v>
+        <v>0.64040862698507595</v>
       </c>
       <c r="F73" s="4">
-        <v>1.1834458768160401</v>
+        <v>2.7452294685990299</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>0.910260128626041</v>
+        <v>0.67340924395023904</v>
       </c>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="4">
-        <v>3.3808755053562201</v>
+        <v>5.3117557174691497</v>
       </c>
       <c r="E74" s="4">
-        <v>0.91583614180658701</v>
+        <v>0.70837493660906103</v>
       </c>
       <c r="F74" s="4">
-        <v>4.1615099009900902</v>
+        <v>1.01158243080625</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <v>0.89013376629350205</v>
+        <v>0.67340924395023904</v>
       </c>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>5.8960125013923603</v>
+        <v>5.3019736132785198</v>
       </c>
       <c r="E75" s="4">
-        <v>0.67192435801534001</v>
+        <v>0.20703928641233799</v>
       </c>
       <c r="F75" s="4">
-        <v>2.92606932153392</v>
+        <v>5.4399420024419998</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <v>0.89013376629350205</v>
+        <v>0.83684820933637805</v>
       </c>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" s="4">
-        <v>6.0618043361595104</v>
+        <v>5.2594486816771502</v>
       </c>
       <c r="E76" s="4">
-        <v>0.72003912175905205</v>
+        <v>1.2449274535086401</v>
       </c>
       <c r="F76" s="4">
-        <v>1.15168195718654</v>
+        <v>0</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <v>0.89013376629350205</v>
+        <v>0.67340924395023904</v>
       </c>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="4">
-        <v>6.1390996208376096</v>
+        <v>5.2484549713086999</v>
       </c>
       <c r="E77" s="4">
-        <v>0.31560593280840699</v>
+        <v>1.8881399711547699</v>
       </c>
       <c r="F77" s="4">
-        <v>4.9617136978248002</v>
+        <v>2.5920770877944301</v>
       </c>
       <c r="G77" s="4">
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <v>0.87591500638705799</v>
+        <v>1.42104109087858</v>
       </c>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="4">
-        <v>6.2792672213304801</v>
+        <v>5.1513402638325099</v>
       </c>
       <c r="E78" s="4">
-        <v>0.20807001388369201</v>
+        <v>5.2858503049630103</v>
       </c>
       <c r="F78" s="4">
-        <v>3.1134259259259198</v>
+        <v>7.3543638275499399</v>
       </c>
       <c r="G78" s="4">
-        <v>0</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H78" s="4">
-        <v>0.87591500638705799</v>
+        <v>3.5322258609350201</v>
       </c>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="4">
-        <v>5.7117230721650598</v>
+        <v>5.1065115837774302</v>
       </c>
       <c r="E79" s="4">
-        <v>0.39891620027851099</v>
+        <v>0.81831949498713497</v>
       </c>
       <c r="F79" s="4">
-        <v>5.3693837279902796</v>
+        <v>6.9894017094017</v>
       </c>
       <c r="G79" s="4">
-        <v>10</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H79" s="4">
-        <v>0.85640634269581095</v>
+        <v>1.75809842763504</v>
       </c>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" s="4">
-        <v>5.6890502039933004</v>
+        <v>5.0089907854856497</v>
       </c>
       <c r="E80" s="4">
-        <v>0.46683444320544998</v>
+        <v>0.68115023505313899</v>
       </c>
       <c r="F80" s="4">
-        <v>3.53486859224564</v>
+        <v>5.40456621004566</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <v>0.85640634269581095</v>
+        <v>0.85421393301626203</v>
       </c>
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>557</v>
+        <v>498</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81" s="4">
-        <v>5.0089907854856497</v>
+        <v>4.8543683363685499</v>
       </c>
       <c r="E81" s="4">
-        <v>0.68115023505313899</v>
+        <v>6.9249704814057704</v>
       </c>
       <c r="F81" s="4">
-        <v>5.40456621004566</v>
+        <v>6.6844879518072204</v>
       </c>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="H81" s="4">
-        <v>0.85421393301626203</v>
+        <v>3.5637438460961399</v>
       </c>
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D82" s="4">
-        <v>2.7326352817786499</v>
+        <v>4.80278291331211</v>
       </c>
       <c r="E82" s="4">
-        <v>0.51199043470873395</v>
+        <v>8.3536737453447198</v>
       </c>
       <c r="F82" s="4">
-        <v>6.9009514101257201</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4">
-        <v>3.3333333333333299</v>
+        <v>0.76923076923076905</v>
       </c>
       <c r="H82" s="4">
-        <v>0.83684820933637805</v>
-      </c>
-      <c r="I82" s="4"/>
+        <v>5.6359205166263404</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D83" s="4">
-        <v>5.3019736132785198</v>
+        <v>4.7439847231002901</v>
       </c>
       <c r="E83" s="4">
-        <v>0.20703928641233799</v>
+        <v>6.2373031283477998</v>
       </c>
       <c r="F83" s="4">
-        <v>5.4399420024419998</v>
+        <v>8.1945370370370298</v>
       </c>
       <c r="G83" s="4">
-        <v>0</v>
+        <v>0.329670329670329</v>
       </c>
       <c r="H83" s="4">
-        <v>0.83684820933637805</v>
-      </c>
-      <c r="I83" s="4"/>
+        <v>5.7063782064167698</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>5.9018586948821499</v>
+        <v>4.6564219911570799</v>
       </c>
       <c r="E84" s="4">
-        <v>0.45142639642993498</v>
+        <v>0.21619332182766901</v>
       </c>
       <c r="F84" s="4">
-        <v>4.0757575757575699</v>
+        <v>3.53486859224564</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <v>0.77287377746213903</v>
+        <v>0.54723786311966105</v>
       </c>
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" s="4">
-        <v>5.7416091373354803</v>
+        <v>4.62663301325557</v>
       </c>
       <c r="E85" s="4">
-        <v>0.79069716641765098</v>
+        <v>1.3650461294282501</v>
       </c>
       <c r="F85" s="4">
-        <v>2.5705721747388401</v>
+        <v>4.76743344907407</v>
       </c>
       <c r="G85" s="4">
-        <v>0</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="H85" s="4">
-        <v>0.77287377746213903</v>
+        <v>1.5715703888769701</v>
       </c>
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="4">
-        <v>5.3683549103321502</v>
+        <v>4.4959837166486203</v>
       </c>
       <c r="E86" s="4">
-        <v>0.64040862698507595</v>
+        <v>1.3234924698314099</v>
       </c>
       <c r="F86" s="4">
-        <v>2.7452294685990299</v>
+        <v>7.6404072883172498</v>
       </c>
       <c r="G86" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4">
-        <v>0.67340924395023904</v>
+        <v>2.2412171290442302</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" s="4">
-        <v>5.3117557174691497</v>
+        <v>4.4707913666620298</v>
       </c>
       <c r="E87" s="4">
-        <v>0.70837493660906103</v>
+        <v>0.43651917362687498</v>
       </c>
       <c r="F87" s="4">
-        <v>1.01158243080625</v>
+        <v>4.5176445578231199</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <v>0.67340924395023904</v>
+        <v>0.60747320192842502</v>
       </c>
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>5.2594486816771502</v>
+        <v>4.4707913666620298</v>
       </c>
       <c r="E88" s="4">
-        <v>1.2449274535086401</v>
+        <v>0.43651917362687498</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>4.5176445578231199</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <v>0.67340924395023904</v>
+        <v>0.60747320192842502</v>
       </c>
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" s="4">
-        <v>5.5689723209041704</v>
+        <v>4.2900431361064904</v>
       </c>
       <c r="E89" s="4">
-        <v>0.19961027520347799</v>
+        <v>0.69460891022620497</v>
       </c>
       <c r="F89" s="4">
-        <v>3.6917392451834199</v>
+        <v>2.9031150355653601</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <v>0.64853586526844997</v>
+        <v>0.60747320192842502</v>
       </c>
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" s="4">
-        <v>2.9081624231966101</v>
+        <v>3.9442252862464202</v>
       </c>
       <c r="E90" s="4">
-        <v>0.356174225115793</v>
+        <v>1.13521521749962</v>
       </c>
       <c r="F90" s="4">
-        <v>6.5577114427860597</v>
+        <v>7.0789473684210504</v>
       </c>
       <c r="G90" s="4">
-        <v>3.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H90" s="4">
-        <v>0.64104955152217402</v>
-      </c>
-      <c r="I90" s="4"/>
+        <v>1.3308002578220399</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" s="4">
-        <v>4.4707913666620298</v>
+        <v>3.5710954867273301</v>
       </c>
       <c r="E91" s="4">
-        <v>0.43651917362687498</v>
+        <v>2.8462213989212599</v>
       </c>
       <c r="F91" s="4">
-        <v>4.5176445578231199</v>
+        <v>2.5491589670694101</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <v>0.60747320192842502</v>
+        <v>1.74654010898931</v>
       </c>
       <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="4">
-        <v>4.4707913666620298</v>
+        <v>3.3808755053562201</v>
       </c>
       <c r="E92" s="4">
-        <v>0.43651917362687498</v>
+        <v>0.91583614180658701</v>
       </c>
       <c r="F92" s="4">
-        <v>4.5176445578231199</v>
+        <v>4.1615099009900902</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>0.60747320192842502</v>
+        <v>0.89013376629350205</v>
       </c>
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="4">
-        <v>4.2900431361064904</v>
+        <v>2.9081624231966101</v>
       </c>
       <c r="E93" s="4">
-        <v>0.69460891022620497</v>
+        <v>0.356174225115793</v>
       </c>
       <c r="F93" s="4">
-        <v>2.9031150355653601</v>
+        <v>6.5577114427860597</v>
       </c>
       <c r="G93" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H93" s="4">
-        <v>0.60747320192842502</v>
+        <v>0.64104955152217402</v>
       </c>
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4">
-        <v>4.6564219911570799</v>
+        <v>2.7326352817786499</v>
       </c>
       <c r="E94" s="4">
-        <v>0.21619332182766901</v>
+        <v>0.51199043470873395</v>
       </c>
       <c r="F94" s="4">
-        <v>3.53486859224564</v>
+        <v>6.9009514101257201</v>
       </c>
       <c r="G94" s="4">
-        <v>0</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="H94" s="4">
-        <v>0.54723786311966105</v>
+        <v>0.83684820933637805</v>
       </c>
       <c r="I94" s="4"/>
     </row>
